--- a/data/out/wiki/men/uefa/eu/third_teams_df_eu_uefa.xlsx
+++ b/data/out/wiki/men/uefa/eu/third_teams_df_eu_uefa.xlsx
@@ -1896,7 +1896,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>['Portugal', 'Sweden']</t>
+          <t>['Sweden', 'Portugal']</t>
         </is>
       </c>
       <c r="P19" t="n">
@@ -2708,37 +2708,37 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>['Slovakia', 4, 0, 3]</t>
+          <t>['Finland', 4, 0, 1]</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 3, 0, 2]</t>
+          <t>['Austria', 4, 0, 3]</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>['Turkey', 3, -2, 2]</t>
+          <t>['Croatia', 2, -1, 1]</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>['Ireland', 4, -2, 2]</t>
+          <t>['Spain', 3, 0, 1]</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>['Portugal', 3, 0, 4]</t>
+          <t>['Portugal', 4, 1, 5]</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Ireland', 'Portugal', 'Northern Ireland']</t>
+          <t>['Portugal', 'Austria', 'Finland', 'Spain']</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>['Turkey', 'Switzerland']</t>
+          <t>['Croatia', 'Switzerland']</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -2747,10 +2747,10 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -2785,49 +2785,49 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>['Slovakia', 4, 0, 3]</t>
+          <t>['Finland', 4, 0, 1]</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 3, 0, 2]</t>
+          <t>['Austria', 4, 0, 3]</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>['Turkey', 3, -2, 2]</t>
+          <t>['Croatia', 2, -1, 1]</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>['Ireland', 4, -2, 2]</t>
+          <t>['Spain', 3, 0, 1]</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>['Portugal', 3, 0, 4]</t>
+          <t>['Portugal', 4, 1, 5]</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Switzerland', 'Ireland', 'Portugal']</t>
+          <t>['Portugal', 'Austria', 'Finland', 'Switzerland']</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Turkey']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Ireland']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P31" t="n">
         <v>1</v>
       </c>
       <c r="Q31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32">
@@ -2862,37 +2862,37 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>['Slovakia', 4, 0, 3]</t>
+          <t>['Finland', 4, 0, 1]</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 3, 0, 2]</t>
+          <t>['Austria', 4, 0, 3]</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>['Turkey', 3, -2, 2]</t>
+          <t>['Croatia', 2, -1, 1]</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>['Ireland', 4, -2, 2]</t>
+          <t>['Spain', 3, 0, 1]</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>['Portugal', 3, 0, 4]</t>
+          <t>['Portugal', 4, 1, 5]</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Switzerland', 'Ireland', 'Portugal']</t>
+          <t>['Portugal', 'Austria', 'Finland', 'Switzerland']</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Turkey']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -2904,7 +2904,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
@@ -2939,37 +2939,37 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>['Slovakia', 4, 0, 3]</t>
+          <t>['Finland', 4, 0, 1]</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 3, 0, 2]</t>
+          <t>['Austria', 4, 0, 3]</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>['Turkey', 3, -2, 2]</t>
+          <t>['Croatia', 2, -1, 1]</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>['Ireland', 4, -2, 2]</t>
+          <t>['Spain', 3, 0, 1]</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>['Portugal', 3, 0, 4]</t>
+          <t>['Portugal', 4, 1, 5]</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Switzerland', 'Ireland', 'Portugal']</t>
+          <t>['Portugal', 'Austria', 'Finland', 'Switzerland']</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Turkey']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -2981,7 +2981,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34">
@@ -3016,37 +3016,37 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>['Slovakia', 4, 0, 3]</t>
+          <t>['Finland', 4, 0, 1]</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 3, 0, 2]</t>
+          <t>['Austria', 4, 0, 3]</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>['Turkey', 3, -2, 2]</t>
+          <t>['Croatia', 2, -1, 1]</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>['Ireland', 4, -2, 2]</t>
+          <t>['Spain', 3, 0, 1]</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>['Portugal', 3, 0, 4]</t>
+          <t>['Portugal', 4, 1, 5]</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Switzerland', 'Ireland', 'Portugal']</t>
+          <t>['Portugal', 'Austria', 'Finland', 'Switzerland']</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Turkey']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -3058,7 +3058,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
@@ -3093,37 +3093,37 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>['Slovakia', 4, 0, 3]</t>
+          <t>['Finland', 4, 0, 1]</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 3, 0, 2]</t>
+          <t>['Austria', 4, 0, 3]</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>['Turkey', 3, -2, 2]</t>
+          <t>['Croatia', 2, -1, 1]</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>['Ireland', 4, -2, 2]</t>
+          <t>['Spain', 3, 0, 1]</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>['Portugal', 3, 0, 4]</t>
+          <t>['Portugal', 4, 1, 5]</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Switzerland', 'Ireland', 'Portugal']</t>
+          <t>['Portugal', 'Austria', 'Finland', 'Switzerland']</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Turkey']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -3135,7 +3135,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
@@ -3170,7 +3170,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>['Slovakia', 4, 0, 3]</t>
+          <t>['Finland', 4, 0, 1]</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -3180,36 +3180,36 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>['Turkey', 3, -2, 2]</t>
+          <t>['Croatia', 2, -1, 1]</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>['Ireland', 4, -2, 2]</t>
+          <t>['Spain', 3, 0, 1]</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>['Portugal', 3, 0, 4]</t>
+          <t>['Portugal', 4, 1, 5]</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>['Austria', 'Slovakia', 'Switzerland', 'Ireland']</t>
+          <t>['Portugal', 'Austria', 'Finland', 'Switzerland']</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>['Austria', 'Slovakia']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>2</v>
@@ -3247,7 +3247,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>['Slovakia', 4, 0, 3]</t>
+          <t>['Finland', 4, 0, 1]</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -3257,27 +3257,27 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>['Turkey', 3, -2, 2]</t>
+          <t>['Croatia', 2, -1, 1]</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>['Ireland', 4, -2, 2]</t>
+          <t>['Spain', 3, 0, 1]</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>['Portugal', 3, 0, 4]</t>
+          <t>['Portugal', 4, 1, 5]</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Switzerland', 'Ireland', 'Portugal']</t>
+          <t>['Portugal', 'Finland', 'Switzerland', 'Spain']</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Turkey']</t>
+          <t>['Ukraine', 'Croatia']</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -3334,27 +3334,27 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>['Turkey', 3, -2, 2]</t>
+          <t>['Croatia', 2, -1, 1]</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>['Ireland', 4, -2, 2]</t>
+          <t>['Spain', 3, 0, 1]</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>['Portugal', 3, 0, 4]</t>
+          <t>['Portugal', 4, 1, 5]</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>['Finland', 'Switzerland', 'Ireland', 'Portugal']</t>
+          <t>['Portugal', 'Finland', 'Switzerland', 'Spain']</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Turkey']</t>
+          <t>['Ukraine', 'Croatia']</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -3363,10 +3363,10 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39">
@@ -3411,27 +3411,27 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>['Turkey', 3, -2, 2]</t>
+          <t>['Croatia', 2, -1, 1]</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>['Ireland', 4, -2, 2]</t>
+          <t>['Spain', 3, 0, 1]</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>['Portugal', 3, 0, 4]</t>
+          <t>['Portugal', 4, 1, 5]</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>['Finland', 'Switzerland', 'Ireland', 'Portugal']</t>
+          <t>['Portugal', 'Finland', 'Switzerland', 'Spain']</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Turkey']</t>
+          <t>['Ukraine', 'Croatia']</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -3443,7 +3443,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40">
@@ -3488,27 +3488,27 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>['Turkey', 3, -2, 2]</t>
+          <t>['Croatia', 2, -1, 1]</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>['Ireland', 4, -2, 2]</t>
+          <t>['Spain', 3, 0, 1]</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>['Portugal', 3, 0, 4]</t>
+          <t>['Portugal', 4, 1, 5]</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>['Finland', 'Switzerland', 'Ireland', 'Portugal']</t>
+          <t>['Portugal', 'Finland', 'Switzerland', 'Spain']</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Turkey']</t>
+          <t>['Ukraine', 'Croatia']</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -3520,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41">
@@ -3565,27 +3565,27 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>['Turkey', 3, -2, 2]</t>
+          <t>['Croatia', 2, -1, 1]</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>['Ireland', 4, -2, 2]</t>
+          <t>['Spain', 3, 0, 1]</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>['Portugal', 3, 0, 4]</t>
+          <t>['Portugal', 4, 1, 5]</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>['Finland', 'Switzerland', 'Ireland', 'Portugal']</t>
+          <t>['Portugal', 'Finland', 'Switzerland', 'Spain']</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Turkey']</t>
+          <t>['Ukraine', 'Croatia']</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -3597,7 +3597,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42">
@@ -3642,27 +3642,27 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>['Turkey', 3, -2, 2]</t>
+          <t>['Croatia', 2, -1, 1]</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>['Ireland', 4, -2, 2]</t>
+          <t>['Spain', 3, 0, 1]</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>['Portugal', 3, 0, 4]</t>
+          <t>['Portugal', 4, 1, 5]</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Ireland', 'Portugal', 'Ukraine']</t>
+          <t>['Portugal', 'Switzerland', 'Spain', 'Ukraine']</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>['Finland', 'Turkey']</t>
+          <t>['Finland', 'Croatia']</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -3674,7 +3674,7 @@
         <v>1</v>
       </c>
       <c r="Q42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43">
@@ -3719,27 +3719,27 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>['Turkey', 3, -2, 2]</t>
+          <t>['Croatia', 2, -1, 1]</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>['Ireland', 4, -2, 2]</t>
+          <t>['Spain', 3, 0, 1]</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>['Portugal', 3, 0, 4]</t>
+          <t>['Portugal', 4, 1, 5]</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Ireland', 'Portugal', 'Ukraine']</t>
+          <t>['Portugal', 'Switzerland', 'Spain', 'Ukraine']</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>['Turkey', 'Finland']</t>
+          <t>['Finland', 'Croatia']</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -3751,7 +3751,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44">
@@ -3796,27 +3796,27 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>['Turkey', 3, -2, 2]</t>
+          <t>['Croatia', 2, -1, 1]</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>['Ireland', 4, -2, 2]</t>
+          <t>['Spain', 3, 0, 1]</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>['Portugal', 3, 0, 4]</t>
+          <t>['Portugal', 4, 1, 5]</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Ireland', 'Portugal', 'Ukraine']</t>
+          <t>['Portugal', 'Switzerland', 'Spain', 'Ukraine']</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>['Turkey', 'Russia']</t>
+          <t>['Russia', 'Croatia']</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -3828,7 +3828,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45">
@@ -3873,27 +3873,27 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>['Turkey', 3, -2, 2]</t>
+          <t>['Croatia', 2, -1, 1]</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>['Ireland', 4, -2, 2]</t>
+          <t>['Spain', 3, 0, 1]</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>['Portugal', 3, 0, 4]</t>
+          <t>['Portugal', 4, 1, 5]</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Ireland', 'Portugal', 'Ukraine']</t>
+          <t>['Portugal', 'Switzerland', 'Spain', 'Ukraine']</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>['Turkey', 'Finland']</t>
+          <t>['Finland', 'Croatia']</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -3905,7 +3905,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46">
@@ -3950,27 +3950,27 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>['Turkey', 3, -2, 2]</t>
+          <t>['Croatia', 2, -1, 1]</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>['Ireland', 4, -2, 2]</t>
+          <t>['Spain', 3, 0, 1]</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>['Portugal', 3, 0, 4]</t>
+          <t>['Portugal', 4, 1, 5]</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Ireland', 'Portugal', 'Ukraine']</t>
+          <t>['Portugal', 'Switzerland', 'Spain', 'Ukraine']</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>['Turkey', 'Russia']</t>
+          <t>['Russia', 'Croatia']</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -3982,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47">
@@ -4027,27 +4027,27 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>['Turkey', 3, -2, 2]</t>
+          <t>['Croatia', 2, -1, 1]</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>['Ireland', 4, -2, 2]</t>
+          <t>['Spain', 3, 0, 1]</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>['Portugal', 3, 0, 4]</t>
+          <t>['Portugal', 4, 1, 5]</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Ireland', 'Portugal', 'Ukraine']</t>
+          <t>['Portugal', 'Switzerland', 'Spain', 'Ukraine']</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>['Turkey', 'Finland']</t>
+          <t>['Finland', 'Croatia']</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -4059,7 +4059,7 @@
         <v>0</v>
       </c>
       <c r="Q47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48">
@@ -4104,27 +4104,27 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>['Turkey', 3, -2, 2]</t>
+          <t>['Croatia', 2, -1, 1]</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>['Ireland', 4, -2, 2]</t>
+          <t>['Spain', 3, 0, 1]</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>['Portugal', 3, 0, 4]</t>
+          <t>['Portugal', 4, 1, 5]</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Ireland', 'Portugal', 'Ukraine']</t>
+          <t>['Portugal', 'Switzerland', 'Spain', 'Ukraine']</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>['Turkey', 'Finland']</t>
+          <t>['Finland', 'Croatia']</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -4136,7 +4136,7 @@
         <v>0</v>
       </c>
       <c r="Q48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49">
@@ -4186,17 +4186,17 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>['Ireland', 4, -2, 2]</t>
+          <t>['Spain', 3, 0, 1]</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>['Portugal', 3, 0, 4]</t>
+          <t>['Portugal', 4, 1, 5]</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Ireland', 'Portugal', 'Ukraine']</t>
+          <t>['Portugal', 'Switzerland', 'Spain', 'Ukraine']</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -4213,7 +4213,7 @@
         <v>0</v>
       </c>
       <c r="Q49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50">
@@ -4263,17 +4263,17 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>['Ireland', 4, -2, 2]</t>
+          <t>['Spain', 3, 0, 1]</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>['Portugal', 3, 0, 4]</t>
+          <t>['Portugal', 4, 1, 5]</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Ireland', 'Portugal', 'Ukraine']</t>
+          <t>['Portugal', 'Switzerland', 'Spain', 'Ukraine']</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -4290,7 +4290,7 @@
         <v>0</v>
       </c>
       <c r="Q50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51">
@@ -4340,17 +4340,17 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>['Ireland', 4, -2, 2]</t>
+          <t>['Spain', 3, 0, 1]</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>['Portugal', 3, 0, 4]</t>
+          <t>['Portugal', 4, 1, 5]</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>['Croatia', 'Switzerland', 'Ireland', 'Portugal']</t>
+          <t>['Portugal', 'Croatia', 'Switzerland', 'Spain']</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -4367,7 +4367,7 @@
         <v>1</v>
       </c>
       <c r="Q51" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52">
@@ -4417,17 +4417,17 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>['Ireland', 4, -2, 2]</t>
+          <t>['Spain', 3, 0, 1]</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>['Portugal', 3, 0, 4]</t>
+          <t>['Portugal', 4, 1, 5]</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Ireland', 'Portugal', 'Ukraine']</t>
+          <t>['Portugal', 'Switzerland', 'Spain', 'Ukraine']</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
@@ -4444,7 +4444,7 @@
         <v>1</v>
       </c>
       <c r="Q52" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53">
@@ -4494,17 +4494,17 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>['Ireland', 4, -2, 2]</t>
+          <t>['Spain', 3, 0, 1]</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>['Portugal', 3, 0, 4]</t>
+          <t>['Portugal', 4, 1, 5]</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>['Croatia', 'Switzerland', 'Ireland', 'Portugal']</t>
+          <t>['Portugal', 'Croatia', 'Switzerland', 'Spain']</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
@@ -4521,7 +4521,7 @@
         <v>1</v>
       </c>
       <c r="Q53" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54">
@@ -4571,17 +4571,17 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>['Ireland', 4, -2, 2]</t>
+          <t>['Spain', 3, 0, 1]</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>['Portugal', 3, 0, 4]</t>
+          <t>['Portugal', 4, 1, 5]</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Switzerland', 'Ireland', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic', 'Switzerland', 'Spain']</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
@@ -4598,7 +4598,7 @@
         <v>1</v>
       </c>
       <c r="Q54" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55">
@@ -4653,12 +4653,12 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>['Portugal', 3, 0, 4]</t>
+          <t>['Portugal', 4, 1, 5]</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Switzerland', 'Portugal', 'Spain']</t>
+          <t>['Portugal', 'Czech Republic', 'Switzerland', 'Spain']</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
@@ -4672,10 +4672,10 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56">
@@ -4730,12 +4730,12 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>['Portugal', 3, 0, 4]</t>
+          <t>['Portugal', 4, 1, 5]</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Switzerland', 'Portugal', 'Spain']</t>
+          <t>['Portugal', 'Czech Republic', 'Switzerland', 'Spain']</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
@@ -4752,7 +4752,7 @@
         <v>0</v>
       </c>
       <c r="Q56" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57">
@@ -4807,12 +4807,12 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>['Portugal', 3, 0, 4]</t>
+          <t>['Portugal', 4, 1, 5]</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Switzerland', 'Portugal', 'Spain']</t>
+          <t>['Portugal', 'Czech Republic', 'Switzerland', 'Spain']</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
@@ -4829,7 +4829,7 @@
         <v>0</v>
       </c>
       <c r="Q57" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58">
@@ -4884,12 +4884,12 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>['Portugal', 3, 0, 4]</t>
+          <t>['Portugal', 4, 1, 5]</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Switzerland', 'Portugal', 'Spain']</t>
+          <t>['Portugal', 'Czech Republic', 'Switzerland', 'Spain']</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="Q58" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59">
@@ -4961,12 +4961,12 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>['Portugal', 3, 0, 4]</t>
+          <t>['Portugal', 4, 1, 5]</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Switzerland', 'Portugal', 'Spain']</t>
+          <t>['Portugal', 'Czech Republic', 'Switzerland', 'Spain']</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
@@ -4983,7 +4983,7 @@
         <v>0</v>
       </c>
       <c r="Q59" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60">
@@ -5038,12 +5038,12 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>['Portugal', 3, 0, 4]</t>
+          <t>['Portugal', 4, 1, 5]</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Switzerland', 'Portugal', 'Spain']</t>
+          <t>['Portugal', 'Czech Republic', 'Switzerland', 'Spain']</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
@@ -5060,7 +5060,7 @@
         <v>0</v>
       </c>
       <c r="Q60" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61">
@@ -5115,12 +5115,12 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>['Portugal', 3, 0, 4]</t>
+          <t>['Portugal', 4, 1, 5]</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Switzerland', 'Portugal', 'Ukraine']</t>
+          <t>['Portugal', 'Czech Republic', 'Switzerland', 'Ukraine']</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
@@ -5137,7 +5137,7 @@
         <v>1</v>
       </c>
       <c r="Q61" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62">
@@ -5192,12 +5192,12 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>['Portugal', 3, 0, 4]</t>
+          <t>['Portugal', 4, 1, 5]</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Switzerland', 'Portugal', 'Ukraine']</t>
+          <t>['Portugal', 'Czech Republic', 'Switzerland', 'Ukraine']</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
@@ -5214,7 +5214,7 @@
         <v>0</v>
       </c>
       <c r="Q62" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63">
@@ -5269,12 +5269,12 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>['Portugal', 3, 0, 4]</t>
+          <t>['Portugal', 4, 1, 5]</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Switzerland', 'Portugal', 'Ukraine']</t>
+          <t>['Portugal', 'Czech Republic', 'Switzerland', 'Ukraine']</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
@@ -5291,7 +5291,7 @@
         <v>0</v>
       </c>
       <c r="Q63" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64">
@@ -5346,12 +5346,12 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>['Portugal', 3, 0, 4]</t>
+          <t>['Portugal', 4, 1, 5]</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Switzerland', 'Portugal', 'Ukraine']</t>
+          <t>['Portugal', 'Czech Republic', 'Switzerland', 'Ukraine']</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
@@ -5368,7 +5368,7 @@
         <v>0</v>
       </c>
       <c r="Q64" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65">
@@ -5423,12 +5423,12 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>['Portugal', 3, 0, 4]</t>
+          <t>['Portugal', 4, 1, 5]</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Switzerland', 'Portugal', 'Ukraine']</t>
+          <t>['Portugal', 'Czech Republic', 'Switzerland', 'Ukraine']</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
@@ -5445,7 +5445,7 @@
         <v>0</v>
       </c>
       <c r="Q65" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66">
@@ -5519,10 +5519,10 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q66" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67">
@@ -5599,7 +5599,7 @@
         <v>1</v>
       </c>
       <c r="Q67" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68">
@@ -5676,7 +5676,7 @@
         <v>0</v>
       </c>
       <c r="Q68" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69">
@@ -5753,7 +5753,7 @@
         <v>0</v>
       </c>
       <c r="Q69" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70">
@@ -5830,7 +5830,7 @@
         <v>1</v>
       </c>
       <c r="Q70" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="71">
@@ -5907,7 +5907,7 @@
         <v>1</v>
       </c>
       <c r="Q71" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72">
@@ -5984,7 +5984,7 @@
         <v>1</v>
       </c>
       <c r="Q72" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="73">
@@ -6061,7 +6061,7 @@
         <v>1</v>
       </c>
       <c r="Q73" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="74">
@@ -6138,7 +6138,7 @@
         <v>1</v>
       </c>
       <c r="Q74" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="75">
@@ -6173,37 +6173,37 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>['Finland', 3, -2, 1]</t>
+          <t>['Albania', 2, -1, 3]</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>['Ukraine', 3, -1, 4]</t>
+          <t>['Denmark', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>['Czech Republic', 4, 1, 3]</t>
+          <t>['Austria', 4, 1, 3]</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>['Slovakia', 3, -5, 2]</t>
+          <t>['Belgium', 4, 1, 2]</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>['Portugal', 4, 1, 7]</t>
+          <t>['Czech Republic', 2, -1, 2]</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic', 'Ukraine', 'Finland']</t>
+          <t>['Austria', 'Belgium', 'Denmark', 'Albania']</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Scotland']</t>
+          <t>['Czech Republic', 'Scotland']</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
@@ -6250,37 +6250,37 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>['Finland', 3, -2, 1]</t>
+          <t>['Albania', 2, -1, 3]</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>['Ukraine', 3, -1, 4]</t>
+          <t>['Denmark', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>['Czech Republic', 4, 1, 3]</t>
+          <t>['Austria', 4, 1, 3]</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>['Slovakia', 3, -5, 2]</t>
+          <t>['Belgium', 4, 1, 2]</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>['Portugal', 4, 1, 7]</t>
+          <t>['Czech Republic', 2, -1, 2]</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic', 'Ukraine', 'Finland']</t>
+          <t>['Austria', 'Belgium', 'Denmark', 'Albania']</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Scotland']</t>
+          <t>['Czech Republic', 'Scotland']</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
@@ -6327,37 +6327,37 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>['Finland', 3, -2, 1]</t>
+          <t>['Albania', 2, -1, 3]</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>['Ukraine', 3, -1, 4]</t>
+          <t>['Denmark', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>['Czech Republic', 4, 1, 3]</t>
+          <t>['Austria', 4, 1, 3]</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>['Slovakia', 3, -5, 2]</t>
+          <t>['Belgium', 4, 1, 2]</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>['Portugal', 4, 1, 7]</t>
+          <t>['Czech Republic', 2, -1, 2]</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic', 'Ukraine', 'Finland']</t>
+          <t>['Austria', 'Belgium', 'Denmark', 'Albania']</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Scotland']</t>
+          <t>['Czech Republic', 'Scotland']</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
@@ -6404,37 +6404,37 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>['Finland', 3, -2, 1]</t>
+          <t>['Albania', 2, -1, 3]</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>['Ukraine', 3, -1, 4]</t>
+          <t>['Denmark', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>['Czech Republic', 4, 1, 3]</t>
+          <t>['Austria', 4, 1, 3]</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>['Slovakia', 3, -5, 2]</t>
+          <t>['Belgium', 4, 1, 2]</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>['Portugal', 4, 1, 7]</t>
+          <t>['Czech Republic', 2, -1, 2]</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic', 'Ukraine', 'Finland']</t>
+          <t>['Austria', 'Belgium', 'Denmark', 'Hungary']</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>['Hungary', 'Slovakia']</t>
+          <t>['Albania', 'Czech Republic']</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
@@ -6443,10 +6443,10 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79">
@@ -6486,32 +6486,32 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>['Ukraine', 3, -1, 4]</t>
+          <t>['Denmark', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>['Czech Republic', 4, 1, 3]</t>
+          <t>['Austria', 4, 1, 3]</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>['Slovakia', 3, -5, 2]</t>
+          <t>['Belgium', 4, 1, 2]</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>['Portugal', 4, 1, 7]</t>
+          <t>['Czech Republic', 2, -1, 2]</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic', 'Ukraine', 'Hungary']</t>
+          <t>['Austria', 'Belgium', 'Denmark', 'Hungary']</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Albania']</t>
+          <t>['Albania', 'Czech Republic']</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
@@ -6520,7 +6520,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q79" t="n">
         <v>2</v>
@@ -6563,32 +6563,32 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>['Ukraine', 3, -1, 4]</t>
+          <t>['Denmark', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>['Czech Republic', 4, 1, 3]</t>
+          <t>['Austria', 4, 1, 3]</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>['Slovakia', 3, -5, 2]</t>
+          <t>['Belgium', 4, 1, 2]</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>['Portugal', 4, 1, 7]</t>
+          <t>['Czech Republic', 2, -1, 2]</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic', 'Ukraine', 'Hungary']</t>
+          <t>['Austria', 'Belgium', 'Denmark', 'Hungary']</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Croatia']</t>
+          <t>['Czech Republic', 'Croatia']</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
@@ -6640,32 +6640,32 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>['Ukraine', 3, -1, 4]</t>
+          <t>['Denmark', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>['Czech Republic', 4, 1, 3]</t>
+          <t>['Austria', 4, 1, 3]</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>['Slovakia', 3, -5, 2]</t>
+          <t>['Belgium', 4, 1, 2]</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>['Portugal', 4, 1, 7]</t>
+          <t>['Czech Republic', 2, -1, 2]</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic', 'Ukraine', 'Italy']</t>
+          <t>['Austria', 'Belgium', 'Denmark', 'Italy']</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>['Hungary', 'Slovakia']</t>
+          <t>['Hungary', 'Czech Republic']</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
@@ -6717,32 +6717,32 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>['Ukraine', 3, -1, 4]</t>
+          <t>['Denmark', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>['Czech Republic', 4, 1, 3]</t>
+          <t>['Austria', 4, 1, 3]</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>['Slovakia', 3, -5, 2]</t>
+          <t>['Belgium', 4, 1, 2]</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>['Portugal', 4, 1, 7]</t>
+          <t>['Czech Republic', 2, -1, 2]</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic', 'Ukraine', 'Hungary']</t>
+          <t>['Austria', 'Belgium', 'Denmark', 'Hungary']</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Croatia']</t>
+          <t>['Czech Republic', 'Croatia']</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
@@ -6794,7 +6794,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>['Ukraine', 3, -1, 4]</t>
+          <t>['Denmark', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -6804,22 +6804,22 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>['Slovakia', 3, -5, 2]</t>
+          <t>['Belgium', 4, 1, 2]</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>['Portugal', 4, 1, 7]</t>
+          <t>['Czech Republic', 2, -1, 2]</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>['Portugal', 'Austria', 'Ukraine', 'Hungary']</t>
+          <t>['Austria', 'Belgium', 'Denmark', 'Hungary']</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Croatia']</t>
+          <t>['Czech Republic', 'Croatia']</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
@@ -6828,10 +6828,10 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84">
@@ -6871,7 +6871,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>['Ukraine', 3, -1, 4]</t>
+          <t>['Denmark', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -6881,22 +6881,22 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>['Slovakia', 3, -5, 2]</t>
+          <t>['Belgium', 4, 1, 2]</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>['Portugal', 4, 1, 7]</t>
+          <t>['Czech Republic', 2, -1, 2]</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>['Portugal', 'Netherlands', 'Ukraine', 'Hungary']</t>
+          <t>['Belgium', 'Netherlands', 'Denmark', 'Hungary']</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Croatia']</t>
+          <t>['Czech Republic', 'Croatia']</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
@@ -6908,7 +6908,7 @@
         <v>1</v>
       </c>
       <c r="Q84" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="85">
@@ -6948,7 +6948,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>['Ukraine', 3, -1, 4]</t>
+          <t>['Denmark', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -6958,22 +6958,22 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>['Slovakia', 3, -5, 2]</t>
+          <t>['Belgium', 4, 1, 2]</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>['Portugal', 4, 1, 7]</t>
+          <t>['Czech Republic', 2, -1, 2]</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>['Portugal', 'Austria', 'Ukraine', 'Hungary']</t>
+          <t>['Austria', 'Belgium', 'Denmark', 'Hungary']</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Croatia']</t>
+          <t>['Czech Republic', 'Croatia']</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
@@ -6985,7 +6985,7 @@
         <v>1</v>
       </c>
       <c r="Q85" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86">
@@ -7025,7 +7025,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>['Ukraine', 3, -1, 4]</t>
+          <t>['Denmark', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -7035,22 +7035,22 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>['Slovakia', 3, -5, 2]</t>
+          <t>['Belgium', 4, 1, 2]</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>['Portugal', 4, 1, 7]</t>
+          <t>['Czech Republic', 2, -1, 2]</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>['Portugal', 'Austria', 'Ukraine', 'Hungary']</t>
+          <t>['Austria', 'Belgium', 'Denmark', 'Hungary']</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Croatia']</t>
+          <t>['Czech Republic', 'Croatia']</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
@@ -7062,7 +7062,7 @@
         <v>0</v>
       </c>
       <c r="Q86" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="87">
@@ -7102,7 +7102,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>['Ukraine', 3, -1, 4]</t>
+          <t>['Denmark', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -7112,22 +7112,22 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>['Slovakia', 3, -5, 2]</t>
+          <t>['Belgium', 4, 1, 2]</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>['Portugal', 4, 1, 7]</t>
+          <t>['Czech Republic', 2, -1, 2]</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>['Portugal', 'Netherlands', 'Ukraine', 'Hungary']</t>
+          <t>['Belgium', 'Netherlands', 'Denmark', 'Hungary']</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Croatia']</t>
+          <t>['Czech Republic', 'Croatia']</t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
@@ -7139,7 +7139,7 @@
         <v>1</v>
       </c>
       <c r="Q87" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="88">
@@ -7179,7 +7179,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>['Ukraine', 3, -1, 4]</t>
+          <t>['Denmark', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -7189,22 +7189,22 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>['Slovakia', 3, -5, 2]</t>
+          <t>['Belgium', 4, 1, 2]</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>['Portugal', 4, 1, 7]</t>
+          <t>['Czech Republic', 2, -1, 2]</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>['Portugal', 'Austria', 'Ukraine', 'Hungary']</t>
+          <t>['Austria', 'Belgium', 'Denmark', 'Hungary']</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Croatia']</t>
+          <t>['Czech Republic', 'Croatia']</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
@@ -7216,7 +7216,7 @@
         <v>1</v>
       </c>
       <c r="Q88" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="89">
@@ -7256,7 +7256,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>['Ukraine', 3, -1, 4]</t>
+          <t>['Denmark', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -7266,22 +7266,22 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>['Slovakia', 3, -5, 2]</t>
+          <t>['Belgium', 4, 1, 2]</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>['Portugal', 4, 1, 7]</t>
+          <t>['Czech Republic', 2, -1, 2]</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>['Portugal', 'Austria', 'Ukraine', 'Hungary']</t>
+          <t>['Austria', 'Belgium', 'Denmark', 'Hungary']</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Croatia']</t>
+          <t>['Czech Republic', 'Croatia']</t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
@@ -7293,7 +7293,7 @@
         <v>0</v>
       </c>
       <c r="Q89" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="90">
@@ -7333,7 +7333,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>['Ukraine', 3, -1, 4]</t>
+          <t>['Denmark', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -7343,22 +7343,22 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>['Slovakia', 3, -5, 2]</t>
+          <t>['Belgium', 4, 1, 2]</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>['Portugal', 4, 1, 7]</t>
+          <t>['Czech Republic', 2, -1, 2]</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>['Portugal', 'Netherlands', 'Ukraine', 'Hungary']</t>
+          <t>['Belgium', 'Netherlands', 'Denmark', 'Hungary']</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Croatia']</t>
+          <t>['Czech Republic', 'Croatia']</t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
@@ -7370,7 +7370,7 @@
         <v>1</v>
       </c>
       <c r="Q90" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="91">
@@ -7410,7 +7410,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>['Ukraine', 3, -1, 4]</t>
+          <t>['Denmark', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -7425,17 +7425,17 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>['Portugal', 4, 1, 7]</t>
+          <t>['Czech Republic', 2, -1, 2]</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>['Portugal', 'Belgium', 'Netherlands', 'Ukraine']</t>
+          <t>['Belgium', 'Netherlands', 'Denmark', 'Hungary']</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>['Hungary', 'Croatia']</t>
+          <t>['Czech Republic', 'Croatia']</t>
         </is>
       </c>
       <c r="O91" t="inlineStr">
@@ -7444,10 +7444,10 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q91" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="92">
@@ -7487,7 +7487,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>['Ukraine', 3, -1, 4]</t>
+          <t>['Denmark', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -7502,17 +7502,17 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>['Portugal', 4, 1, 7]</t>
+          <t>['Czech Republic', 2, -1, 2]</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>['Portugal', 'Netherlands', 'Ukraine', 'Ukraine']</t>
+          <t>['Netherlands', 'Ukraine', 'Denmark', 'Hungary']</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>['Hungary', 'Croatia']</t>
+          <t>['Czech Republic', 'Croatia']</t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
@@ -7524,7 +7524,7 @@
         <v>1</v>
       </c>
       <c r="Q92" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="93">
@@ -7564,7 +7564,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>['Ukraine', 3, -1, 4]</t>
+          <t>['Denmark', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -7579,17 +7579,17 @@
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>['Portugal', 4, 1, 7]</t>
+          <t>['Czech Republic', 2, -1, 2]</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>['Portugal', 'Netherlands', 'Slovakia', 'Ukraine']</t>
+          <t>['Netherlands', 'Slovakia', 'Denmark', 'Hungary']</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>['Hungary', 'Croatia']</t>
+          <t>['Czech Republic', 'Croatia']</t>
         </is>
       </c>
       <c r="O93" t="inlineStr">
@@ -7601,7 +7601,7 @@
         <v>1</v>
       </c>
       <c r="Q93" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="94">
@@ -7641,7 +7641,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>['Ukraine', 3, -1, 4]</t>
+          <t>['Denmark', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -7661,7 +7661,7 @@
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Slovakia', 'Ukraine', 'Hungary']</t>
+          <t>['Netherlands', 'Slovakia', 'Denmark', 'Hungary']</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
@@ -7675,10 +7675,10 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q94" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="95">
@@ -7718,7 +7718,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>['Ukraine', 3, -1, 4]</t>
+          <t>['Denmark', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -7738,7 +7738,7 @@
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Slovakia', 'Georgia', 'Ukraine']</t>
+          <t>['Netherlands', 'Slovakia', 'Georgia', 'Denmark']</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
@@ -7755,7 +7755,7 @@
         <v>1</v>
       </c>
       <c r="Q95" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96">
@@ -7795,7 +7795,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>['Ukraine', 3, -1, 4]</t>
+          <t>['Denmark', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -7815,7 +7815,7 @@
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Slovakia', 'Georgia', 'Ukraine']</t>
+          <t>['Netherlands', 'Slovakia', 'Georgia', 'Denmark']</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
@@ -7832,7 +7832,7 @@
         <v>0</v>
       </c>
       <c r="Q96" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97">
@@ -7872,7 +7872,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>['Ukraine', 3, -1, 4]</t>
+          <t>['Denmark', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -7892,7 +7892,7 @@
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>['Georgia', 'Netherlands', 'Slovakia', 'Ukraine']</t>
+          <t>['Georgia', 'Netherlands', 'Slovakia', 'Denmark']</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
@@ -7902,14 +7902,14 @@
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>['Georgia', 'Netherlands']</t>
+          <t>['Netherlands', 'Georgia']</t>
         </is>
       </c>
       <c r="P97" t="n">
         <v>1</v>
       </c>
       <c r="Q97" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="98">
@@ -7949,7 +7949,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>['Ukraine', 3, -1, 4]</t>
+          <t>['Denmark', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -7969,7 +7969,7 @@
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>['Georgia', 'Netherlands', 'Slovakia', 'Ukraine']</t>
+          <t>['Georgia', 'Netherlands', 'Slovakia', 'Denmark']</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
@@ -7979,14 +7979,14 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>['Georgia', 'Netherlands']</t>
+          <t>['Netherlands', 'Georgia']</t>
         </is>
       </c>
       <c r="P98" t="n">
         <v>0</v>
       </c>
       <c r="Q98" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="99">
@@ -8026,7 +8026,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>['Ukraine', 3, -1, 4]</t>
+          <t>['Denmark', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -8046,7 +8046,7 @@
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>['Georgia', 'Netherlands', 'Slovakia', 'Ukraine']</t>
+          <t>['Georgia', 'Netherlands', 'Slovakia', 'Denmark']</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
@@ -8056,14 +8056,14 @@
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>['Georgia', 'Netherlands']</t>
+          <t>['Netherlands', 'Georgia']</t>
         </is>
       </c>
       <c r="P99" t="n">
         <v>0</v>
       </c>
       <c r="Q99" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="100">
@@ -8125,14 +8125,14 @@
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>['Georgia', 'Netherlands']</t>
+          <t>['Netherlands', 'Georgia']</t>
         </is>
       </c>
       <c r="P100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q100" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/data/out/wiki/men/uefa/eu/third_teams_df_eu_uefa.xlsx
+++ b/data/out/wiki/men/uefa/eu/third_teams_df_eu_uefa.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -587,7 +587,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>['Romania', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Romania']</t>
         </is>
       </c>
       <c r="P2" t="n">
@@ -1891,12 +1891,12 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
+          <t>['Sweden', 'Portugal']</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
           <t>['Portugal', 'Sweden']</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>['Sweden', 'Portugal']</t>
         </is>
       </c>
       <c r="P19" t="n">
@@ -1973,7 +1973,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Portugal']</t>
+          <t>['Portugal', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="P20" t="n">
@@ -7892,7 +7892,7 @@
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>['Georgia', 'Netherlands', 'Slovakia', 'Denmark']</t>
+          <t>['Netherlands', 'Georgia', 'Slovakia', 'Denmark']</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
@@ -7902,7 +7902,7 @@
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Georgia']</t>
+          <t>['Georgia', 'Netherlands']</t>
         </is>
       </c>
       <c r="P97" t="n">
@@ -7969,7 +7969,7 @@
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>['Georgia', 'Netherlands', 'Slovakia', 'Denmark']</t>
+          <t>['Netherlands', 'Georgia', 'Slovakia', 'Denmark']</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
@@ -7979,7 +7979,7 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Georgia']</t>
+          <t>['Georgia', 'Netherlands']</t>
         </is>
       </c>
       <c r="P98" t="n">
@@ -8046,7 +8046,7 @@
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>['Georgia', 'Netherlands', 'Slovakia', 'Denmark']</t>
+          <t>['Netherlands', 'Georgia', 'Slovakia', 'Denmark']</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Georgia']</t>
+          <t>['Georgia', 'Netherlands']</t>
         </is>
       </c>
       <c r="P99" t="n">
@@ -8115,7 +8115,7 @@
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>['Georgia', 'Netherlands', 'Slovakia', 'Denmark']</t>
+          <t>['Netherlands', 'Georgia', 'Slovakia', 'Denmark']</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
@@ -8125,7 +8125,7 @@
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Georgia']</t>
+          <t>['Georgia', 'Netherlands']</t>
         </is>
       </c>
       <c r="P100" t="n">

--- a/data/out/wiki/men/uefa/eu/third_teams_df_eu_uefa.xlsx
+++ b/data/out/wiki/men/uefa/eu/third_teams_df_eu_uefa.xlsx
@@ -587,7 +587,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Romania']</t>
+          <t>['Romania', 'Czech Republic']</t>
         </is>
       </c>
       <c r="P2" t="n">
@@ -1896,7 +1896,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>['Portugal', 'Sweden']</t>
+          <t>['Sweden', 'Portugal']</t>
         </is>
       </c>
       <c r="P19" t="n">
@@ -1973,7 +1973,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>['Portugal', 'Northern Ireland']</t>
+          <t>['Northern Ireland', 'Portugal']</t>
         </is>
       </c>
       <c r="P20" t="n">
@@ -2747,10 +2747,10 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2827,7 +2827,7 @@
         <v>1</v>
       </c>
       <c r="Q31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -2904,7 +2904,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -2981,7 +2981,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -3058,7 +3058,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -3135,7 +3135,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -3212,7 +3212,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -3289,7 +3289,7 @@
         <v>1</v>
       </c>
       <c r="Q37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38">
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
@@ -3443,7 +3443,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
@@ -3520,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41">
@@ -3597,7 +3597,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42">
@@ -3674,7 +3674,7 @@
         <v>1</v>
       </c>
       <c r="Q42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43">
@@ -3751,7 +3751,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44">
@@ -3828,7 +3828,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45">
@@ -3905,7 +3905,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
@@ -3982,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47">
@@ -4059,7 +4059,7 @@
         <v>0</v>
       </c>
       <c r="Q47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48">
@@ -4136,7 +4136,7 @@
         <v>0</v>
       </c>
       <c r="Q48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49">
@@ -4213,7 +4213,7 @@
         <v>0</v>
       </c>
       <c r="Q49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50">
@@ -4290,7 +4290,7 @@
         <v>0</v>
       </c>
       <c r="Q50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51">
@@ -4367,7 +4367,7 @@
         <v>1</v>
       </c>
       <c r="Q51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52">
@@ -4444,7 +4444,7 @@
         <v>1</v>
       </c>
       <c r="Q52" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53">
@@ -4521,7 +4521,7 @@
         <v>1</v>
       </c>
       <c r="Q53" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54">
@@ -4598,7 +4598,7 @@
         <v>1</v>
       </c>
       <c r="Q54" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55">
@@ -4675,7 +4675,7 @@
         <v>0</v>
       </c>
       <c r="Q55" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56">
@@ -4752,7 +4752,7 @@
         <v>0</v>
       </c>
       <c r="Q56" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57">
@@ -4829,7 +4829,7 @@
         <v>0</v>
       </c>
       <c r="Q57" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58">
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="Q58" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59">
@@ -4983,7 +4983,7 @@
         <v>0</v>
       </c>
       <c r="Q59" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60">
@@ -5060,7 +5060,7 @@
         <v>0</v>
       </c>
       <c r="Q60" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61">
@@ -5137,7 +5137,7 @@
         <v>1</v>
       </c>
       <c r="Q61" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62">
@@ -5214,7 +5214,7 @@
         <v>0</v>
       </c>
       <c r="Q62" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63">
@@ -5291,7 +5291,7 @@
         <v>0</v>
       </c>
       <c r="Q63" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64">
@@ -5368,7 +5368,7 @@
         <v>0</v>
       </c>
       <c r="Q64" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65">
@@ -5445,7 +5445,7 @@
         <v>0</v>
       </c>
       <c r="Q65" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="66">
@@ -5522,7 +5522,7 @@
         <v>0</v>
       </c>
       <c r="Q66" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67">
@@ -5599,7 +5599,7 @@
         <v>1</v>
       </c>
       <c r="Q67" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68">
@@ -5676,7 +5676,7 @@
         <v>0</v>
       </c>
       <c r="Q68" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69">
@@ -5753,7 +5753,7 @@
         <v>0</v>
       </c>
       <c r="Q69" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70">
@@ -5830,7 +5830,7 @@
         <v>1</v>
       </c>
       <c r="Q70" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71">
@@ -5907,7 +5907,7 @@
         <v>1</v>
       </c>
       <c r="Q71" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="72">
@@ -5984,7 +5984,7 @@
         <v>1</v>
       </c>
       <c r="Q72" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73">
@@ -6061,7 +6061,7 @@
         <v>1</v>
       </c>
       <c r="Q73" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="74">
@@ -6138,7 +6138,7 @@
         <v>1</v>
       </c>
       <c r="Q74" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="75">
@@ -6212,10 +6212,10 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -6292,7 +6292,7 @@
         <v>0</v>
       </c>
       <c r="Q76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -6369,7 +6369,7 @@
         <v>0</v>
       </c>
       <c r="Q77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -6446,7 +6446,7 @@
         <v>1</v>
       </c>
       <c r="Q78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -6523,7 +6523,7 @@
         <v>0</v>
       </c>
       <c r="Q79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -6600,7 +6600,7 @@
         <v>0</v>
       </c>
       <c r="Q80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -6677,7 +6677,7 @@
         <v>1</v>
       </c>
       <c r="Q81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82">
@@ -6754,7 +6754,7 @@
         <v>1</v>
       </c>
       <c r="Q82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83">
@@ -6831,7 +6831,7 @@
         <v>0</v>
       </c>
       <c r="Q83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84">
@@ -6908,7 +6908,7 @@
         <v>1</v>
       </c>
       <c r="Q84" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85">
@@ -6985,7 +6985,7 @@
         <v>1</v>
       </c>
       <c r="Q85" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="86">
@@ -7062,7 +7062,7 @@
         <v>0</v>
       </c>
       <c r="Q86" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87">
@@ -7139,7 +7139,7 @@
         <v>1</v>
       </c>
       <c r="Q87" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="88">
@@ -7216,7 +7216,7 @@
         <v>1</v>
       </c>
       <c r="Q88" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="89">
@@ -7293,7 +7293,7 @@
         <v>0</v>
       </c>
       <c r="Q89" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="90">
@@ -7370,7 +7370,7 @@
         <v>1</v>
       </c>
       <c r="Q90" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="91">
@@ -7447,7 +7447,7 @@
         <v>0</v>
       </c>
       <c r="Q91" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="92">
@@ -7524,7 +7524,7 @@
         <v>1</v>
       </c>
       <c r="Q92" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="93">
@@ -7601,7 +7601,7 @@
         <v>1</v>
       </c>
       <c r="Q93" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="94">
@@ -7678,7 +7678,7 @@
         <v>0</v>
       </c>
       <c r="Q94" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="95">
@@ -7755,7 +7755,7 @@
         <v>1</v>
       </c>
       <c r="Q95" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="96">
@@ -7832,7 +7832,7 @@
         <v>0</v>
       </c>
       <c r="Q96" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="97">
@@ -7902,14 +7902,14 @@
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>['Georgia', 'Netherlands']</t>
+          <t>['Netherlands', 'Georgia']</t>
         </is>
       </c>
       <c r="P97" t="n">
         <v>1</v>
       </c>
       <c r="Q97" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98">
@@ -7979,14 +7979,14 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>['Georgia', 'Netherlands']</t>
+          <t>['Netherlands', 'Georgia']</t>
         </is>
       </c>
       <c r="P98" t="n">
         <v>0</v>
       </c>
       <c r="Q98" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99">
@@ -8056,14 +8056,14 @@
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>['Georgia', 'Netherlands']</t>
+          <t>['Netherlands', 'Georgia']</t>
         </is>
       </c>
       <c r="P99" t="n">
         <v>0</v>
       </c>
       <c r="Q99" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100">
@@ -8125,14 +8125,14 @@
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>['Georgia', 'Netherlands']</t>
+          <t>['Netherlands', 'Georgia']</t>
         </is>
       </c>
       <c r="P100" t="n">
         <v>0</v>
       </c>
       <c r="Q100" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/data/out/wiki/men/uefa/eu/third_teams_df_eu_uefa.xlsx
+++ b/data/out/wiki/men/uefa/eu/third_teams_df_eu_uefa.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1973,7 +1973,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Portugal']</t>
+          <t>['Portugal', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="P20" t="n">

--- a/data/out/wiki/men/uefa/eu/third_teams_df_eu_uefa.xlsx
+++ b/data/out/wiki/men/uefa/eu/third_teams_df_eu_uefa.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -587,7 +587,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>['Romania', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Romania']</t>
         </is>
       </c>
       <c r="P2" t="n">
@@ -1896,7 +1896,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>['Sweden', 'Portugal']</t>
+          <t>['Portugal', 'Sweden']</t>
         </is>
       </c>
       <c r="P19" t="n">
@@ -1973,7 +1973,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>['Portugal', 'Northern Ireland']</t>
+          <t>['Northern Ireland', 'Portugal']</t>
         </is>
       </c>
       <c r="P20" t="n">

--- a/data/out/wiki/men/uefa/eu/third_teams_df_eu_uefa.xlsx
+++ b/data/out/wiki/men/uefa/eu/third_teams_df_eu_uefa.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -587,7 +587,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Romania']</t>
+          <t>['Romania', 'Czech Republic']</t>
         </is>
       </c>
       <c r="P2" t="n">
@@ -1973,7 +1973,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Portugal']</t>
+          <t>['Portugal', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="P20" t="n">
@@ -7902,7 +7902,7 @@
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Georgia']</t>
+          <t>['Georgia', 'Netherlands']</t>
         </is>
       </c>
       <c r="P97" t="n">
@@ -7979,7 +7979,7 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Georgia']</t>
+          <t>['Georgia', 'Netherlands']</t>
         </is>
       </c>
       <c r="P98" t="n">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Georgia']</t>
+          <t>['Georgia', 'Netherlands']</t>
         </is>
       </c>
       <c r="P99" t="n">
@@ -8125,7 +8125,7 @@
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Georgia']</t>
+          <t>['Georgia', 'Netherlands']</t>
         </is>
       </c>
       <c r="P100" t="n">

--- a/data/out/wiki/men/uefa/eu/third_teams_df_eu_uefa.xlsx
+++ b/data/out/wiki/men/uefa/eu/third_teams_df_eu_uefa.xlsx
@@ -587,7 +587,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>['Romania', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Romania']</t>
         </is>
       </c>
       <c r="P2" t="n">
@@ -7902,7 +7902,7 @@
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>['Georgia', 'Netherlands']</t>
+          <t>['Netherlands', 'Georgia']</t>
         </is>
       </c>
       <c r="P97" t="n">
@@ -7979,7 +7979,7 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>['Georgia', 'Netherlands']</t>
+          <t>['Netherlands', 'Georgia']</t>
         </is>
       </c>
       <c r="P98" t="n">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>['Georgia', 'Netherlands']</t>
+          <t>['Netherlands', 'Georgia']</t>
         </is>
       </c>
       <c r="P99" t="n">
@@ -8125,7 +8125,7 @@
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>['Georgia', 'Netherlands']</t>
+          <t>['Netherlands', 'Georgia']</t>
         </is>
       </c>
       <c r="P100" t="n">

--- a/data/out/wiki/men/uefa/eu/third_teams_df_eu_uefa.xlsx
+++ b/data/out/wiki/men/uefa/eu/third_teams_df_eu_uefa.xlsx
@@ -1896,7 +1896,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>['Portugal', 'Sweden']</t>
+          <t>['Sweden', 'Portugal']</t>
         </is>
       </c>
       <c r="P19" t="n">
@@ -2922,10 +2922,10 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="E33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -2934,7 +2934,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>['Switzerland', 4, -2, 3]</t>
+          <t>['Switzerland', 4, -1, 3]</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -2999,7 +2999,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E34" t="n">
         <v>2</v>
@@ -3011,7 +3011,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>['Switzerland', 4, -1, 4]</t>
+          <t>['Switzerland', 4, -2, 3]</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -3072,14 +3072,14 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="E35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -3303,18 +3303,18 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E38" t="n">
         <v>1</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -3380,14 +3380,14 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="E39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -3457,11 +3457,11 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="E40" t="n">
         <v>2</v>
@@ -3538,14 +3538,14 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -3615,10 +3615,10 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="E42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>['Finland', 3, -1, 1]</t>
+          <t>['Denmark', 3, -1, 2]</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3662,7 +3662,7 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>['Finland', 'Croatia']</t>
+          <t>['Denmark', 'Croatia']</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -3692,7 +3692,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="E43" t="n">
         <v>2</v>
@@ -3709,7 +3709,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>['Finland', 3, -2, 1]</t>
+          <t>['Denmark', 3, 0, 3]</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3734,12 +3734,12 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>['Portugal', 'Switzerland', 'Spain', 'Ukraine']</t>
+          <t>['Portugal', 'Switzerland', 'Denmark', 'Spain']</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>['Finland', 'Croatia']</t>
+          <t>['Ukraine', 'Croatia']</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -3748,10 +3748,10 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44">
@@ -3765,14 +3765,14 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="E44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -3786,7 +3786,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>['Russia', 3, -3, 1]</t>
+          <t>['Denmark', 3, -1, 3]</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3816,7 +3816,7 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>['Russia', 'Croatia']</t>
+          <t>['Denmark', 'Croatia']</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -3825,10 +3825,10 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45">
@@ -3842,11 +3842,11 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="E45" t="n">
         <v>2</v>
@@ -3863,7 +3863,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>['Finland', 3, -2, 1]</t>
+          <t>['Russia', 3, -3, 2]</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3893,7 +3893,7 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>['Finland', 'Croatia']</t>
+          <t>['Russia', 'Croatia']</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -3905,7 +3905,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46">
@@ -3919,11 +3919,11 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="E46" t="n">
         <v>2</v>
@@ -3940,7 +3940,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>['Russia', 3, -3, 2]</t>
+          <t>['Finland', 3, -1, 1]</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3970,7 +3970,7 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>['Russia', 'Croatia']</t>
+          <t>['Finland', 'Croatia']</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -3982,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47">
@@ -3996,11 +3996,11 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E47" t="n">
         <v>2</v>
@@ -4059,7 +4059,7 @@
         <v>0</v>
       </c>
       <c r="Q47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48">
@@ -4073,7 +4073,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D48" t="n">
@@ -4136,7 +4136,7 @@
         <v>0</v>
       </c>
       <c r="Q48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49">
@@ -4213,7 +4213,7 @@
         <v>0</v>
       </c>
       <c r="Q49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50">
@@ -4290,7 +4290,7 @@
         <v>0</v>
       </c>
       <c r="Q50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51">
@@ -4367,7 +4367,7 @@
         <v>1</v>
       </c>
       <c r="Q51" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52">
@@ -4444,7 +4444,7 @@
         <v>1</v>
       </c>
       <c r="Q52" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53">
@@ -4521,7 +4521,7 @@
         <v>1</v>
       </c>
       <c r="Q53" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54">
@@ -4598,7 +4598,7 @@
         <v>1</v>
       </c>
       <c r="Q54" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55">
@@ -4675,7 +4675,7 @@
         <v>0</v>
       </c>
       <c r="Q55" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56">
@@ -4752,7 +4752,7 @@
         <v>0</v>
       </c>
       <c r="Q56" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57">
@@ -4770,10 +4770,10 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="E57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>['Spain', 3, 0, 1]</t>
+          <t>['Slovakia', 3, -1, 2]</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
@@ -4812,12 +4812,12 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic', 'Switzerland', 'Spain']</t>
+          <t>['Portugal', 'Czech Republic', 'Switzerland', 'Ukraine']</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Finland']</t>
+          <t>['Slovakia', 'Finland']</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
@@ -4826,10 +4826,10 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q57" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58">
@@ -4847,10 +4847,10 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="E58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -4879,7 +4879,7 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>['Spain', 3, 0, 1]</t>
+          <t>['Slovakia', 3, -2, 2]</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
@@ -4889,12 +4889,12 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic', 'Switzerland', 'Spain']</t>
+          <t>['Portugal', 'Czech Republic', 'Switzerland', 'Ukraine']</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Finland']</t>
+          <t>['Slovakia', 'Finland']</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="Q58" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59">
@@ -4924,7 +4924,7 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="E59" t="n">
         <v>2</v>
@@ -4956,7 +4956,7 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>['Spain', 3, 0, 1]</t>
+          <t>['Slovakia', 3, -3, 2]</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
@@ -4966,12 +4966,12 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic', 'Switzerland', 'Spain']</t>
+          <t>['Portugal', 'Czech Republic', 'Switzerland', 'Ukraine']</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Finland']</t>
+          <t>['Finland', 'Slovakia']</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -4983,7 +4983,7 @@
         <v>0</v>
       </c>
       <c r="Q59" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60">
@@ -5001,7 +5001,7 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="E60" t="n">
         <v>2</v>
@@ -5033,7 +5033,7 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>['Spain', 3, 0, 1]</t>
+          <t>['Slovakia', 3, -3, 2]</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
@@ -5043,12 +5043,12 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic', 'Switzerland', 'Spain']</t>
+          <t>['Portugal', 'Czech Republic', 'Switzerland', 'Ukraine']</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Finland']</t>
+          <t>['Finland', 'Slovakia']</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -5060,7 +5060,7 @@
         <v>0</v>
       </c>
       <c r="Q60" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61">
@@ -5074,14 +5074,14 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="E61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -5110,7 +5110,7 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>['Slovakia', 3, -1, 2]</t>
+          <t>['Slovakia', 3, -3, 2]</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
@@ -5125,7 +5125,7 @@
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Finland']</t>
+          <t>['Finland', 'Slovakia']</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -5134,10 +5134,10 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q61" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62">
@@ -5151,14 +5151,14 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="E62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -5187,7 +5187,7 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>['Slovakia', 3, -2, 2]</t>
+          <t>['Slovakia', 3, -4, 2]</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
@@ -5202,7 +5202,7 @@
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Finland']</t>
+          <t>['Finland', 'Slovakia']</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
@@ -5214,7 +5214,7 @@
         <v>0</v>
       </c>
       <c r="Q62" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63">
@@ -5228,11 +5228,11 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="E63" t="n">
         <v>2</v>
@@ -5264,7 +5264,7 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>['Slovakia', 3, -3, 2]</t>
+          <t>['Slovakia', 3, -5, 2]</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
@@ -5291,7 +5291,7 @@
         <v>0</v>
       </c>
       <c r="Q63" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64">
@@ -5305,11 +5305,11 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="E64" t="n">
         <v>2</v>
@@ -5341,7 +5341,7 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>['Slovakia', 3, -4, 2]</t>
+          <t>['Slovakia', 3, -5, 2]</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
@@ -5368,7 +5368,7 @@
         <v>0</v>
       </c>
       <c r="Q64" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65">
@@ -5382,11 +5382,11 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="E65" t="n">
         <v>2</v>
@@ -5445,7 +5445,7 @@
         <v>0</v>
       </c>
       <c r="Q65" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66">
@@ -5522,7 +5522,7 @@
         <v>0</v>
       </c>
       <c r="Q66" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67">
@@ -5599,7 +5599,7 @@
         <v>1</v>
       </c>
       <c r="Q67" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="68">
@@ -5676,7 +5676,7 @@
         <v>0</v>
       </c>
       <c r="Q68" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="69">
@@ -5753,7 +5753,7 @@
         <v>0</v>
       </c>
       <c r="Q69" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="70">
@@ -5830,7 +5830,7 @@
         <v>1</v>
       </c>
       <c r="Q70" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71">
@@ -5907,7 +5907,7 @@
         <v>1</v>
       </c>
       <c r="Q71" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="72">
@@ -5984,7 +5984,7 @@
         <v>1</v>
       </c>
       <c r="Q72" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="73">
@@ -6061,7 +6061,7 @@
         <v>1</v>
       </c>
       <c r="Q73" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="74">
@@ -6138,7 +6138,7 @@
         <v>1</v>
       </c>
       <c r="Q74" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75">

--- a/data/out/wiki/men/uefa/eu/third_teams_df_eu_uefa.xlsx
+++ b/data/out/wiki/men/uefa/eu/third_teams_df_eu_uefa.xlsx
@@ -1896,7 +1896,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>['Sweden', 'Portugal']</t>
+          <t>['Portugal', 'Sweden']</t>
         </is>
       </c>
       <c r="P19" t="n">
@@ -1973,7 +1973,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>['Portugal', 'Northern Ireland']</t>
+          <t>['Northern Ireland', 'Portugal']</t>
         </is>
       </c>
       <c r="P20" t="n">

--- a/data/out/wiki/men/uefa/eu/third_teams_df_eu_uefa.xlsx
+++ b/data/out/wiki/men/uefa/eu/third_teams_df_eu_uefa.xlsx
@@ -547,32 +547,32 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['Romania', 2, -1, 2]</t>
+          <t>['Romania', 1, -1, 2]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['Slovakia', 4, 0, 3]</t>
+          <t>['Slovakia', 3, 0, 3]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 4, 1, 2]</t>
+          <t>['Northern Ireland', 3, 1, 2]</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
+          <t>['Czech Republic', 1, -1, 2]</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>['Sweden', 2, -1, 1]</t>
+          <t>['Sweden', 1, -1, 1]</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>['Portugal', 3, 0, 1]</t>
+          <t>['Portugal', 2, 0, 1]</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -629,32 +629,32 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['Slovakia', 4, 0, 3]</t>
+          <t>['Slovakia', 3, 0, 3]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 4, 1, 2]</t>
+          <t>['Northern Ireland', 3, 1, 2]</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
+          <t>['Czech Republic', 1, -1, 2]</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>['Sweden', 2, -1, 1]</t>
+          <t>['Sweden', 1, -1, 1]</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>['Portugal', 3, 0, 1]</t>
+          <t>['Portugal', 2, 0, 1]</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Slovakia', 'Portugal', 'Albania']</t>
+          <t>['Northern Ireland', 'Slovakia', 'Albania', 'Portugal']</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -706,32 +706,32 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['Slovakia', 4, 0, 3]</t>
+          <t>['Slovakia', 3, 0, 3]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 4, 1, 2]</t>
+          <t>['Northern Ireland', 3, 1, 2]</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
+          <t>['Czech Republic', 1, -1, 2]</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>['Sweden', 2, -1, 1]</t>
+          <t>['Sweden', 1, -1, 1]</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>['Portugal', 3, 0, 1]</t>
+          <t>['Portugal', 2, 0, 1]</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Slovakia', 'Portugal', 'Albania']</t>
+          <t>['Northern Ireland', 'Slovakia', 'Albania', 'Portugal']</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -788,27 +788,27 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 4, 1, 2]</t>
+          <t>['Northern Ireland', 3, 1, 2]</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
+          <t>['Czech Republic', 1, -1, 2]</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>['Sweden', 2, -1, 1]</t>
+          <t>['Sweden', 1, -1, 1]</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>['Portugal', 3, 0, 1]</t>
+          <t>['Portugal', 2, 0, 1]</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Slovakia', 'Portugal', 'Albania']</t>
+          <t>['Slovakia', 'Northern Ireland', 'Albania', 'Portugal']</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -822,10 +822,10 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -865,27 +865,27 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 4, 1, 2]</t>
+          <t>['Northern Ireland', 3, 1, 2]</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
+          <t>['Czech Republic', 1, -1, 2]</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>['Sweden', 2, -1, 1]</t>
+          <t>['Sweden', 1, -1, 1]</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>['Portugal', 3, 0, 1]</t>
+          <t>['Portugal', 2, 0, 1]</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Slovakia', 'Portugal', 'Albania']</t>
+          <t>['Slovakia', 'Northern Ireland', 'Albania', 'Portugal']</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -902,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -942,27 +942,27 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 4, 1, 2]</t>
+          <t>['Northern Ireland', 3, 1, 2]</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
+          <t>['Czech Republic', 1, -1, 2]</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>['Sweden', 2, -1, 1]</t>
+          <t>['Sweden', 1, -1, 1]</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>['Portugal', 3, 0, 1]</t>
+          <t>['Portugal', 2, 0, 1]</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Slovakia', 'Portugal', 'Albania']</t>
+          <t>['Slovakia', 'Northern Ireland', 'Albania', 'Portugal']</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -979,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -1019,27 +1019,27 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 4, 1, 2]</t>
+          <t>['Northern Ireland', 3, 1, 2]</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
+          <t>['Czech Republic', 1, -1, 2]</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>['Sweden', 2, -1, 1]</t>
+          <t>['Sweden', 1, -1, 1]</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>['Portugal', 3, 0, 1]</t>
+          <t>['Portugal', 2, 0, 1]</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Slovakia', 'Portugal', 'Albania']</t>
+          <t>['Slovakia', 'Northern Ireland', 'Albania', 'Portugal']</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -1101,22 +1101,22 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
+          <t>['Czech Republic', 1, -1, 2]</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>['Sweden', 2, -1, 1]</t>
+          <t>['Sweden', 1, -1, 1]</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>['Portugal', 3, 0, 1]</t>
+          <t>['Portugal', 2, 0, 1]</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Northern Ireland', 'Portugal', 'Albania']</t>
+          <t>['Slovakia', 'Northern Ireland', 'Albania', 'Portugal']</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>2</v>
@@ -1178,22 +1178,22 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
+          <t>['Czech Republic', 1, -1, 2]</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>['Sweden', 2, -1, 1]</t>
+          <t>['Sweden', 1, -1, 1]</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>['Portugal', 3, 0, 1]</t>
+          <t>['Portugal', 2, 0, 1]</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Northern Ireland', 'Portugal', 'Albania']</t>
+          <t>['Slovakia', 'Northern Ireland', 'Albania', 'Portugal']</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1255,22 +1255,22 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
+          <t>['Czech Republic', 1, -1, 2]</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>['Sweden', 2, -1, 1]</t>
+          <t>['Sweden', 1, -1, 1]</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>['Portugal', 3, 0, 1]</t>
+          <t>['Portugal', 2, 0, 1]</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Northern Ireland', 'Portugal', 'Albania']</t>
+          <t>['Slovakia', 'Northern Ireland', 'Albania', 'Portugal']</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1337,17 +1337,17 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>['Sweden', 2, -1, 1]</t>
+          <t>['Sweden', 1, -1, 1]</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>['Portugal', 3, 0, 1]</t>
+          <t>['Portugal', 2, 0, 1]</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Northern Ireland', 'Portugal', 'Albania']</t>
+          <t>['Slovakia', 'Northern Ireland', 'Albania', 'Portugal']</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1414,22 +1414,22 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>['Sweden', 2, -1, 1]</t>
+          <t>['Sweden', 1, -1, 1]</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>['Portugal', 3, 0, 1]</t>
+          <t>['Portugal', 2, 0, 1]</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Northern Ireland', 'Portugal', 'Albania']</t>
+          <t>['Slovakia', 'Northern Ireland', 'Albania', 'Turkey']</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>['Turkey', 'Sweden']</t>
+          <t>['Portugal', 'Sweden']</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -1438,10 +1438,10 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -1491,22 +1491,22 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>['Sweden', 2, -1, 1]</t>
+          <t>['Sweden', 1, -1, 1]</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>['Portugal', 3, 0, 1]</t>
+          <t>['Portugal', 2, 0, 1]</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Northern Ireland', 'Portugal', 'Albania']</t>
+          <t>['Slovakia', 'Northern Ireland', 'Albania', 'Turkey']</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>['Turkey', 'Sweden']</t>
+          <t>['Portugal', 'Sweden']</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -1518,7 +1518,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -1568,22 +1568,22 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>['Sweden', 2, -1, 1]</t>
+          <t>['Sweden', 1, -1, 1]</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>['Portugal', 3, 0, 1]</t>
+          <t>['Portugal', 2, 0, 1]</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Northern Ireland', 'Portugal', 'Turkey']</t>
+          <t>['Slovakia', 'Northern Ireland', 'Turkey', 'Albania']</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>['Albania', 'Sweden']</t>
+          <t>['Portugal', 'Sweden']</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -1595,7 +1595,7 @@
         <v>1</v>
       </c>
       <c r="Q15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
@@ -1645,22 +1645,22 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>['Sweden', 2, -1, 1]</t>
+          <t>['Sweden', 1, -1, 1]</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>['Portugal', 3, 0, 1]</t>
+          <t>['Portugal', 2, 0, 1]</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Northern Ireland', 'Portugal', 'Turkey']</t>
+          <t>['Slovakia', 'Northern Ireland', 'Turkey', 'Albania']</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>['Albania', 'Sweden']</t>
+          <t>['Portugal', 'Sweden']</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -1672,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
@@ -1722,22 +1722,22 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>['Sweden', 2, -1, 1]</t>
+          <t>['Sweden', 1, -1, 1]</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>['Portugal', 3, 0, 1]</t>
+          <t>['Portugal', 2, 0, 1]</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Northern Ireland', 'Portugal', 'Turkey']</t>
+          <t>['Slovakia', 'Northern Ireland', 'Turkey', 'Albania']</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>['Albania', 'Sweden']</t>
+          <t>['Portugal', 'Sweden']</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -1749,7 +1749,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -1799,7 +1799,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>['Sweden', 2, -1, 1]</t>
+          <t>['Sweden', 1, -1, 1]</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1823,10 +1823,10 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -1876,7 +1876,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>['Sweden', 2, -1, 1]</t>
+          <t>['Sweden', 1, -1, 1]</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1891,19 +1891,19 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>['Sweden', 'Portugal']</t>
+          <t>['Portugal', 'Sweden']</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>['Portugal', 'Sweden']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P19" t="n">
         <v>1</v>
       </c>
       <c r="Q19" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -1953,7 +1953,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>['Sweden', 2, -1, 1]</t>
+          <t>['Sweden', 1, -1, 1]</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1973,14 +1973,14 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Portugal']</t>
+          <t>['Portugal', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="P20" t="n">
         <v>1</v>
       </c>
       <c r="Q20" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21">
@@ -2030,7 +2030,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>['Sweden', 2, -1, 1]</t>
+          <t>['Sweden', 1, -1, 1]</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -2057,7 +2057,7 @@
         <v>1</v>
       </c>
       <c r="Q21" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -2107,7 +2107,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>['Sweden', 2, -1, 1]</t>
+          <t>['Sweden', 1, -1, 1]</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -2134,7 +2134,7 @@
         <v>1</v>
       </c>
       <c r="Q22" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>['Sweden', 2, -1, 1]</t>
+          <t>['Sweden', 1, -1, 1]</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -2211,7 +2211,7 @@
         <v>1</v>
       </c>
       <c r="Q23" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
@@ -2261,7 +2261,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>['Sweden', 2, -1, 1]</t>
+          <t>['Sweden', 1, -1, 1]</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -2288,7 +2288,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -2338,7 +2338,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>['Sweden', 2, -1, 1]</t>
+          <t>['Sweden', 1, -1, 1]</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -2365,7 +2365,7 @@
         <v>1</v>
       </c>
       <c r="Q25" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26">
@@ -2415,7 +2415,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>['Sweden', 2, -1, 1]</t>
+          <t>['Sweden', 1, -1, 1]</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -2442,7 +2442,7 @@
         <v>1</v>
       </c>
       <c r="Q26" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27">
@@ -2492,7 +2492,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>['Sweden', 2, -1, 1]</t>
+          <t>['Sweden', 1, -1, 1]</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -2519,7 +2519,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28">
@@ -2596,7 +2596,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29">
@@ -2673,7 +2673,7 @@
         <v>1</v>
       </c>
       <c r="Q29" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30">
@@ -2703,32 +2703,32 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>['Switzerland', 2, -3, 1]</t>
+          <t>['Switzerland', 1, -3, 1]</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>['Finland', 4, 0, 1]</t>
+          <t>['Finland', 3, 0, 1]</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>['Austria', 4, 0, 3]</t>
+          <t>['Austria', 3, 0, 3]</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -1, 1]</t>
+          <t>['Croatia', 1, -1, 1]</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>['Spain', 3, 0, 1]</t>
+          <t>['Spain', 2, 0, 1]</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>['Portugal', 4, 1, 5]</t>
+          <t>['Portugal', 3, 1, 5]</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
@@ -2785,32 +2785,32 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>['Finland', 4, 0, 1]</t>
+          <t>['Finland', 3, 0, 1]</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>['Austria', 4, 0, 3]</t>
+          <t>['Austria', 3, 0, 3]</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -1, 1]</t>
+          <t>['Croatia', 1, -1, 1]</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>['Spain', 3, 0, 1]</t>
+          <t>['Spain', 2, 0, 1]</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>['Portugal', 4, 1, 5]</t>
+          <t>['Portugal', 3, 1, 5]</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>['Portugal', 'Austria', 'Finland', 'Switzerland']</t>
+          <t>['Switzerland', 'Portugal', 'Austria', 'Finland']</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -2862,32 +2862,32 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>['Finland', 4, 0, 1]</t>
+          <t>['Finland', 3, 0, 1]</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>['Austria', 4, 0, 3]</t>
+          <t>['Austria', 3, 0, 3]</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -1, 1]</t>
+          <t>['Croatia', 1, -1, 1]</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>['Spain', 3, 0, 1]</t>
+          <t>['Spain', 2, 0, 1]</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>['Portugal', 4, 1, 5]</t>
+          <t>['Portugal', 3, 1, 5]</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>['Portugal', 'Austria', 'Finland', 'Switzerland']</t>
+          <t>['Switzerland', 'Portugal', 'Austria', 'Finland']</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -2939,32 +2939,32 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>['Finland', 4, 0, 1]</t>
+          <t>['Finland', 3, 0, 1]</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>['Austria', 4, 0, 3]</t>
+          <t>['Austria', 3, 0, 3]</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -1, 1]</t>
+          <t>['Croatia', 1, -1, 1]</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>['Spain', 3, 0, 1]</t>
+          <t>['Spain', 2, 0, 1]</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>['Portugal', 4, 1, 5]</t>
+          <t>['Portugal', 3, 1, 5]</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>['Portugal', 'Austria', 'Finland', 'Switzerland']</t>
+          <t>['Switzerland', 'Portugal', 'Austria', 'Finland']</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -3016,32 +3016,32 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>['Finland', 4, 0, 1]</t>
+          <t>['Finland', 3, 0, 1]</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>['Austria', 4, 0, 3]</t>
+          <t>['Austria', 3, 0, 3]</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -1, 1]</t>
+          <t>['Croatia', 1, -1, 1]</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>['Spain', 3, 0, 1]</t>
+          <t>['Spain', 2, 0, 1]</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>['Portugal', 4, 1, 5]</t>
+          <t>['Portugal', 3, 1, 5]</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>['Portugal', 'Austria', 'Finland', 'Switzerland']</t>
+          <t>['Switzerland', 'Portugal', 'Austria', 'Finland']</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -3093,32 +3093,32 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>['Finland', 4, 0, 1]</t>
+          <t>['Finland', 3, 0, 1]</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>['Austria', 4, 0, 3]</t>
+          <t>['Austria', 3, 0, 3]</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -1, 1]</t>
+          <t>['Croatia', 1, -1, 1]</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>['Spain', 3, 0, 1]</t>
+          <t>['Spain', 2, 0, 1]</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>['Portugal', 4, 1, 5]</t>
+          <t>['Portugal', 3, 1, 5]</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>['Portugal', 'Austria', 'Finland', 'Switzerland']</t>
+          <t>['Switzerland', 'Portugal', 'Austria', 'Finland']</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -3170,32 +3170,32 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>['Finland', 4, 0, 1]</t>
+          <t>['Finland', 3, 0, 1]</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>['Austria', 4, 0, 3]</t>
+          <t>['Austria', 3, 0, 3]</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -1, 1]</t>
+          <t>['Croatia', 1, -1, 1]</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>['Spain', 3, 0, 1]</t>
+          <t>['Spain', 2, 0, 1]</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>['Portugal', 4, 1, 5]</t>
+          <t>['Portugal', 3, 1, 5]</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>['Portugal', 'Austria', 'Finland', 'Switzerland']</t>
+          <t>['Switzerland', 'Portugal', 'Austria', 'Finland']</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -3247,7 +3247,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>['Finland', 4, 0, 1]</t>
+          <t>['Finland', 3, 0, 1]</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -3257,27 +3257,27 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -1, 1]</t>
+          <t>['Croatia', 1, -1, 1]</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>['Spain', 3, 0, 1]</t>
+          <t>['Spain', 2, 0, 1]</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>['Portugal', 4, 1, 5]</t>
+          <t>['Portugal', 3, 1, 5]</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>['Portugal', 'Finland', 'Switzerland', 'Spain']</t>
+          <t>['Switzerland', 'Portugal', 'Finland', 'Ukraine']</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Croatia']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -3324,7 +3324,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>['Finland', 4, 0, 1]</t>
+          <t>['Finland', 3, 0, 1]</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -3334,27 +3334,27 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -1, 1]</t>
+          <t>['Croatia', 1, -1, 1]</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>['Spain', 3, 0, 1]</t>
+          <t>['Spain', 2, 0, 1]</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>['Portugal', 4, 1, 5]</t>
+          <t>['Portugal', 3, 1, 5]</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>['Portugal', 'Finland', 'Switzerland', 'Spain']</t>
+          <t>['Switzerland', 'Portugal', 'Finland', 'Ukraine']</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Croatia']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -3401,7 +3401,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>['Finland', 4, 0, 1]</t>
+          <t>['Finland', 3, 0, 1]</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3411,27 +3411,27 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -1, 1]</t>
+          <t>['Croatia', 1, -1, 1]</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>['Spain', 3, 0, 1]</t>
+          <t>['Spain', 2, 0, 1]</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>['Portugal', 4, 1, 5]</t>
+          <t>['Portugal', 3, 1, 5]</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>['Portugal', 'Finland', 'Switzerland', 'Spain']</t>
+          <t>['Switzerland', 'Portugal', 'Finland', 'Ukraine']</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Croatia']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -3478,7 +3478,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>['Finland', 4, 0, 1]</t>
+          <t>['Finland', 3, 0, 1]</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3488,27 +3488,27 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -1, 1]</t>
+          <t>['Croatia', 1, -1, 1]</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>['Spain', 3, 0, 1]</t>
+          <t>['Spain', 2, 0, 1]</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>['Portugal', 4, 1, 5]</t>
+          <t>['Portugal', 3, 1, 5]</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>['Portugal', 'Finland', 'Switzerland', 'Spain']</t>
+          <t>['Switzerland', 'Portugal', 'Finland', 'Ukraine']</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Croatia']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -3555,7 +3555,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>['Finland', 4, 0, 1]</t>
+          <t>['Finland', 3, 0, 1]</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3565,27 +3565,27 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -1, 1]</t>
+          <t>['Croatia', 1, -1, 1]</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>['Spain', 3, 0, 1]</t>
+          <t>['Spain', 2, 0, 1]</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>['Portugal', 4, 1, 5]</t>
+          <t>['Portugal', 3, 1, 5]</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>['Portugal', 'Finland', 'Switzerland', 'Spain']</t>
+          <t>['Switzerland', 'Portugal', 'Finland', 'Ukraine']</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Croatia']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -3642,27 +3642,27 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -1, 1]</t>
+          <t>['Croatia', 1, -1, 1]</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>['Spain', 3, 0, 1]</t>
+          <t>['Spain', 2, 0, 1]</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>['Portugal', 4, 1, 5]</t>
+          <t>['Portugal', 3, 1, 5]</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>['Portugal', 'Switzerland', 'Spain', 'Ukraine']</t>
+          <t>['Switzerland', 'Portugal', 'Ukraine', 'Denmark']</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>['Denmark', 'Croatia']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -3719,27 +3719,27 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -1, 1]</t>
+          <t>['Croatia', 1, -1, 1]</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>['Spain', 3, 0, 1]</t>
+          <t>['Spain', 2, 0, 1]</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>['Portugal', 4, 1, 5]</t>
+          <t>['Portugal', 3, 1, 5]</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>['Portugal', 'Switzerland', 'Denmark', 'Spain']</t>
+          <t>['Switzerland', 'Portugal', 'Denmark', 'Ukraine']</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Croatia']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -3796,27 +3796,27 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -1, 1]</t>
+          <t>['Croatia', 1, -1, 1]</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>['Spain', 3, 0, 1]</t>
+          <t>['Spain', 2, 0, 1]</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>['Portugal', 4, 1, 5]</t>
+          <t>['Portugal', 3, 1, 5]</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>['Portugal', 'Switzerland', 'Spain', 'Ukraine']</t>
+          <t>['Switzerland', 'Portugal', 'Ukraine', 'Denmark']</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>['Denmark', 'Croatia']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -3873,27 +3873,27 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -1, 1]</t>
+          <t>['Croatia', 1, -1, 1]</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>['Spain', 3, 0, 1]</t>
+          <t>['Spain', 2, 0, 1]</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>['Portugal', 4, 1, 5]</t>
+          <t>['Portugal', 3, 1, 5]</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>['Portugal', 'Switzerland', 'Spain', 'Ukraine']</t>
+          <t>['Switzerland', 'Portugal', 'Ukraine', 'Russia']</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>['Russia', 'Croatia']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -3902,10 +3902,10 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q45" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46">
@@ -3950,27 +3950,27 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -1, 1]</t>
+          <t>['Croatia', 1, -1, 1]</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>['Spain', 3, 0, 1]</t>
+          <t>['Spain', 2, 0, 1]</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>['Portugal', 4, 1, 5]</t>
+          <t>['Portugal', 3, 1, 5]</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>['Portugal', 'Switzerland', 'Spain', 'Ukraine']</t>
+          <t>['Switzerland', 'Portugal', 'Ukraine', 'Finland']</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>['Finland', 'Croatia']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -3979,10 +3979,10 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q46" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47">
@@ -4027,27 +4027,27 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -1, 1]</t>
+          <t>['Croatia', 1, -1, 1]</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>['Spain', 3, 0, 1]</t>
+          <t>['Spain', 2, 0, 1]</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>['Portugal', 4, 1, 5]</t>
+          <t>['Portugal', 3, 1, 5]</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>['Portugal', 'Switzerland', 'Spain', 'Ukraine']</t>
+          <t>['Switzerland', 'Portugal', 'Ukraine', 'Finland']</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>['Finland', 'Croatia']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -4059,7 +4059,7 @@
         <v>0</v>
       </c>
       <c r="Q47" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48">
@@ -4104,27 +4104,27 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -1, 1]</t>
+          <t>['Croatia', 1, -1, 1]</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>['Spain', 3, 0, 1]</t>
+          <t>['Spain', 2, 0, 1]</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>['Portugal', 4, 1, 5]</t>
+          <t>['Portugal', 3, 1, 5]</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>['Portugal', 'Switzerland', 'Spain', 'Ukraine']</t>
+          <t>['Switzerland', 'Portugal', 'Ukraine', 'Finland']</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>['Finland', 'Croatia']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -4136,7 +4136,7 @@
         <v>0</v>
       </c>
       <c r="Q48" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49">
@@ -4181,27 +4181,27 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -1, 1]</t>
+          <t>['Croatia', 1, -1, 1]</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>['Spain', 3, 0, 1]</t>
+          <t>['Spain', 2, 0, 1]</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>['Portugal', 4, 1, 5]</t>
+          <t>['Portugal', 3, 1, 5]</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>['Portugal', 'Switzerland', 'Spain', 'Ukraine']</t>
+          <t>['Switzerland', 'Portugal', 'Ukraine', 'Finland']</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>['Finland', 'Croatia']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -4213,7 +4213,7 @@
         <v>0</v>
       </c>
       <c r="Q49" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50">
@@ -4263,22 +4263,22 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>['Spain', 3, 0, 1]</t>
+          <t>['Spain', 2, 0, 1]</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>['Portugal', 4, 1, 5]</t>
+          <t>['Portugal', 3, 1, 5]</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>['Portugal', 'Switzerland', 'Spain', 'Ukraine']</t>
+          <t>['Switzerland', 'Portugal', 'Ukraine', 'Finland']</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>['Finland', 'Croatia']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -4290,7 +4290,7 @@
         <v>0</v>
       </c>
       <c r="Q50" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51">
@@ -4340,22 +4340,22 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>['Spain', 3, 0, 1]</t>
+          <t>['Spain', 2, 0, 1]</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>['Portugal', 4, 1, 5]</t>
+          <t>['Portugal', 3, 1, 5]</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia', 'Switzerland', 'Spain']</t>
+          <t>['Croatia', 'Switzerland', 'Portugal', 'Ukraine']</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Finland']</t>
+          <t>['Finland', 'Spain']</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -4367,7 +4367,7 @@
         <v>1</v>
       </c>
       <c r="Q51" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52">
@@ -4417,22 +4417,22 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>['Spain', 3, 0, 1]</t>
+          <t>['Spain', 2, 0, 1]</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>['Portugal', 4, 1, 5]</t>
+          <t>['Portugal', 3, 1, 5]</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>['Portugal', 'Switzerland', 'Spain', 'Ukraine']</t>
+          <t>['Switzerland', 'Portugal', 'Ukraine', 'Finland']</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>['Finland', 'Croatia']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -4444,7 +4444,7 @@
         <v>1</v>
       </c>
       <c r="Q52" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53">
@@ -4494,22 +4494,22 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>['Spain', 3, 0, 1]</t>
+          <t>['Spain', 2, 0, 1]</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>['Portugal', 4, 1, 5]</t>
+          <t>['Portugal', 3, 1, 5]</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia', 'Switzerland', 'Spain']</t>
+          <t>['Croatia', 'Switzerland', 'Portugal', 'Ukraine']</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Finland']</t>
+          <t>['Finland', 'Spain']</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -4521,7 +4521,7 @@
         <v>1</v>
       </c>
       <c r="Q53" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54">
@@ -4571,22 +4571,22 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>['Spain', 3, 0, 1]</t>
+          <t>['Spain', 2, 0, 1]</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>['Portugal', 4, 1, 5]</t>
+          <t>['Portugal', 3, 1, 5]</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic', 'Switzerland', 'Spain']</t>
+          <t>['Czech Republic', 'Switzerland', 'Portugal', 'Ukraine']</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Finland']</t>
+          <t>['Finland', 'Spain']</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -4598,7 +4598,7 @@
         <v>1</v>
       </c>
       <c r="Q54" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55">
@@ -4648,22 +4648,22 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>['Spain', 3, 0, 1]</t>
+          <t>['Spain', 2, 0, 1]</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>['Portugal', 4, 1, 5]</t>
+          <t>['Portugal', 3, 1, 5]</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic', 'Switzerland', 'Spain']</t>
+          <t>['Czech Republic', 'Switzerland', 'Portugal', 'Ukraine']</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Finland']</t>
+          <t>['Finland', 'Spain']</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
@@ -4675,7 +4675,7 @@
         <v>0</v>
       </c>
       <c r="Q55" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56">
@@ -4730,12 +4730,12 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>['Portugal', 4, 1, 5]</t>
+          <t>['Portugal', 3, 1, 5]</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic', 'Switzerland', 'Spain']</t>
+          <t>['Czech Republic', 'Switzerland', 'Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
@@ -4749,10 +4749,10 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q56" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57">
@@ -4807,12 +4807,12 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>['Portugal', 4, 1, 5]</t>
+          <t>['Portugal', 3, 1, 5]</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic', 'Switzerland', 'Ukraine']</t>
+          <t>['Czech Republic', 'Switzerland', 'Portugal', 'Ukraine']</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
@@ -4829,7 +4829,7 @@
         <v>1</v>
       </c>
       <c r="Q57" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="58">
@@ -4884,12 +4884,12 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>['Portugal', 4, 1, 5]</t>
+          <t>['Portugal', 3, 1, 5]</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic', 'Switzerland', 'Ukraine']</t>
+          <t>['Czech Republic', 'Switzerland', 'Portugal', 'Ukraine']</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="Q58" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="59">
@@ -4961,12 +4961,12 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>['Portugal', 4, 1, 5]</t>
+          <t>['Portugal', 3, 1, 5]</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic', 'Switzerland', 'Ukraine']</t>
+          <t>['Czech Republic', 'Switzerland', 'Portugal', 'Ukraine']</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
@@ -4983,7 +4983,7 @@
         <v>0</v>
       </c>
       <c r="Q59" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="60">
@@ -5038,12 +5038,12 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>['Portugal', 4, 1, 5]</t>
+          <t>['Portugal', 3, 1, 5]</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic', 'Switzerland', 'Ukraine']</t>
+          <t>['Czech Republic', 'Switzerland', 'Portugal', 'Ukraine']</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
@@ -5060,7 +5060,7 @@
         <v>0</v>
       </c>
       <c r="Q60" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="61">
@@ -5115,12 +5115,12 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>['Portugal', 4, 1, 5]</t>
+          <t>['Portugal', 3, 1, 5]</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic', 'Switzerland', 'Ukraine']</t>
+          <t>['Czech Republic', 'Switzerland', 'Portugal', 'Ukraine']</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
@@ -5137,7 +5137,7 @@
         <v>0</v>
       </c>
       <c r="Q61" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="62">
@@ -5192,12 +5192,12 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>['Portugal', 4, 1, 5]</t>
+          <t>['Portugal', 3, 1, 5]</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic', 'Switzerland', 'Ukraine']</t>
+          <t>['Czech Republic', 'Switzerland', 'Portugal', 'Ukraine']</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
@@ -5214,7 +5214,7 @@
         <v>0</v>
       </c>
       <c r="Q62" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="63">
@@ -5269,12 +5269,12 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>['Portugal', 4, 1, 5]</t>
+          <t>['Portugal', 3, 1, 5]</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic', 'Switzerland', 'Ukraine']</t>
+          <t>['Czech Republic', 'Switzerland', 'Portugal', 'Ukraine']</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
@@ -5291,7 +5291,7 @@
         <v>0</v>
       </c>
       <c r="Q63" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="64">
@@ -5346,12 +5346,12 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>['Portugal', 4, 1, 5]</t>
+          <t>['Portugal', 3, 1, 5]</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic', 'Switzerland', 'Ukraine']</t>
+          <t>['Czech Republic', 'Switzerland', 'Portugal', 'Ukraine']</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
@@ -5368,7 +5368,7 @@
         <v>0</v>
       </c>
       <c r="Q64" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="65">
@@ -5423,12 +5423,12 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>['Portugal', 4, 1, 5]</t>
+          <t>['Portugal', 3, 1, 5]</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic', 'Switzerland', 'Ukraine']</t>
+          <t>['Czech Republic', 'Switzerland', 'Portugal', 'Ukraine']</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
@@ -5445,7 +5445,7 @@
         <v>0</v>
       </c>
       <c r="Q65" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="66">
@@ -5500,12 +5500,12 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>['Portugal', 4, 1, 5]</t>
+          <t>['Portugal', 3, 1, 5]</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic', 'Switzerland', 'Ukraine']</t>
+          <t>['Czech Republic', 'Switzerland', 'Portugal', 'Ukraine']</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
@@ -5522,7 +5522,7 @@
         <v>0</v>
       </c>
       <c r="Q66" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="67">
@@ -5599,7 +5599,7 @@
         <v>1</v>
       </c>
       <c r="Q67" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="68">
@@ -5676,7 +5676,7 @@
         <v>0</v>
       </c>
       <c r="Q68" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="69">
@@ -5753,7 +5753,7 @@
         <v>0</v>
       </c>
       <c r="Q69" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="70">
@@ -5830,7 +5830,7 @@
         <v>1</v>
       </c>
       <c r="Q70" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="71">
@@ -5907,7 +5907,7 @@
         <v>1</v>
       </c>
       <c r="Q71" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72">
@@ -5984,7 +5984,7 @@
         <v>1</v>
       </c>
       <c r="Q72" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="73">
@@ -6061,7 +6061,7 @@
         <v>1</v>
       </c>
       <c r="Q73" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74">
@@ -6138,7 +6138,7 @@
         <v>1</v>
       </c>
       <c r="Q74" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="75">
@@ -6168,32 +6168,32 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>['Scotland', 2, -4, 2]</t>
+          <t>['Scotland', 1, -4, 2]</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>['Albania', 2, -1, 3]</t>
+          <t>['Albania', 1, -1, 3]</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>['Denmark', 3, 0, 2]</t>
+          <t>['Denmark', 2, 0, 2]</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>['Austria', 4, 1, 3]</t>
+          <t>['Austria', 3, 1, 3]</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>['Belgium', 4, 1, 2]</t>
+          <t>['Belgium', 3, 1, 2]</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
+          <t>['Czech Republic', 1, -1, 2]</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
@@ -6250,37 +6250,37 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>['Albania', 2, -1, 3]</t>
+          <t>['Albania', 1, -1, 3]</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>['Denmark', 3, 0, 2]</t>
+          <t>['Denmark', 2, 0, 2]</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>['Austria', 4, 1, 3]</t>
+          <t>['Austria', 3, 1, 3]</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>['Belgium', 4, 1, 2]</t>
+          <t>['Belgium', 3, 1, 2]</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
+          <t>['Czech Republic', 1, -1, 2]</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>['Austria', 'Belgium', 'Denmark', 'Albania']</t>
+          <t>['Austria', 'Belgium', 'Denmark', 'Scotland']</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Scotland']</t>
+          <t>['Albania', 'Czech Republic']</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
@@ -6289,10 +6289,10 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -6327,37 +6327,37 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>['Albania', 2, -1, 3]</t>
+          <t>['Albania', 1, -1, 3]</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>['Denmark', 3, 0, 2]</t>
+          <t>['Denmark', 2, 0, 2]</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>['Austria', 4, 1, 3]</t>
+          <t>['Austria', 3, 1, 3]</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>['Belgium', 4, 1, 2]</t>
+          <t>['Belgium', 3, 1, 2]</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
+          <t>['Czech Republic', 1, -1, 2]</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>['Austria', 'Belgium', 'Denmark', 'Albania']</t>
+          <t>['Austria', 'Belgium', 'Denmark', 'Scotland']</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Scotland']</t>
+          <t>['Albania', 'Czech Republic']</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
@@ -6369,7 +6369,7 @@
         <v>0</v>
       </c>
       <c r="Q77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -6404,32 +6404,32 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>['Albania', 2, -1, 3]</t>
+          <t>['Albania', 1, -1, 3]</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>['Denmark', 3, 0, 2]</t>
+          <t>['Denmark', 2, 0, 2]</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>['Austria', 4, 1, 3]</t>
+          <t>['Austria', 3, 1, 3]</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>['Belgium', 4, 1, 2]</t>
+          <t>['Belgium', 3, 1, 2]</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
+          <t>['Czech Republic', 1, -1, 2]</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>['Austria', 'Belgium', 'Denmark', 'Hungary']</t>
+          <t>['Austria', 'Belgium', 'Hungary', 'Denmark']</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
@@ -6446,7 +6446,7 @@
         <v>1</v>
       </c>
       <c r="Q78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79">
@@ -6481,32 +6481,32 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>['Albania', 2, -1, 3]</t>
+          <t>['Albania', 1, -1, 3]</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>['Denmark', 3, 0, 2]</t>
+          <t>['Denmark', 2, 0, 2]</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>['Austria', 4, 1, 3]</t>
+          <t>['Austria', 3, 1, 3]</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>['Belgium', 4, 1, 2]</t>
+          <t>['Belgium', 3, 1, 2]</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
+          <t>['Czech Republic', 1, -1, 2]</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>['Austria', 'Belgium', 'Denmark', 'Hungary']</t>
+          <t>['Austria', 'Belgium', 'Hungary', 'Denmark']</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
@@ -6523,7 +6523,7 @@
         <v>0</v>
       </c>
       <c r="Q79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80">
@@ -6563,32 +6563,32 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>['Denmark', 3, 0, 2]</t>
+          <t>['Denmark', 2, 0, 2]</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>['Austria', 4, 1, 3]</t>
+          <t>['Austria', 3, 1, 3]</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>['Belgium', 4, 1, 2]</t>
+          <t>['Belgium', 3, 1, 2]</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
+          <t>['Czech Republic', 1, -1, 2]</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>['Austria', 'Belgium', 'Denmark', 'Hungary']</t>
+          <t>['Austria', 'Belgium', 'Hungary', 'Denmark']</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia']</t>
+          <t>['Croatia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
@@ -6600,7 +6600,7 @@
         <v>0</v>
       </c>
       <c r="Q80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81">
@@ -6640,32 +6640,32 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>['Denmark', 3, 0, 2]</t>
+          <t>['Denmark', 2, 0, 2]</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>['Austria', 4, 1, 3]</t>
+          <t>['Austria', 3, 1, 3]</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>['Belgium', 4, 1, 2]</t>
+          <t>['Belgium', 3, 1, 2]</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
+          <t>['Czech Republic', 1, -1, 2]</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>['Austria', 'Belgium', 'Denmark', 'Italy']</t>
+          <t>['Austria', 'Belgium', 'Italy', 'Hungary']</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>['Hungary', 'Czech Republic']</t>
+          <t>['Denmark', 'Czech Republic']</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
@@ -6677,7 +6677,7 @@
         <v>1</v>
       </c>
       <c r="Q81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82">
@@ -6717,32 +6717,32 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>['Denmark', 3, 0, 2]</t>
+          <t>['Denmark', 2, 0, 2]</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>['Austria', 4, 1, 3]</t>
+          <t>['Austria', 3, 1, 3]</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>['Belgium', 4, 1, 2]</t>
+          <t>['Belgium', 3, 1, 2]</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
+          <t>['Czech Republic', 1, -1, 2]</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>['Austria', 'Belgium', 'Denmark', 'Hungary']</t>
+          <t>['Austria', 'Belgium', 'Hungary', 'Denmark']</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia']</t>
+          <t>['Croatia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
@@ -6754,7 +6754,7 @@
         <v>1</v>
       </c>
       <c r="Q82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83">
@@ -6794,32 +6794,32 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>['Denmark', 3, 0, 2]</t>
+          <t>['Denmark', 2, 0, 2]</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>['Austria', 4, 1, 3]</t>
+          <t>['Austria', 3, 1, 3]</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>['Belgium', 4, 1, 2]</t>
+          <t>['Belgium', 3, 1, 2]</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
+          <t>['Czech Republic', 1, -1, 2]</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>['Austria', 'Belgium', 'Denmark', 'Hungary']</t>
+          <t>['Austria', 'Belgium', 'Hungary', 'Denmark']</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia']</t>
+          <t>['Croatia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
@@ -6831,7 +6831,7 @@
         <v>0</v>
       </c>
       <c r="Q83" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84">
@@ -6871,7 +6871,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>['Denmark', 3, 0, 2]</t>
+          <t>['Denmark', 2, 0, 2]</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -6881,22 +6881,22 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>['Belgium', 4, 1, 2]</t>
+          <t>['Belgium', 3, 1, 2]</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
+          <t>['Czech Republic', 1, -1, 2]</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>['Belgium', 'Netherlands', 'Denmark', 'Hungary']</t>
+          <t>['Netherlands', 'Belgium', 'Hungary', 'Denmark']</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia']</t>
+          <t>['Croatia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
@@ -6908,7 +6908,7 @@
         <v>1</v>
       </c>
       <c r="Q84" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="85">
@@ -6948,7 +6948,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>['Denmark', 3, 0, 2]</t>
+          <t>['Denmark', 2, 0, 2]</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -6958,22 +6958,22 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>['Belgium', 4, 1, 2]</t>
+          <t>['Belgium', 3, 1, 2]</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
+          <t>['Czech Republic', 1, -1, 2]</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>['Austria', 'Belgium', 'Denmark', 'Hungary']</t>
+          <t>['Austria', 'Belgium', 'Hungary', 'Denmark']</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia']</t>
+          <t>['Croatia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
@@ -6985,7 +6985,7 @@
         <v>1</v>
       </c>
       <c r="Q85" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86">
@@ -7025,7 +7025,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>['Denmark', 3, 0, 2]</t>
+          <t>['Denmark', 2, 0, 2]</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -7035,22 +7035,22 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>['Belgium', 4, 1, 2]</t>
+          <t>['Belgium', 3, 1, 2]</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
+          <t>['Czech Republic', 1, -1, 2]</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>['Austria', 'Belgium', 'Denmark', 'Hungary']</t>
+          <t>['Austria', 'Belgium', 'Hungary', 'Denmark']</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia']</t>
+          <t>['Croatia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
@@ -7062,7 +7062,7 @@
         <v>0</v>
       </c>
       <c r="Q86" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="87">
@@ -7102,7 +7102,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>['Denmark', 3, 0, 2]</t>
+          <t>['Denmark', 2, 0, 2]</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -7112,22 +7112,22 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>['Belgium', 4, 1, 2]</t>
+          <t>['Belgium', 3, 1, 2]</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
+          <t>['Czech Republic', 1, -1, 2]</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>['Belgium', 'Netherlands', 'Denmark', 'Hungary']</t>
+          <t>['Netherlands', 'Belgium', 'Hungary', 'Denmark']</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia']</t>
+          <t>['Croatia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
@@ -7139,7 +7139,7 @@
         <v>1</v>
       </c>
       <c r="Q87" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="88">
@@ -7179,7 +7179,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>['Denmark', 3, 0, 2]</t>
+          <t>['Denmark', 2, 0, 2]</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -7189,22 +7189,22 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>['Belgium', 4, 1, 2]</t>
+          <t>['Belgium', 3, 1, 2]</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
+          <t>['Czech Republic', 1, -1, 2]</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>['Austria', 'Belgium', 'Denmark', 'Hungary']</t>
+          <t>['Austria', 'Belgium', 'Hungary', 'Denmark']</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia']</t>
+          <t>['Croatia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
@@ -7216,7 +7216,7 @@
         <v>1</v>
       </c>
       <c r="Q88" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="89">
@@ -7256,7 +7256,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>['Denmark', 3, 0, 2]</t>
+          <t>['Denmark', 2, 0, 2]</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -7266,22 +7266,22 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>['Belgium', 4, 1, 2]</t>
+          <t>['Belgium', 3, 1, 2]</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
+          <t>['Czech Republic', 1, -1, 2]</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>['Austria', 'Belgium', 'Denmark', 'Hungary']</t>
+          <t>['Austria', 'Belgium', 'Hungary', 'Denmark']</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia']</t>
+          <t>['Croatia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
@@ -7293,7 +7293,7 @@
         <v>0</v>
       </c>
       <c r="Q89" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="90">
@@ -7333,7 +7333,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>['Denmark', 3, 0, 2]</t>
+          <t>['Denmark', 2, 0, 2]</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -7343,22 +7343,22 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>['Belgium', 4, 1, 2]</t>
+          <t>['Belgium', 3, 1, 2]</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
+          <t>['Czech Republic', 1, -1, 2]</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>['Belgium', 'Netherlands', 'Denmark', 'Hungary']</t>
+          <t>['Netherlands', 'Belgium', 'Hungary', 'Denmark']</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia']</t>
+          <t>['Croatia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
@@ -7370,7 +7370,7 @@
         <v>1</v>
       </c>
       <c r="Q90" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="91">
@@ -7410,7 +7410,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>['Denmark', 3, 0, 2]</t>
+          <t>['Denmark', 2, 0, 2]</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -7420,22 +7420,22 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>['Belgium', 4, 1, 2]</t>
+          <t>['Belgium', 3, 1, 2]</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
+          <t>['Czech Republic', 1, -1, 2]</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>['Belgium', 'Netherlands', 'Denmark', 'Hungary']</t>
+          <t>['Netherlands', 'Belgium', 'Hungary', 'Denmark']</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia']</t>
+          <t>['Croatia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="O91" t="inlineStr">
@@ -7447,7 +7447,7 @@
         <v>0</v>
       </c>
       <c r="Q91" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="92">
@@ -7487,7 +7487,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>['Denmark', 3, 0, 2]</t>
+          <t>['Denmark', 2, 0, 2]</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -7502,17 +7502,17 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
+          <t>['Czech Republic', 1, -1, 2]</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ukraine', 'Denmark', 'Hungary']</t>
+          <t>['Netherlands', 'Ukraine', 'Hungary', 'Denmark']</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia']</t>
+          <t>['Croatia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
@@ -7524,7 +7524,7 @@
         <v>1</v>
       </c>
       <c r="Q92" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="93">
@@ -7564,7 +7564,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>['Denmark', 3, 0, 2]</t>
+          <t>['Denmark', 2, 0, 2]</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -7579,17 +7579,17 @@
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
+          <t>['Czech Republic', 1, -1, 2]</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Slovakia', 'Denmark', 'Hungary']</t>
+          <t>['Netherlands', 'Slovakia', 'Hungary', 'Denmark']</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia']</t>
+          <t>['Croatia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="O93" t="inlineStr">
@@ -7601,7 +7601,7 @@
         <v>1</v>
       </c>
       <c r="Q93" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="94">
@@ -7641,7 +7641,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>['Denmark', 3, 0, 2]</t>
+          <t>['Denmark', 2, 0, 2]</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -7656,17 +7656,17 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
+          <t>['Czech Republic', 1, -1, 2]</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Slovakia', 'Denmark', 'Hungary']</t>
+          <t>['Netherlands', 'Slovakia', 'Hungary', 'Denmark']</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia']</t>
+          <t>['Croatia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="O94" t="inlineStr">
@@ -7678,7 +7678,7 @@
         <v>0</v>
       </c>
       <c r="Q94" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="95">
@@ -7718,7 +7718,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>['Denmark', 3, 0, 2]</t>
+          <t>['Denmark', 2, 0, 2]</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -7738,12 +7738,12 @@
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Slovakia', 'Georgia', 'Denmark']</t>
+          <t>['Netherlands', 'Slovakia', 'Georgia', 'Hungary']</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>['Hungary', 'Croatia']</t>
+          <t>['Denmark', 'Croatia']</t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
@@ -7755,7 +7755,7 @@
         <v>1</v>
       </c>
       <c r="Q95" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96">
@@ -7795,7 +7795,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>['Denmark', 3, 0, 2]</t>
+          <t>['Denmark', 2, 0, 2]</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -7815,12 +7815,12 @@
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Slovakia', 'Georgia', 'Denmark']</t>
+          <t>['Netherlands', 'Slovakia', 'Georgia', 'Hungary']</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>['Hungary', 'Croatia']</t>
+          <t>['Denmark', 'Croatia']</t>
         </is>
       </c>
       <c r="O96" t="inlineStr">
@@ -7832,7 +7832,7 @@
         <v>0</v>
       </c>
       <c r="Q96" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97">
@@ -7872,7 +7872,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>['Denmark', 3, 0, 2]</t>
+          <t>['Denmark', 2, 0, 2]</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -7892,12 +7892,12 @@
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Georgia', 'Slovakia', 'Denmark']</t>
+          <t>['Netherlands', 'Georgia', 'Slovakia', 'Hungary']</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>['Hungary', 'Croatia']</t>
+          <t>['Denmark', 'Croatia']</t>
         </is>
       </c>
       <c r="O97" t="inlineStr">
@@ -7909,7 +7909,7 @@
         <v>1</v>
       </c>
       <c r="Q97" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="98">
@@ -7949,7 +7949,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>['Denmark', 3, 0, 2]</t>
+          <t>['Denmark', 2, 0, 2]</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -7969,12 +7969,12 @@
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Georgia', 'Slovakia', 'Denmark']</t>
+          <t>['Netherlands', 'Georgia', 'Slovakia', 'Hungary']</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>['Hungary', 'Croatia']</t>
+          <t>['Denmark', 'Croatia']</t>
         </is>
       </c>
       <c r="O98" t="inlineStr">
@@ -7986,7 +7986,7 @@
         <v>0</v>
       </c>
       <c r="Q98" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="99">
@@ -8026,7 +8026,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>['Denmark', 3, 0, 2]</t>
+          <t>['Denmark', 2, 0, 2]</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -8046,12 +8046,12 @@
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Georgia', 'Slovakia', 'Denmark']</t>
+          <t>['Netherlands', 'Georgia', 'Slovakia', 'Hungary']</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>['Hungary', 'Croatia']</t>
+          <t>['Denmark', 'Croatia']</t>
         </is>
       </c>
       <c r="O99" t="inlineStr">
@@ -8063,7 +8063,7 @@
         <v>0</v>
       </c>
       <c r="Q99" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="100">
@@ -8095,7 +8095,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>['Denmark', 3, 0, 2]</t>
+          <t>['Denmark', 2, 0, 2]</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -8115,12 +8115,12 @@
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Georgia', 'Slovakia', 'Denmark']</t>
+          <t>['Netherlands', 'Georgia', 'Slovakia', 'Hungary']</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>['Hungary', 'Croatia']</t>
+          <t>['Denmark', 'Croatia']</t>
         </is>
       </c>
       <c r="O100" t="inlineStr">
@@ -8132,7 +8132,7 @@
         <v>0</v>
       </c>
       <c r="Q100" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/data/out/wiki/men/uefa/eu/third_teams_df_eu_uefa.xlsx
+++ b/data/out/wiki/men/uefa/eu/third_teams_df_eu_uefa.xlsx
@@ -547,7 +547,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['Romania', 1, -1, 2]</t>
+          <t>['Romania', 2, -1, 2]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Romania']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P2" t="n">
@@ -706,7 +706,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['Slovakia', 3, 0, 3]</t>
+          <t>['Slovakia', 4, 0, 3]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -731,7 +731,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Slovakia', 'Albania', 'Portugal']</t>
+          <t>['Slovakia', 'Northern Ireland', 'Albania', 'Portugal']</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -745,10 +745,10 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>2</v>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 3, 1, 2]</t>
+          <t>['Northern Ireland', 4, 1, 2]</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Northern Ireland', 'Albania', 'Portugal']</t>
+          <t>['Northern Ireland', 'Slovakia', 'Albania', 'Portugal']</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -1210,7 +1210,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>['Czech Republic', 1, -1, 2]</t>
+          <t>['Czech Republic', 2, -1, 2]</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1287,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -1364,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -1441,7 +1441,7 @@
         <v>1</v>
       </c>
       <c r="Q13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -1518,7 +1518,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -1595,7 +1595,7 @@
         <v>1</v>
       </c>
       <c r="Q15" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
@@ -1672,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17">
@@ -1727,17 +1727,17 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>['Portugal', 2, 0, 1]</t>
+          <t>['Portugal', 3, 0, 1]</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Northern Ireland', 'Turkey', 'Albania']</t>
+          <t>['Slovakia', 'Northern Ireland', 'Portugal', 'Turkey']</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>['Portugal', 'Sweden']</t>
+          <t>['Albania', 'Sweden']</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -1746,10 +1746,10 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -1823,10 +1823,10 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
@@ -1903,7 +1903,7 @@
         <v>1</v>
       </c>
       <c r="Q19" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20">
@@ -1980,7 +1980,7 @@
         <v>1</v>
       </c>
       <c r="Q20" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21">
@@ -2057,7 +2057,7 @@
         <v>1</v>
       </c>
       <c r="Q21" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22">
@@ -2134,7 +2134,7 @@
         <v>1</v>
       </c>
       <c r="Q22" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23">
@@ -2211,7 +2211,7 @@
         <v>1</v>
       </c>
       <c r="Q23" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24">
@@ -2288,7 +2288,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25">
@@ -2365,7 +2365,7 @@
         <v>1</v>
       </c>
       <c r="Q25" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26">
@@ -2442,7 +2442,7 @@
         <v>1</v>
       </c>
       <c r="Q26" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27">
@@ -2492,7 +2492,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>['Sweden', 1, -1, 1]</t>
+          <t>['Sweden', 2, -1, 1]</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -2519,7 +2519,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28">
@@ -2596,7 +2596,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29">
@@ -2673,7 +2673,7 @@
         <v>1</v>
       </c>
       <c r="Q29" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30">
@@ -2703,7 +2703,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>['Switzerland', 1, -3, 1]</t>
+          <t>['Switzerland', 2, -3, 1]</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -2738,7 +2738,7 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>['Croatia', 'Switzerland']</t>
+          <t>['Switzerland', 'Croatia']</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -3175,7 +3175,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>['Austria', 3, 0, 3]</t>
+          <t>['Austria', 4, 0, 3]</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -3195,7 +3195,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Portugal', 'Austria', 'Finland']</t>
+          <t>['Austria', 'Switzerland', 'Portugal', 'Finland']</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -3209,10 +3209,10 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
@@ -3289,7 +3289,7 @@
         <v>1</v>
       </c>
       <c r="Q37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38">
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39">
@@ -3443,7 +3443,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40">
@@ -3520,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41">
@@ -3555,7 +3555,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>['Finland', 3, 0, 1]</t>
+          <t>['Finland', 4, 0, 1]</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3580,7 +3580,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Portugal', 'Finland', 'Ukraine']</t>
+          <t>['Finland', 'Switzerland', 'Portugal', 'Ukraine']</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -3594,10 +3594,10 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42">
@@ -3674,7 +3674,7 @@
         <v>1</v>
       </c>
       <c r="Q42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43">
@@ -3751,7 +3751,7 @@
         <v>1</v>
       </c>
       <c r="Q43" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44">
@@ -3828,7 +3828,7 @@
         <v>1</v>
       </c>
       <c r="Q44" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45">
@@ -3905,7 +3905,7 @@
         <v>1</v>
       </c>
       <c r="Q45" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46">
@@ -3982,7 +3982,7 @@
         <v>1</v>
       </c>
       <c r="Q46" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47">
@@ -4059,7 +4059,7 @@
         <v>0</v>
       </c>
       <c r="Q47" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48">
@@ -4136,7 +4136,7 @@
         <v>0</v>
       </c>
       <c r="Q48" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49">
@@ -4181,7 +4181,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>['Croatia', 1, -1, 1]</t>
+          <t>['Croatia', 2, -1, 1]</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -4213,7 +4213,7 @@
         <v>0</v>
       </c>
       <c r="Q49" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50">
@@ -4290,7 +4290,7 @@
         <v>0</v>
       </c>
       <c r="Q50" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51">
@@ -4367,7 +4367,7 @@
         <v>1</v>
       </c>
       <c r="Q51" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52">
@@ -4444,7 +4444,7 @@
         <v>1</v>
       </c>
       <c r="Q52" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53">
@@ -4521,7 +4521,7 @@
         <v>1</v>
       </c>
       <c r="Q53" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54">
@@ -4598,7 +4598,7 @@
         <v>1</v>
       </c>
       <c r="Q54" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>['Spain', 2, 0, 1]</t>
+          <t>['Spain', 3, 0, 1]</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
@@ -4658,12 +4658,12 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Switzerland', 'Portugal', 'Ukraine']</t>
+          <t>['Czech Republic', 'Switzerland', 'Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>['Finland', 'Spain']</t>
+          <t>['Ukraine', 'Finland']</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
@@ -4672,10 +4672,10 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q55" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56">
@@ -4749,10 +4749,10 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q56" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57">
@@ -4829,7 +4829,7 @@
         <v>1</v>
       </c>
       <c r="Q57" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58">
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="Q58" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59">
@@ -4983,7 +4983,7 @@
         <v>0</v>
       </c>
       <c r="Q59" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="60">
@@ -5060,7 +5060,7 @@
         <v>0</v>
       </c>
       <c r="Q60" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="61">
@@ -5137,7 +5137,7 @@
         <v>0</v>
       </c>
       <c r="Q61" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62">
@@ -5214,7 +5214,7 @@
         <v>0</v>
       </c>
       <c r="Q62" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="63">
@@ -5291,7 +5291,7 @@
         <v>0</v>
       </c>
       <c r="Q63" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="64">
@@ -5368,7 +5368,7 @@
         <v>0</v>
       </c>
       <c r="Q64" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="65">
@@ -5445,7 +5445,7 @@
         <v>0</v>
       </c>
       <c r="Q65" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66">
@@ -5500,12 +5500,12 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>['Portugal', 3, 1, 5]</t>
+          <t>['Portugal', 4, 1, 5]</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Switzerland', 'Portugal', 'Ukraine']</t>
+          <t>['Portugal', 'Czech Republic', 'Switzerland', 'Ukraine']</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
@@ -5519,10 +5519,10 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q66" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67">
@@ -5599,7 +5599,7 @@
         <v>1</v>
       </c>
       <c r="Q67" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="68">
@@ -5676,7 +5676,7 @@
         <v>0</v>
       </c>
       <c r="Q68" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="69">
@@ -5753,7 +5753,7 @@
         <v>0</v>
       </c>
       <c r="Q69" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="70">
@@ -5830,7 +5830,7 @@
         <v>1</v>
       </c>
       <c r="Q70" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71">
@@ -5907,7 +5907,7 @@
         <v>1</v>
       </c>
       <c r="Q71" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="72">
@@ -5984,7 +5984,7 @@
         <v>1</v>
       </c>
       <c r="Q72" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73">
@@ -6061,7 +6061,7 @@
         <v>1</v>
       </c>
       <c r="Q73" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74">
@@ -6138,7 +6138,7 @@
         <v>1</v>
       </c>
       <c r="Q74" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="75">
@@ -6168,7 +6168,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>['Scotland', 1, -4, 2]</t>
+          <t>['Scotland', 2, -4, 2]</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -6198,12 +6198,12 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>['Austria', 'Belgium', 'Denmark', 'Albania']</t>
+          <t>['Austria', 'Belgium', 'Denmark', 'Scotland']</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Scotland']</t>
+          <t>['Albania', 'Czech Republic']</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
@@ -6289,10 +6289,10 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -6369,7 +6369,7 @@
         <v>0</v>
       </c>
       <c r="Q77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -6446,7 +6446,7 @@
         <v>1</v>
       </c>
       <c r="Q78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -6481,7 +6481,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>['Albania', 1, -1, 3]</t>
+          <t>['Albania', 2, -1, 3]</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -6523,7 +6523,7 @@
         <v>0</v>
       </c>
       <c r="Q79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -6600,7 +6600,7 @@
         <v>0</v>
       </c>
       <c r="Q80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -6677,7 +6677,7 @@
         <v>1</v>
       </c>
       <c r="Q81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82">
@@ -6754,7 +6754,7 @@
         <v>1</v>
       </c>
       <c r="Q82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83">
@@ -6799,7 +6799,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>['Austria', 3, 1, 3]</t>
+          <t>['Austria', 4, 1, 3]</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -6831,7 +6831,7 @@
         <v>0</v>
       </c>
       <c r="Q83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84">
@@ -6908,7 +6908,7 @@
         <v>1</v>
       </c>
       <c r="Q84" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85">
@@ -6985,7 +6985,7 @@
         <v>1</v>
       </c>
       <c r="Q85" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="86">
@@ -7062,7 +7062,7 @@
         <v>0</v>
       </c>
       <c r="Q86" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87">
@@ -7139,7 +7139,7 @@
         <v>1</v>
       </c>
       <c r="Q87" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="88">
@@ -7216,7 +7216,7 @@
         <v>1</v>
       </c>
       <c r="Q88" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="89">
@@ -7293,7 +7293,7 @@
         <v>0</v>
       </c>
       <c r="Q89" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="90">
@@ -7370,7 +7370,7 @@
         <v>1</v>
       </c>
       <c r="Q90" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="91">
@@ -7420,7 +7420,7 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>['Belgium', 3, 1, 2]</t>
+          <t>['Belgium', 4, 1, 2]</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
@@ -7430,7 +7430,7 @@
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Belgium', 'Hungary', 'Denmark']</t>
+          <t>['Belgium', 'Netherlands', 'Hungary', 'Denmark']</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
@@ -7444,7 +7444,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q91" t="n">
         <v>9</v>
@@ -7656,7 +7656,7 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>['Czech Republic', 1, -1, 2]</t>
+          <t>['Czech Republic', 2, -1, 2]</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
@@ -7666,7 +7666,7 @@
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>['Croatia', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Croatia']</t>
         </is>
       </c>
       <c r="O94" t="inlineStr">
@@ -7902,7 +7902,7 @@
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Georgia']</t>
+          <t>['Georgia', 'Netherlands']</t>
         </is>
       </c>
       <c r="P97" t="n">
@@ -7979,7 +7979,7 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Georgia']</t>
+          <t>['Georgia', 'Netherlands']</t>
         </is>
       </c>
       <c r="P98" t="n">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Georgia']</t>
+          <t>['Georgia', 'Netherlands']</t>
         </is>
       </c>
       <c r="P99" t="n">
@@ -8095,7 +8095,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>['Denmark', 2, 0, 2]</t>
+          <t>['Denmark', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -8115,24 +8115,24 @@
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Georgia', 'Slovakia', 'Hungary']</t>
+          <t>['Netherlands', 'Georgia', 'Slovakia', 'Denmark']</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>['Denmark', 'Croatia']</t>
+          <t>['Hungary', 'Croatia']</t>
         </is>
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Georgia']</t>
+          <t>['Georgia', 'Netherlands']</t>
         </is>
       </c>
       <c r="P100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q100" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/data/out/wiki/men/uefa/eu/third_teams_df_eu_uefa.xlsx
+++ b/data/out/wiki/men/uefa/eu/third_teams_df_eu_uefa.xlsx
@@ -1973,7 +1973,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>['Portugal', 'Northern Ireland']</t>
+          <t>['Northern Ireland', 'Portugal']</t>
         </is>
       </c>
       <c r="P20" t="n">
@@ -6178,7 +6178,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>['Denmark', 2, 0, 2]</t>
+          <t>['Slovenia', 2, 0, 2]</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -6198,7 +6198,7 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>['Austria', 'Belgium', 'Denmark', 'Scotland']</t>
+          <t>['Austria', 'Belgium', 'Slovenia', 'Scotland']</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
@@ -6255,7 +6255,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>['Denmark', 2, 0, 2]</t>
+          <t>['Slovenia', 2, 0, 2]</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -6275,7 +6275,7 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>['Austria', 'Belgium', 'Denmark', 'Scotland']</t>
+          <t>['Austria', 'Belgium', 'Slovenia', 'Scotland']</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
@@ -6332,7 +6332,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>['Denmark', 2, 0, 2]</t>
+          <t>['Slovenia', 2, 0, 2]</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -6352,7 +6352,7 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>['Austria', 'Belgium', 'Denmark', 'Scotland']</t>
+          <t>['Austria', 'Belgium', 'Slovenia', 'Scotland']</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
@@ -6409,7 +6409,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>['Denmark', 2, 0, 2]</t>
+          <t>['Slovenia', 2, 0, 2]</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -6429,7 +6429,7 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>['Austria', 'Belgium', 'Hungary', 'Denmark']</t>
+          <t>['Austria', 'Belgium', 'Hungary', 'Slovenia']</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
@@ -6486,7 +6486,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>['Denmark', 2, 0, 2]</t>
+          <t>['Slovenia', 2, 0, 2]</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -6506,7 +6506,7 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>['Austria', 'Belgium', 'Hungary', 'Denmark']</t>
+          <t>['Austria', 'Belgium', 'Hungary', 'Slovenia']</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
@@ -6563,7 +6563,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>['Denmark', 2, 0, 2]</t>
+          <t>['Slovenia', 2, 0, 2]</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -6583,7 +6583,7 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>['Austria', 'Belgium', 'Hungary', 'Denmark']</t>
+          <t>['Austria', 'Belgium', 'Hungary', 'Slovenia']</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
@@ -6640,7 +6640,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>['Denmark', 2, 0, 2]</t>
+          <t>['Slovenia', 2, 0, 2]</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -6665,7 +6665,7 @@
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>['Denmark', 'Czech Republic']</t>
+          <t>['Slovenia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
@@ -6717,7 +6717,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>['Denmark', 2, 0, 2]</t>
+          <t>['Slovenia', 2, 0, 2]</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -6737,7 +6737,7 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>['Austria', 'Belgium', 'Hungary', 'Denmark']</t>
+          <t>['Austria', 'Belgium', 'Hungary', 'Slovenia']</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
@@ -6794,7 +6794,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>['Denmark', 2, 0, 2]</t>
+          <t>['Slovenia', 2, 0, 2]</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -6814,7 +6814,7 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>['Austria', 'Belgium', 'Hungary', 'Denmark']</t>
+          <t>['Austria', 'Belgium', 'Hungary', 'Slovenia']</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
@@ -6871,7 +6871,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>['Denmark', 2, 0, 2]</t>
+          <t>['Slovenia', 2, 0, 2]</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -6891,7 +6891,7 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Belgium', 'Hungary', 'Denmark']</t>
+          <t>['Netherlands', 'Belgium', 'Hungary', 'Slovenia']</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
@@ -6948,7 +6948,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>['Denmark', 2, 0, 2]</t>
+          <t>['Slovenia', 2, 0, 2]</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -6968,7 +6968,7 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>['Austria', 'Belgium', 'Hungary', 'Denmark']</t>
+          <t>['Austria', 'Belgium', 'Hungary', 'Slovenia']</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
@@ -7025,7 +7025,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>['Denmark', 2, 0, 2]</t>
+          <t>['Slovenia', 2, 0, 2]</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -7045,7 +7045,7 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>['Austria', 'Belgium', 'Hungary', 'Denmark']</t>
+          <t>['Austria', 'Belgium', 'Hungary', 'Slovenia']</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
@@ -7102,7 +7102,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>['Denmark', 2, 0, 2]</t>
+          <t>['Slovenia', 2, 0, 2]</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -7122,7 +7122,7 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Belgium', 'Hungary', 'Denmark']</t>
+          <t>['Netherlands', 'Belgium', 'Hungary', 'Slovenia']</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
@@ -7179,7 +7179,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>['Denmark', 2, 0, 2]</t>
+          <t>['Slovenia', 2, 0, 2]</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -7199,7 +7199,7 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>['Austria', 'Belgium', 'Hungary', 'Denmark']</t>
+          <t>['Austria', 'Belgium', 'Hungary', 'Slovenia']</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
@@ -7256,7 +7256,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>['Denmark', 2, 0, 2]</t>
+          <t>['Slovenia', 2, 0, 2]</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -7276,7 +7276,7 @@
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>['Austria', 'Belgium', 'Hungary', 'Denmark']</t>
+          <t>['Austria', 'Belgium', 'Hungary', 'Slovenia']</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
@@ -7333,7 +7333,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>['Denmark', 2, 0, 2]</t>
+          <t>['Slovenia', 2, 0, 2]</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -7353,7 +7353,7 @@
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Belgium', 'Hungary', 'Denmark']</t>
+          <t>['Netherlands', 'Belgium', 'Hungary', 'Slovenia']</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
@@ -7379,12 +7379,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2024-06-26</t>
+          <t>2024-06-25</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D91" t="n">
@@ -7395,7 +7395,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -7410,7 +7410,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>['Denmark', 2, 0, 2]</t>
+          <t>['Slovenia', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -7420,27 +7420,27 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>['Belgium', 4, 1, 2]</t>
+          <t>['Slovakia', 4, 0, 3]</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>['Czech Republic', 1, -1, 2]</t>
+          <t>['Georgia', 4, 0, 4]</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>['Belgium', 'Netherlands', 'Hungary', 'Denmark']</t>
+          <t>['Netherlands', 'Georgia', 'Slovakia', 'Slovenia']</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>['Croatia', 'Czech Republic']</t>
+          <t>['Hungary', 'Croatia']</t>
         </is>
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Georgia', 'Netherlands']</t>
         </is>
       </c>
       <c r="P91" t="n">
@@ -7465,7 +7465,7 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E92" t="n">
         <v>1</v>
@@ -7487,7 +7487,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>['Denmark', 2, 0, 2]</t>
+          <t>['Slovenia', 2, 0, 2]</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -7497,7 +7497,7 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>['Ukraine', 4, -2, 2]</t>
+          <t>['Belgium', 4, 1, 2]</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
@@ -7507,7 +7507,7 @@
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ukraine', 'Hungary', 'Denmark']</t>
+          <t>['Belgium', 'Netherlands', 'Hungary', 'Slovenia']</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
@@ -7542,7 +7542,7 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E93" t="n">
         <v>1</v>
@@ -7564,7 +7564,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>['Denmark', 2, 0, 2]</t>
+          <t>['Slovenia', 2, 0, 2]</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -7574,7 +7574,7 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>['Slovakia', 4, 0, 3]</t>
+          <t>['Ukraine', 4, -2, 2]</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
@@ -7584,7 +7584,7 @@
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Slovakia', 'Hungary', 'Denmark']</t>
+          <t>['Netherlands', 'Ukraine', 'Hungary', 'Slovenia']</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
@@ -7615,18 +7615,18 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="E94" t="n">
         <v>1</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -7641,7 +7641,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>['Denmark', 2, 0, 2]</t>
+          <t>['Slovenia', 2, 0, 2]</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -7656,17 +7656,17 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
+          <t>['Czech Republic', 1, -1, 2]</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Slovakia', 'Hungary', 'Denmark']</t>
+          <t>['Netherlands', 'Slovakia', 'Hungary', 'Slovenia']</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia']</t>
+          <t>['Croatia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="O94" t="inlineStr">
@@ -7675,10 +7675,10 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q94" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E95" t="n">
         <v>1</v>
@@ -7718,7 +7718,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>['Denmark', 2, 0, 2]</t>
+          <t>['Slovenia', 2, 0, 2]</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -7733,17 +7733,17 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>['Georgia', 4, -1, 3]</t>
+          <t>['Czech Republic', 2, -1, 2]</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Slovakia', 'Georgia', 'Hungary']</t>
+          <t>['Netherlands', 'Slovakia', 'Hungary', 'Slovenia']</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>['Denmark', 'Croatia']</t>
+          <t>['Czech Republic', 'Croatia']</t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
@@ -7752,7 +7752,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q95" t="n">
         <v>12</v>
@@ -7773,10 +7773,10 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="E96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -7795,7 +7795,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>['Denmark', 2, 0, 2]</t>
+          <t>['Slovenia', 2, 0, 2]</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -7820,7 +7820,7 @@
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>['Denmark', 'Croatia']</t>
+          <t>['Slovenia', 'Croatia']</t>
         </is>
       </c>
       <c r="O96" t="inlineStr">
@@ -7829,10 +7829,10 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q96" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="97">
@@ -7850,7 +7850,7 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E97" t="n">
         <v>2</v>
@@ -7872,7 +7872,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>['Denmark', 2, 0, 2]</t>
+          <t>['Slovenia', 2, 0, 2]</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -7887,26 +7887,26 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>['Georgia', 4, 0, 4]</t>
+          <t>['Georgia', 4, -1, 3]</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Georgia', 'Slovakia', 'Hungary']</t>
+          <t>['Netherlands', 'Slovakia', 'Georgia', 'Hungary']</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>['Denmark', 'Croatia']</t>
+          <t>['Slovenia', 'Croatia']</t>
         </is>
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>['Georgia', 'Netherlands']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q97" t="n">
         <v>13</v>
@@ -7927,7 +7927,7 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="E98" t="n">
         <v>2</v>
@@ -7949,7 +7949,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>['Denmark', 2, 0, 2]</t>
+          <t>['Slovenia', 2, 0, 2]</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -7974,7 +7974,7 @@
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>['Denmark', 'Croatia']</t>
+          <t>['Slovenia', 'Croatia']</t>
         </is>
       </c>
       <c r="O98" t="inlineStr">
@@ -7983,10 +7983,10 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q98" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="99">
@@ -8004,7 +8004,7 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="E99" t="n">
         <v>2</v>
@@ -8026,7 +8026,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>['Denmark', 2, 0, 2]</t>
+          <t>['Slovenia', 2, 0, 2]</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -8051,7 +8051,7 @@
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>['Denmark', 'Croatia']</t>
+          <t>['Slovenia', 'Croatia']</t>
         </is>
       </c>
       <c r="O99" t="inlineStr">
@@ -8063,73 +8063,81 @@
         <v>0</v>
       </c>
       <c r="Q99" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>2024</v>
       </c>
-      <c r="B100" t="inlineStr"/>
-      <c r="C100" t="inlineStr"/>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>2024-06-26</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
       <c r="D100" t="n">
+        <v>94</v>
+      </c>
+      <c r="E100" t="n">
+        <v>2</v>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>['Hungary', 3, -3, 2]</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>['Croatia', 2, -3, 3]</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>['Slovenia', 2, 0, 2]</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>['Netherlands', 4, 0, 4]</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>['Slovakia', 4, 0, 3]</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>['Georgia', 4, 0, 4]</t>
+        </is>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>['Netherlands', 'Georgia', 'Slovakia', 'Hungary']</t>
+        </is>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>['Slovenia', 'Croatia']</t>
+        </is>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>['Georgia', 'Netherlands']</t>
+        </is>
+      </c>
+      <c r="P100" t="n">
         <v>0</v>
-      </c>
-      <c r="E100" t="n">
-        <v>1</v>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>Group C</t>
-        </is>
-      </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>['Hungary', 3, -3, 2]</t>
-        </is>
-      </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>['Croatia', 2, -3, 3]</t>
-        </is>
-      </c>
-      <c r="I100" t="inlineStr">
-        <is>
-          <t>['Denmark', 3, 0, 2]</t>
-        </is>
-      </c>
-      <c r="J100" t="inlineStr">
-        <is>
-          <t>['Netherlands', 4, 0, 4]</t>
-        </is>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>['Slovakia', 4, 0, 3]</t>
-        </is>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>['Georgia', 4, 0, 4]</t>
-        </is>
-      </c>
-      <c r="M100" t="inlineStr">
-        <is>
-          <t>['Netherlands', 'Georgia', 'Slovakia', 'Denmark']</t>
-        </is>
-      </c>
-      <c r="N100" t="inlineStr">
-        <is>
-          <t>['Hungary', 'Croatia']</t>
-        </is>
-      </c>
-      <c r="O100" t="inlineStr">
-        <is>
-          <t>['Georgia', 'Netherlands']</t>
-        </is>
-      </c>
-      <c r="P100" t="n">
-        <v>1</v>
       </c>
       <c r="Q100" t="n">
         <v>14</v>

--- a/data/out/wiki/men/uefa/eu/third_teams_df_eu_uefa.xlsx
+++ b/data/out/wiki/men/uefa/eu/third_teams_df_eu_uefa.xlsx
@@ -7420,27 +7420,27 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>['Slovakia', 4, 0, 3]</t>
+          <t>['Belgium', 3, 1, 2]</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>['Georgia', 4, 0, 4]</t>
+          <t>['Czech Republic', 1, -1, 2]</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Georgia', 'Slovakia', 'Slovenia']</t>
+          <t>['Netherlands', 'Belgium', 'Slovenia', 'Hungary']</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>['Hungary', 'Croatia']</t>
+          <t>['Croatia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>['Georgia', 'Netherlands']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P91" t="n">
@@ -7487,7 +7487,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>['Slovenia', 2, 0, 2]</t>
+          <t>['Slovenia', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -7507,7 +7507,7 @@
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>['Belgium', 'Netherlands', 'Hungary', 'Slovenia']</t>
+          <t>['Belgium', 'Netherlands', 'Slovenia', 'Hungary']</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
@@ -7564,7 +7564,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>['Slovenia', 2, 0, 2]</t>
+          <t>['Slovenia', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -7584,7 +7584,7 @@
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ukraine', 'Hungary', 'Slovenia']</t>
+          <t>['Netherlands', 'Ukraine', 'Slovenia', 'Hungary']</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
@@ -7641,7 +7641,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>['Slovenia', 2, 0, 2]</t>
+          <t>['Slovenia', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -7661,7 +7661,7 @@
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Slovakia', 'Hungary', 'Slovenia']</t>
+          <t>['Netherlands', 'Slovakia', 'Slovenia', 'Hungary']</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
@@ -7718,7 +7718,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>['Slovenia', 2, 0, 2]</t>
+          <t>['Slovenia', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -7738,7 +7738,7 @@
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Slovakia', 'Hungary', 'Slovenia']</t>
+          <t>['Netherlands', 'Slovakia', 'Slovenia', 'Hungary']</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
@@ -7795,7 +7795,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>['Slovenia', 2, 0, 2]</t>
+          <t>['Slovenia', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -7815,12 +7815,12 @@
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Slovakia', 'Georgia', 'Hungary']</t>
+          <t>['Netherlands', 'Slovakia', 'Georgia', 'Slovenia']</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>['Slovenia', 'Croatia']</t>
+          <t>['Hungary', 'Croatia']</t>
         </is>
       </c>
       <c r="O96" t="inlineStr">
@@ -7872,7 +7872,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>['Slovenia', 2, 0, 2]</t>
+          <t>['Slovenia', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -7892,12 +7892,12 @@
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Slovakia', 'Georgia', 'Hungary']</t>
+          <t>['Netherlands', 'Slovakia', 'Georgia', 'Slovenia']</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>['Slovenia', 'Croatia']</t>
+          <t>['Hungary', 'Croatia']</t>
         </is>
       </c>
       <c r="O97" t="inlineStr">
@@ -7949,7 +7949,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>['Slovenia', 2, 0, 2]</t>
+          <t>['Slovenia', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -7969,12 +7969,12 @@
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Georgia', 'Slovakia', 'Hungary']</t>
+          <t>['Netherlands', 'Georgia', 'Slovakia', 'Slovenia']</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>['Slovenia', 'Croatia']</t>
+          <t>['Hungary', 'Croatia']</t>
         </is>
       </c>
       <c r="O98" t="inlineStr">
@@ -8026,7 +8026,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>['Slovenia', 2, 0, 2]</t>
+          <t>['Slovenia', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -8046,12 +8046,12 @@
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Georgia', 'Slovakia', 'Hungary']</t>
+          <t>['Netherlands', 'Georgia', 'Slovakia', 'Slovenia']</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>['Slovenia', 'Croatia']</t>
+          <t>['Hungary', 'Croatia']</t>
         </is>
       </c>
       <c r="O99" t="inlineStr">
@@ -8103,7 +8103,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>['Slovenia', 2, 0, 2]</t>
+          <t>['Slovenia', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -8123,12 +8123,12 @@
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Georgia', 'Slovakia', 'Hungary']</t>
+          <t>['Netherlands', 'Georgia', 'Slovakia', 'Slovenia']</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>['Slovenia', 'Croatia']</t>
+          <t>['Hungary', 'Croatia']</t>
         </is>
       </c>
       <c r="O100" t="inlineStr">

--- a/data/out/wiki/men/uefa/eu/third_teams_df_eu_uefa.xlsx
+++ b/data/out/wiki/men/uefa/eu/third_teams_df_eu_uefa.xlsx
@@ -745,10 +745,10 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -902,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -979,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -1210,7 +1210,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -1287,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -1364,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -1441,7 +1441,7 @@
         <v>1</v>
       </c>
       <c r="Q13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -1518,7 +1518,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -1592,10 +1592,10 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -1672,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -1749,7 +1749,7 @@
         <v>1</v>
       </c>
       <c r="Q17" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -1903,7 +1903,7 @@
         <v>1</v>
       </c>
       <c r="Q19" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
@@ -1980,7 +1980,7 @@
         <v>1</v>
       </c>
       <c r="Q20" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -2057,7 +2057,7 @@
         <v>1</v>
       </c>
       <c r="Q21" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22">
@@ -2134,7 +2134,7 @@
         <v>1</v>
       </c>
       <c r="Q22" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23">
@@ -2211,7 +2211,7 @@
         <v>1</v>
       </c>
       <c r="Q23" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24">
@@ -2288,7 +2288,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -2365,7 +2365,7 @@
         <v>1</v>
       </c>
       <c r="Q25" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -2442,7 +2442,7 @@
         <v>1</v>
       </c>
       <c r="Q26" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27">
@@ -2519,7 +2519,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28">
@@ -2596,7 +2596,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29">
@@ -2673,7 +2673,7 @@
         <v>1</v>
       </c>
       <c r="Q29" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30">
@@ -3209,10 +3209,10 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -3289,7 +3289,7 @@
         <v>1</v>
       </c>
       <c r="Q37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38">
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
@@ -3443,7 +3443,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
@@ -3520,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41">
@@ -3594,10 +3594,10 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42">
@@ -3674,7 +3674,7 @@
         <v>1</v>
       </c>
       <c r="Q42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43">
@@ -3748,10 +3748,10 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44">
@@ -3825,10 +3825,10 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45">
@@ -3905,7 +3905,7 @@
         <v>1</v>
       </c>
       <c r="Q45" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46">
@@ -3982,7 +3982,7 @@
         <v>1</v>
       </c>
       <c r="Q46" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47">
@@ -4059,7 +4059,7 @@
         <v>0</v>
       </c>
       <c r="Q47" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48">
@@ -4136,7 +4136,7 @@
         <v>0</v>
       </c>
       <c r="Q48" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49">
@@ -4213,7 +4213,7 @@
         <v>0</v>
       </c>
       <c r="Q49" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50">
@@ -4290,7 +4290,7 @@
         <v>0</v>
       </c>
       <c r="Q50" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51">
@@ -4367,7 +4367,7 @@
         <v>1</v>
       </c>
       <c r="Q51" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52">
@@ -4444,7 +4444,7 @@
         <v>1</v>
       </c>
       <c r="Q52" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53">
@@ -4521,7 +4521,7 @@
         <v>1</v>
       </c>
       <c r="Q53" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54">
@@ -4598,7 +4598,7 @@
         <v>1</v>
       </c>
       <c r="Q54" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55">
@@ -4675,7 +4675,7 @@
         <v>1</v>
       </c>
       <c r="Q55" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56">
@@ -4752,7 +4752,7 @@
         <v>0</v>
       </c>
       <c r="Q56" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57">
@@ -4829,7 +4829,7 @@
         <v>1</v>
       </c>
       <c r="Q57" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58">
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="Q58" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="59">
@@ -4983,7 +4983,7 @@
         <v>0</v>
       </c>
       <c r="Q59" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60">
@@ -5060,7 +5060,7 @@
         <v>0</v>
       </c>
       <c r="Q60" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="61">
@@ -5137,7 +5137,7 @@
         <v>0</v>
       </c>
       <c r="Q61" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="62">
@@ -5214,7 +5214,7 @@
         <v>0</v>
       </c>
       <c r="Q62" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="63">
@@ -5291,7 +5291,7 @@
         <v>0</v>
       </c>
       <c r="Q63" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="64">
@@ -5368,7 +5368,7 @@
         <v>0</v>
       </c>
       <c r="Q64" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="65">
@@ -5445,7 +5445,7 @@
         <v>0</v>
       </c>
       <c r="Q65" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="66">
@@ -5519,10 +5519,10 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q66" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="67">
@@ -5599,7 +5599,7 @@
         <v>1</v>
       </c>
       <c r="Q67" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68">
@@ -5676,7 +5676,7 @@
         <v>0</v>
       </c>
       <c r="Q68" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69">
@@ -5753,7 +5753,7 @@
         <v>0</v>
       </c>
       <c r="Q69" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70">
@@ -5830,7 +5830,7 @@
         <v>1</v>
       </c>
       <c r="Q70" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="71">
@@ -5907,7 +5907,7 @@
         <v>1</v>
       </c>
       <c r="Q71" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="72">
@@ -5984,7 +5984,7 @@
         <v>1</v>
       </c>
       <c r="Q72" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="73">
@@ -6061,7 +6061,7 @@
         <v>1</v>
       </c>
       <c r="Q73" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74">
@@ -6138,7 +6138,7 @@
         <v>1</v>
       </c>
       <c r="Q74" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="75">
@@ -6188,7 +6188,7 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>['Belgium', 3, 1, 2]</t>
+          <t>['Slovakia', 3, 1, 2]</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
@@ -6198,7 +6198,7 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>['Austria', 'Belgium', 'Slovenia', 'Scotland']</t>
+          <t>['Austria', 'Slovakia', 'Slovenia', 'Scotland']</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
@@ -6265,7 +6265,7 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>['Belgium', 3, 1, 2]</t>
+          <t>['Slovakia', 3, 1, 2]</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
@@ -6275,7 +6275,7 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>['Austria', 'Belgium', 'Slovenia', 'Scotland']</t>
+          <t>['Austria', 'Slovakia', 'Slovenia', 'Scotland']</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
@@ -6342,7 +6342,7 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>['Belgium', 3, 1, 2]</t>
+          <t>['Slovakia', 3, 1, 2]</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
@@ -6352,7 +6352,7 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>['Austria', 'Belgium', 'Slovenia', 'Scotland']</t>
+          <t>['Austria', 'Slovakia', 'Slovenia', 'Scotland']</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
@@ -6419,7 +6419,7 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>['Belgium', 3, 1, 2]</t>
+          <t>['Slovakia', 3, 1, 2]</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
@@ -6429,7 +6429,7 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>['Austria', 'Belgium', 'Hungary', 'Slovenia']</t>
+          <t>['Austria', 'Slovakia', 'Hungary', 'Slovenia']</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
@@ -6496,7 +6496,7 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>['Belgium', 3, 1, 2]</t>
+          <t>['Slovakia', 3, 1, 2]</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
@@ -6506,7 +6506,7 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>['Austria', 'Belgium', 'Hungary', 'Slovenia']</t>
+          <t>['Austria', 'Slovakia', 'Hungary', 'Slovenia']</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
@@ -6573,7 +6573,7 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>['Belgium', 3, 1, 2]</t>
+          <t>['Slovakia', 3, 1, 2]</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
@@ -6583,7 +6583,7 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>['Austria', 'Belgium', 'Hungary', 'Slovenia']</t>
+          <t>['Austria', 'Slovakia', 'Hungary', 'Slovenia']</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
@@ -6650,7 +6650,7 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>['Belgium', 3, 1, 2]</t>
+          <t>['Slovakia', 3, 1, 2]</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
@@ -6660,7 +6660,7 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>['Austria', 'Belgium', 'Italy', 'Hungary']</t>
+          <t>['Austria', 'Slovakia', 'Italy', 'Hungary']</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
@@ -6727,7 +6727,7 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>['Belgium', 3, 1, 2]</t>
+          <t>['Slovakia', 3, 1, 2]</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
@@ -6737,7 +6737,7 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>['Austria', 'Belgium', 'Hungary', 'Slovenia']</t>
+          <t>['Austria', 'Slovakia', 'Hungary', 'Slovenia']</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
@@ -6804,7 +6804,7 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>['Belgium', 3, 1, 2]</t>
+          <t>['Slovakia', 3, 1, 2]</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
@@ -6814,7 +6814,7 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>['Austria', 'Belgium', 'Hungary', 'Slovenia']</t>
+          <t>['Austria', 'Slovakia', 'Hungary', 'Slovenia']</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
@@ -6881,7 +6881,7 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>['Belgium', 3, 1, 2]</t>
+          <t>['Slovakia', 3, 1, 2]</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
@@ -6891,7 +6891,7 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Belgium', 'Hungary', 'Slovenia']</t>
+          <t>['Netherlands', 'Slovakia', 'Hungary', 'Slovenia']</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
@@ -6958,7 +6958,7 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>['Belgium', 3, 1, 2]</t>
+          <t>['Slovakia', 3, 1, 2]</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
@@ -6968,7 +6968,7 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>['Austria', 'Belgium', 'Hungary', 'Slovenia']</t>
+          <t>['Austria', 'Slovakia', 'Hungary', 'Slovenia']</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
@@ -7035,7 +7035,7 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>['Belgium', 3, 1, 2]</t>
+          <t>['Slovakia', 3, 1, 2]</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
@@ -7045,7 +7045,7 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>['Austria', 'Belgium', 'Hungary', 'Slovenia']</t>
+          <t>['Austria', 'Slovakia', 'Hungary', 'Slovenia']</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
@@ -7112,7 +7112,7 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>['Belgium', 3, 1, 2]</t>
+          <t>['Slovakia', 3, 1, 2]</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
@@ -7122,7 +7122,7 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Belgium', 'Hungary', 'Slovenia']</t>
+          <t>['Netherlands', 'Slovakia', 'Hungary', 'Slovenia']</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
@@ -7189,7 +7189,7 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>['Belgium', 3, 1, 2]</t>
+          <t>['Slovakia', 3, 1, 2]</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
@@ -7199,7 +7199,7 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>['Austria', 'Belgium', 'Hungary', 'Slovenia']</t>
+          <t>['Austria', 'Slovakia', 'Hungary', 'Slovenia']</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
@@ -7266,7 +7266,7 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>['Belgium', 3, 1, 2]</t>
+          <t>['Slovakia', 3, 1, 2]</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
@@ -7276,7 +7276,7 @@
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>['Austria', 'Belgium', 'Hungary', 'Slovenia']</t>
+          <t>['Austria', 'Slovakia', 'Hungary', 'Slovenia']</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
@@ -7343,7 +7343,7 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>['Belgium', 3, 1, 2]</t>
+          <t>['Slovakia', 3, 1, 2]</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
@@ -7353,7 +7353,7 @@
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Belgium', 'Hungary', 'Slovenia']</t>
+          <t>['Netherlands', 'Slovakia', 'Hungary', 'Slovenia']</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
@@ -7420,7 +7420,7 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>['Belgium', 3, 1, 2]</t>
+          <t>['Slovakia', 3, 1, 2]</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
@@ -7430,7 +7430,7 @@
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Belgium', 'Slovenia', 'Hungary']</t>
+          <t>['Netherlands', 'Slovakia', 'Slovenia', 'Hungary']</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
@@ -7444,10 +7444,10 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q91" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="92">
@@ -7497,7 +7497,7 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>['Belgium', 4, 1, 2]</t>
+          <t>['Slovakia', 4, 1, 2]</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
@@ -7507,7 +7507,7 @@
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>['Belgium', 'Netherlands', 'Slovenia', 'Hungary']</t>
+          <t>['Slovakia', 'Netherlands', 'Slovenia', 'Hungary']</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
@@ -7521,10 +7521,10 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q92" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="93">
@@ -7574,7 +7574,7 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>['Ukraine', 4, -2, 2]</t>
+          <t>['Ukraine', 4, 0, 2]</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
@@ -7601,7 +7601,7 @@
         <v>1</v>
       </c>
       <c r="Q93" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="94">
@@ -7651,7 +7651,7 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>['Slovakia', 4, 0, 3]</t>
+          <t>['Slovakia', 4, 1, 3]</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
@@ -7661,7 +7661,7 @@
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Slovakia', 'Slovenia', 'Hungary']</t>
+          <t>['Slovakia', 'Netherlands', 'Slovenia', 'Hungary']</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
@@ -7678,7 +7678,7 @@
         <v>1</v>
       </c>
       <c r="Q94" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="95">
@@ -7728,7 +7728,7 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>['Slovakia', 4, 0, 3]</t>
+          <t>['Slovakia', 4, 1, 3]</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
@@ -7738,7 +7738,7 @@
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Slovakia', 'Slovenia', 'Hungary']</t>
+          <t>['Slovakia', 'Netherlands', 'Slovenia', 'Hungary']</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
@@ -7755,7 +7755,7 @@
         <v>0</v>
       </c>
       <c r="Q95" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="96">
@@ -7805,7 +7805,7 @@
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>['Slovakia', 4, 0, 3]</t>
+          <t>['Slovakia', 4, 1, 3]</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
@@ -7815,7 +7815,7 @@
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Slovakia', 'Georgia', 'Slovenia']</t>
+          <t>['Slovakia', 'Netherlands', 'Georgia', 'Slovenia']</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
@@ -7832,7 +7832,7 @@
         <v>1</v>
       </c>
       <c r="Q96" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="97">
@@ -7882,7 +7882,7 @@
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>['Slovakia', 4, 0, 3]</t>
+          <t>['Slovakia', 4, 1, 3]</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
@@ -7892,7 +7892,7 @@
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Slovakia', 'Georgia', 'Slovenia']</t>
+          <t>['Slovakia', 'Netherlands', 'Georgia', 'Slovenia']</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
@@ -7909,7 +7909,7 @@
         <v>0</v>
       </c>
       <c r="Q97" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="98">
@@ -7959,7 +7959,7 @@
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>['Slovakia', 4, 0, 3]</t>
+          <t>['Slovakia', 4, 1, 3]</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
@@ -7969,7 +7969,7 @@
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Georgia', 'Slovakia', 'Slovenia']</t>
+          <t>['Slovakia', 'Netherlands', 'Georgia', 'Slovenia']</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
@@ -7983,10 +7983,10 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q98" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="99">
@@ -8036,7 +8036,7 @@
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>['Slovakia', 4, 0, 3]</t>
+          <t>['Slovakia', 4, 1, 3]</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
@@ -8046,7 +8046,7 @@
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Georgia', 'Slovakia', 'Slovenia']</t>
+          <t>['Slovakia', 'Netherlands', 'Georgia', 'Slovenia']</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
@@ -8063,7 +8063,7 @@
         <v>0</v>
       </c>
       <c r="Q99" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="100">
@@ -8113,7 +8113,7 @@
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>['Slovakia', 4, 0, 3]</t>
+          <t>['Slovakia', 4, 1, 3]</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
@@ -8123,7 +8123,7 @@
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Georgia', 'Slovakia', 'Slovenia']</t>
+          <t>['Slovakia', 'Netherlands', 'Georgia', 'Slovenia']</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
@@ -8140,7 +8140,7 @@
         <v>0</v>
       </c>
       <c r="Q100" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/data/out/wiki/men/uefa/eu/third_teams_df_eu_uefa.xlsx
+++ b/data/out/wiki/men/uefa/eu/third_teams_df_eu_uefa.xlsx
@@ -1973,7 +1973,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Portugal']</t>
+          <t>['Portugal', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="P20" t="n">
@@ -3940,7 +3940,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>['Finland', 3, -1, 1]</t>
+          <t>['Russia', 3, -4, 2]</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3965,7 +3965,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Portugal', 'Ukraine', 'Finland']</t>
+          <t>['Switzerland', 'Portugal', 'Ukraine', 'Russia']</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -3979,10 +3979,10 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47">
@@ -4017,7 +4017,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>['Finland', 3, -2, 1]</t>
+          <t>['Russia', 3, -4, 2]</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -4042,7 +4042,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Portugal', 'Ukraine', 'Finland']</t>
+          <t>['Switzerland', 'Portugal', 'Ukraine', 'Russia']</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -4059,7 +4059,7 @@
         <v>0</v>
       </c>
       <c r="Q47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48">
@@ -4094,7 +4094,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>['Finland', 3, -2, 1]</t>
+          <t>['Russia', 3, -5, 2]</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -4119,7 +4119,7 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Portugal', 'Ukraine', 'Finland']</t>
+          <t>['Switzerland', 'Portugal', 'Ukraine', 'Russia']</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -4136,7 +4136,7 @@
         <v>0</v>
       </c>
       <c r="Q48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49">
@@ -4171,7 +4171,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>['Finland', 3, -2, 1]</t>
+          <t>['Russia', 3, -5, 2]</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -4196,7 +4196,7 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Portugal', 'Ukraine', 'Finland']</t>
+          <t>['Switzerland', 'Portugal', 'Ukraine', 'Russia']</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -4213,7 +4213,7 @@
         <v>0</v>
       </c>
       <c r="Q49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50">
@@ -4248,7 +4248,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>['Finland', 3, -2, 1]</t>
+          <t>['Russia', 3, -5, 2]</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -4273,7 +4273,7 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Portugal', 'Ukraine', 'Finland']</t>
+          <t>['Switzerland', 'Portugal', 'Ukraine', 'Russia']</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -4290,7 +4290,7 @@
         <v>0</v>
       </c>
       <c r="Q50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51">
@@ -4325,7 +4325,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>['Finland', 3, -2, 1]</t>
+          <t>['Russia', 3, -5, 2]</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -4355,7 +4355,7 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>['Finland', 'Spain']</t>
+          <t>['Russia', 'Spain']</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -4367,7 +4367,7 @@
         <v>1</v>
       </c>
       <c r="Q51" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52">
@@ -4402,7 +4402,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>['Finland', 3, -2, 1]</t>
+          <t>['Russia', 3, -5, 2]</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -4427,7 +4427,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Portugal', 'Ukraine', 'Finland']</t>
+          <t>['Switzerland', 'Portugal', 'Ukraine', 'Russia']</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
@@ -4444,7 +4444,7 @@
         <v>1</v>
       </c>
       <c r="Q52" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53">
@@ -4479,7 +4479,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>['Finland', 3, -2, 1]</t>
+          <t>['Russia', 3, -5, 2]</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -4509,7 +4509,7 @@
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>['Finland', 'Spain']</t>
+          <t>['Russia', 'Spain']</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -4521,7 +4521,7 @@
         <v>1</v>
       </c>
       <c r="Q53" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54">
@@ -4556,7 +4556,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>['Finland', 3, -2, 1]</t>
+          <t>['Russia', 3, -5, 2]</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -4586,7 +4586,7 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>['Finland', 'Spain']</t>
+          <t>['Russia', 'Spain']</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -4598,7 +4598,7 @@
         <v>1</v>
       </c>
       <c r="Q54" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>['Finland', 3, -2, 1]</t>
+          <t>['Russia', 3, -5, 2]</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -4663,7 +4663,7 @@
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Finland']</t>
+          <t>['Ukraine', 'Russia']</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
@@ -4675,7 +4675,7 @@
         <v>1</v>
       </c>
       <c r="Q55" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56">
@@ -4710,7 +4710,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>['Finland', 3, -2, 1]</t>
+          <t>['Russia', 3, -5, 2]</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -4740,7 +4740,7 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Finland']</t>
+          <t>['Ukraine', 'Russia']</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -4752,7 +4752,7 @@
         <v>0</v>
       </c>
       <c r="Q56" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57">
@@ -4787,7 +4787,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>['Finland', 3, -2, 1]</t>
+          <t>['Russia', 3, -5, 2]</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -4817,7 +4817,7 @@
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Finland']</t>
+          <t>['Slovakia', 'Russia']</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
@@ -4829,7 +4829,7 @@
         <v>1</v>
       </c>
       <c r="Q57" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58">
@@ -4864,7 +4864,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>['Finland', 3, -2, 1]</t>
+          <t>['Russia', 3, -5, 2]</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -4894,7 +4894,7 @@
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Finland']</t>
+          <t>['Slovakia', 'Russia']</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="Q58" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59">
@@ -4941,7 +4941,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>['Finland', 3, -2, 1]</t>
+          <t>['Russia', 3, -5, 2]</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -4971,7 +4971,7 @@
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>['Finland', 'Slovakia']</t>
+          <t>['Slovakia', 'Russia']</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -4983,7 +4983,7 @@
         <v>0</v>
       </c>
       <c r="Q59" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60">
@@ -5018,7 +5018,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>['Finland', 3, -2, 1]</t>
+          <t>['Russia', 3, -5, 2]</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -5048,7 +5048,7 @@
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>['Finland', 'Slovakia']</t>
+          <t>['Slovakia', 'Russia']</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -5060,7 +5060,7 @@
         <v>0</v>
       </c>
       <c r="Q60" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61">
@@ -5095,7 +5095,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>['Finland', 3, -2, 1]</t>
+          <t>['Russia', 3, -5, 2]</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -5125,7 +5125,7 @@
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>['Finland', 'Slovakia']</t>
+          <t>['Slovakia', 'Russia']</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -5137,7 +5137,7 @@
         <v>0</v>
       </c>
       <c r="Q61" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62">
@@ -5172,7 +5172,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>['Finland', 3, -2, 1]</t>
+          <t>['Russia', 3, -5, 2]</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -5202,7 +5202,7 @@
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>['Finland', 'Slovakia']</t>
+          <t>['Slovakia', 'Russia']</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
@@ -5214,7 +5214,7 @@
         <v>0</v>
       </c>
       <c r="Q62" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63">
@@ -5249,7 +5249,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>['Finland', 3, -2, 1]</t>
+          <t>['Russia', 3, -5, 2]</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -5279,19 +5279,19 @@
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>['Finland', 'Slovakia']</t>
+          <t>['Russia', 'Slovakia']</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Russia', 'Slovakia']</t>
         </is>
       </c>
       <c r="P63" t="n">
         <v>0</v>
       </c>
       <c r="Q63" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64">
@@ -5326,7 +5326,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>['Finland', 3, -2, 1]</t>
+          <t>['Russia', 3, -5, 2]</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -5356,19 +5356,19 @@
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>['Finland', 'Slovakia']</t>
+          <t>['Russia', 'Slovakia']</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Russia', 'Slovakia']</t>
         </is>
       </c>
       <c r="P64" t="n">
         <v>0</v>
       </c>
       <c r="Q64" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65">
@@ -5403,7 +5403,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>['Finland', 3, -2, 1]</t>
+          <t>['Russia', 3, -5, 2]</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -5433,19 +5433,19 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>['Finland', 'Slovakia']</t>
+          <t>['Russia', 'Slovakia']</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Russia', 'Slovakia']</t>
         </is>
       </c>
       <c r="P65" t="n">
         <v>0</v>
       </c>
       <c r="Q65" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66">
@@ -5480,7 +5480,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>['Finland', 3, -2, 1]</t>
+          <t>['Russia', 3, -5, 2]</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -5510,19 +5510,19 @@
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>['Finland', 'Slovakia']</t>
+          <t>['Russia', 'Slovakia']</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Russia', 'Slovakia']</t>
         </is>
       </c>
       <c r="P66" t="n">
         <v>0</v>
       </c>
       <c r="Q66" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67">
@@ -5557,7 +5557,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>['Finland', 3, -2, 1]</t>
+          <t>['Russia', 3, -5, 2]</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -5587,19 +5587,19 @@
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>['Finland', 'Slovakia']</t>
+          <t>['Russia', 'Slovakia']</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Russia', 'Slovakia']</t>
         </is>
       </c>
       <c r="P67" t="n">
         <v>1</v>
       </c>
       <c r="Q67" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="68">
@@ -5634,7 +5634,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>['Finland', 3, -2, 1]</t>
+          <t>['Russia', 3, -5, 2]</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -5664,19 +5664,19 @@
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>['Finland', 'Slovakia']</t>
+          <t>['Russia', 'Slovakia']</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Russia', 'Slovakia']</t>
         </is>
       </c>
       <c r="P68" t="n">
         <v>0</v>
       </c>
       <c r="Q68" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="69">
@@ -5711,7 +5711,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>['Finland', 3, -2, 1]</t>
+          <t>['Russia', 3, -5, 2]</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -5741,19 +5741,19 @@
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>['Finland', 'Slovakia']</t>
+          <t>['Russia', 'Slovakia']</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Russia', 'Slovakia']</t>
         </is>
       </c>
       <c r="P69" t="n">
         <v>0</v>
       </c>
       <c r="Q69" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="70">
@@ -5788,7 +5788,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>['Finland', 3, -2, 1]</t>
+          <t>['Russia', 3, -5, 2]</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -5818,19 +5818,19 @@
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>['Finland', 'Slovakia']</t>
+          <t>['Russia', 'Slovakia']</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Russia', 'Slovakia']</t>
         </is>
       </c>
       <c r="P70" t="n">
         <v>1</v>
       </c>
       <c r="Q70" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71">
@@ -5865,7 +5865,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>['Finland', 3, -2, 1]</t>
+          <t>['Russia', 3, -5, 2]</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -5895,19 +5895,19 @@
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>['Finland', 'Slovakia']</t>
+          <t>['Russia', 'Slovakia']</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Russia', 'Slovakia']</t>
         </is>
       </c>
       <c r="P71" t="n">
         <v>1</v>
       </c>
       <c r="Q71" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="72">
@@ -5942,7 +5942,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>['Finland', 3, -2, 1]</t>
+          <t>['Russia', 3, -5, 2]</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -5972,19 +5972,19 @@
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>['Finland', 'Slovakia']</t>
+          <t>['Russia', 'Slovakia']</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Russia', 'Slovakia']</t>
         </is>
       </c>
       <c r="P72" t="n">
         <v>1</v>
       </c>
       <c r="Q72" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="73">
@@ -6019,7 +6019,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>['Finland', 3, -2, 1]</t>
+          <t>['Russia', 3, -5, 2]</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -6049,19 +6049,19 @@
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>['Finland', 'Slovakia']</t>
+          <t>['Russia', 'Slovakia']</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Russia', 'Slovakia']</t>
         </is>
       </c>
       <c r="P73" t="n">
         <v>1</v>
       </c>
       <c r="Q73" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="74">
@@ -6096,7 +6096,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>['Finland', 3, -2, 1]</t>
+          <t>['Russia', 3, -5, 2]</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -6126,19 +6126,19 @@
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>['Finland', 'Slovakia']</t>
+          <t>['Russia', 'Slovakia']</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Russia', 'Slovakia']</t>
         </is>
       </c>
       <c r="P74" t="n">
         <v>1</v>
       </c>
       <c r="Q74" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75">
@@ -7979,7 +7979,7 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>['Georgia', 'Netherlands']</t>
+          <t>['Netherlands', 'Georgia']</t>
         </is>
       </c>
       <c r="P98" t="n">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>['Georgia', 'Netherlands']</t>
+          <t>['Netherlands', 'Georgia']</t>
         </is>
       </c>
       <c r="P99" t="n">
@@ -8133,7 +8133,7 @@
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>['Georgia', 'Netherlands']</t>
+          <t>['Netherlands', 'Georgia']</t>
         </is>
       </c>
       <c r="P100" t="n">

--- a/data/out/wiki/men/uefa/eu/third_teams_df_eu_uefa.xlsx
+++ b/data/out/wiki/men/uefa/eu/third_teams_df_eu_uefa.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1973,7 +1973,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Portugal']</t>
+          <t>['Portugal', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="P20" t="n">
@@ -7979,7 +7979,7 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>['Georgia', 'Netherlands']</t>
+          <t>['Netherlands', 'Georgia']</t>
         </is>
       </c>
       <c r="P98" t="n">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>['Georgia', 'Netherlands']</t>
+          <t>['Netherlands', 'Georgia']</t>
         </is>
       </c>
       <c r="P99" t="n">
@@ -8133,7 +8133,7 @@
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>['Georgia', 'Netherlands']</t>
+          <t>['Netherlands', 'Georgia']</t>
         </is>
       </c>
       <c r="P100" t="n">

--- a/data/out/wiki/men/uefa/eu/third_teams_df_eu_uefa.xlsx
+++ b/data/out/wiki/men/uefa/eu/third_teams_df_eu_uefa.xlsx
@@ -1973,7 +1973,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>['Portugal', 'Northern Ireland']</t>
+          <t>['Northern Ireland', 'Portugal']</t>
         </is>
       </c>
       <c r="P20" t="n">
@@ -7979,7 +7979,7 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Georgia']</t>
+          <t>['Georgia', 'Netherlands']</t>
         </is>
       </c>
       <c r="P98" t="n">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Georgia']</t>
+          <t>['Georgia', 'Netherlands']</t>
         </is>
       </c>
       <c r="P99" t="n">
@@ -8133,7 +8133,7 @@
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Georgia']</t>
+          <t>['Georgia', 'Netherlands']</t>
         </is>
       </c>
       <c r="P100" t="n">

--- a/data/out/wiki/men/uefa/eu/third_teams_df_eu_uefa.xlsx
+++ b/data/out/wiki/men/uefa/eu/third_teams_df_eu_uefa.xlsx
@@ -7979,7 +7979,7 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>['Georgia', 'Netherlands']</t>
+          <t>['Netherlands', 'Georgia']</t>
         </is>
       </c>
       <c r="P98" t="n">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>['Georgia', 'Netherlands']</t>
+          <t>['Netherlands', 'Georgia']</t>
         </is>
       </c>
       <c r="P99" t="n">
@@ -8133,7 +8133,7 @@
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>['Georgia', 'Netherlands']</t>
+          <t>['Netherlands', 'Georgia']</t>
         </is>
       </c>
       <c r="P100" t="n">

--- a/data/out/wiki/men/uefa/eu/third_teams_df_eu_uefa.xlsx
+++ b/data/out/wiki/men/uefa/eu/third_teams_df_eu_uefa.xlsx
@@ -7979,7 +7979,7 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Georgia']</t>
+          <t>['Georgia', 'Netherlands']</t>
         </is>
       </c>
       <c r="P98" t="n">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Georgia']</t>
+          <t>['Georgia', 'Netherlands']</t>
         </is>
       </c>
       <c r="P99" t="n">
@@ -8133,7 +8133,7 @@
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Georgia']</t>
+          <t>['Georgia', 'Netherlands']</t>
         </is>
       </c>
       <c r="P100" t="n">

--- a/data/out/wiki/men/uefa/eu/third_teams_df_eu_uefa.xlsx
+++ b/data/out/wiki/men/uefa/eu/third_teams_df_eu_uefa.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1973,7 +1973,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Portugal']</t>
+          <t>['Portugal', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="P20" t="n">
@@ -7979,7 +7979,7 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>['Georgia', 'Netherlands']</t>
+          <t>['Netherlands', 'Georgia']</t>
         </is>
       </c>
       <c r="P98" t="n">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>['Georgia', 'Netherlands']</t>
+          <t>['Netherlands', 'Georgia']</t>
         </is>
       </c>
       <c r="P99" t="n">
@@ -8133,7 +8133,7 @@
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>['Georgia', 'Netherlands']</t>
+          <t>['Netherlands', 'Georgia']</t>
         </is>
       </c>
       <c r="P100" t="n">

--- a/data/out/wiki/men/uefa/eu/third_teams_df_eu_uefa.xlsx
+++ b/data/out/wiki/men/uefa/eu/third_teams_df_eu_uefa.xlsx
@@ -1973,7 +1973,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>['Portugal', 'Northern Ireland']</t>
+          <t>['Northern Ireland', 'Portugal']</t>
         </is>
       </c>
       <c r="P20" t="n">

--- a/data/out/wiki/men/uefa/eu/third_teams_df_eu_uefa.xlsx
+++ b/data/out/wiki/men/uefa/eu/third_teams_df_eu_uefa.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7979,7 +7979,7 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>['Georgia', 'Netherlands']</t>
+          <t>['Netherlands', 'Georgia']</t>
         </is>
       </c>
       <c r="P98" t="n">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>['Georgia', 'Netherlands']</t>
+          <t>['Netherlands', 'Georgia']</t>
         </is>
       </c>
       <c r="P99" t="n">
@@ -8133,7 +8133,7 @@
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>['Georgia', 'Netherlands']</t>
+          <t>['Netherlands', 'Georgia']</t>
         </is>
       </c>
       <c r="P100" t="n">

--- a/data/out/wiki/men/uefa/eu/third_teams_df_eu_uefa.xlsx
+++ b/data/out/wiki/men/uefa/eu/third_teams_df_eu_uefa.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1973,7 +1973,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Portugal']</t>
+          <t>['Portugal', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="P20" t="n">
@@ -7979,7 +7979,7 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Georgia']</t>
+          <t>['Georgia', 'Netherlands']</t>
         </is>
       </c>
       <c r="P98" t="n">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Georgia']</t>
+          <t>['Georgia', 'Netherlands']</t>
         </is>
       </c>
       <c r="P99" t="n">
@@ -8133,7 +8133,7 @@
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Georgia']</t>
+          <t>['Georgia', 'Netherlands']</t>
         </is>
       </c>
       <c r="P100" t="n">

--- a/data/out/wiki/men/uefa/eu/third_teams_df_eu_uefa.xlsx
+++ b/data/out/wiki/men/uefa/eu/third_teams_df_eu_uefa.xlsx
@@ -511,7 +511,7 @@
     <t>['Portugal', 'Northern Ireland']</t>
   </si>
   <si>
-    <t>['Netherlands', 'Georgia']</t>
+    <t>['Georgia', 'Netherlands']</t>
   </si>
 </sst>
 </file>

--- a/data/out/wiki/men/uefa/eu/third_teams_df_eu_uefa.xlsx
+++ b/data/out/wiki/men/uefa/eu/third_teams_df_eu_uefa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1205" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1205" uniqueCount="150">
   <si>
     <t>year</t>
   </si>
@@ -145,15 +145,9 @@
     <t>['Hungary', 3, -3, 2]</t>
   </si>
   <si>
-    <t>['Slovakia', 3, 0, 3]</t>
-  </si>
-  <si>
     <t>['Slovakia', 4, 0, 3]</t>
   </si>
   <si>
-    <t>['Finland', 3, 0, 1]</t>
-  </si>
-  <si>
     <t>['Finland', 4, 0, 1]</t>
   </si>
   <si>
@@ -175,9 +169,6 @@
     <t>['Finland', 3, -2, 1]</t>
   </si>
   <si>
-    <t>['Albania', 1, -1, 3]</t>
-  </si>
-  <si>
     <t>['Albania', 2, -1, 3]</t>
   </si>
   <si>
@@ -190,33 +181,21 @@
     <t>['Croatia', 2, -3, 3]</t>
   </si>
   <si>
-    <t>['Northern Ireland', 3, 1, 2]</t>
-  </si>
-  <si>
     <t>['Northern Ireland', 4, 1, 2]</t>
   </si>
   <si>
     <t>['Northern Ireland', 3, 0, 2]</t>
   </si>
   <si>
-    <t>['Austria', 3, 0, 3]</t>
-  </si>
-  <si>
     <t>['Austria', 4, 0, 3]</t>
   </si>
   <si>
     <t>['Ukraine', 3, -1, 4]</t>
   </si>
   <si>
-    <t>['Slovenia', 2, 0, 2]</t>
-  </si>
-  <si>
     <t>['Slovenia', 3, 0, 2]</t>
   </si>
   <si>
-    <t>['Czech Republic', 1, -1, 2]</t>
-  </si>
-  <si>
     <t>['Czech Republic', 2, -1, 2]</t>
   </si>
   <si>
@@ -226,9 +205,6 @@
     <t>['Turkey', 3, -2, 2]</t>
   </si>
   <si>
-    <t>['Croatia', 1, -1, 1]</t>
-  </si>
-  <si>
     <t>['Croatia', 2, -1, 1]</t>
   </si>
   <si>
@@ -244,9 +220,6 @@
     <t>['Czech Republic', 4, 1, 3]</t>
   </si>
   <si>
-    <t>['Austria', 3, 1, 3]</t>
-  </si>
-  <si>
     <t>['Austria', 4, 1, 3]</t>
   </si>
   <si>
@@ -265,9 +238,6 @@
     <t>['Netherlands', 4, 0, 4]</t>
   </si>
   <si>
-    <t>['Sweden', 1, -1, 1]</t>
-  </si>
-  <si>
     <t>['Sweden', 2, -1, 1]</t>
   </si>
   <si>
@@ -277,9 +247,6 @@
     <t>['Ireland', 4, -2, 2]</t>
   </si>
   <si>
-    <t>['Spain', 2, 0, 1]</t>
-  </si>
-  <si>
     <t>['Spain', 3, 0, 1]</t>
   </si>
   <si>
@@ -298,9 +265,6 @@
     <t>['Slovakia', 3, -5, 2]</t>
   </si>
   <si>
-    <t>['Slovakia', 3, 1, 2]</t>
-  </si>
-  <si>
     <t>['Slovakia', 4, 1, 2]</t>
   </si>
   <si>
@@ -310,9 +274,6 @@
     <t>['Slovakia', 4, 1, 3]</t>
   </si>
   <si>
-    <t>['Portugal', 2, 0, 1]</t>
-  </si>
-  <si>
     <t>['Portugal', 3, 0, 1]</t>
   </si>
   <si>
@@ -337,9 +298,6 @@
     <t>['Portugal', 3, 0, 4]</t>
   </si>
   <si>
-    <t>['Portugal', 3, 1, 5]</t>
-  </si>
-  <si>
     <t>['Portugal', 4, 1, 5]</t>
   </si>
   <si>
@@ -364,21 +322,18 @@
     <t>['Northern Ireland', 'Slovakia', 'Portugal', 'Romania']</t>
   </si>
   <si>
-    <t>['Northern Ireland', 'Slovakia', 'Albania', 'Portugal']</t>
-  </si>
-  <si>
-    <t>['Slovakia', 'Northern Ireland', 'Albania', 'Portugal']</t>
-  </si>
-  <si>
-    <t>['Slovakia', 'Northern Ireland', 'Albania', 'Turkey']</t>
+    <t>['Northern Ireland', 'Slovakia', 'Portugal', 'Albania']</t>
+  </si>
+  <si>
+    <t>['Slovakia', 'Northern Ireland', 'Portugal', 'Albania']</t>
+  </si>
+  <si>
+    <t>['Slovakia', 'Northern Ireland', 'Portugal', 'Turkey']</t>
   </si>
   <si>
     <t>['Slovakia', 'Northern Ireland', 'Turkey', 'Albania']</t>
   </si>
   <si>
-    <t>['Slovakia', 'Northern Ireland', 'Portugal', 'Turkey']</t>
-  </si>
-  <si>
     <t>['Slovakia', 'Portugal', 'Northern Ireland', 'Turkey']</t>
   </si>
   <si>
@@ -391,37 +346,22 @@
     <t>['Portugal', 'Austria', 'Finland', 'Spain']</t>
   </si>
   <si>
-    <t>['Switzerland', 'Portugal', 'Austria', 'Finland']</t>
-  </si>
-  <si>
-    <t>['Austria', 'Switzerland', 'Portugal', 'Finland']</t>
-  </si>
-  <si>
-    <t>['Switzerland', 'Portugal', 'Finland', 'Ukraine']</t>
-  </si>
-  <si>
-    <t>['Finland', 'Switzerland', 'Portugal', 'Ukraine']</t>
-  </si>
-  <si>
-    <t>['Switzerland', 'Portugal', 'Ukraine', 'Denmark']</t>
-  </si>
-  <si>
-    <t>['Switzerland', 'Portugal', 'Denmark', 'Ukraine']</t>
-  </si>
-  <si>
-    <t>['Switzerland', 'Portugal', 'Ukraine', 'Russia']</t>
-  </si>
-  <si>
-    <t>['Switzerland', 'Portugal', 'Ukraine', 'Finland']</t>
-  </si>
-  <si>
-    <t>['Croatia', 'Switzerland', 'Portugal', 'Ukraine']</t>
-  </si>
-  <si>
-    <t>['Czech Republic', 'Switzerland', 'Portugal', 'Ukraine']</t>
-  </si>
-  <si>
-    <t>['Czech Republic', 'Switzerland', 'Portugal', 'Spain']</t>
+    <t>['Portugal', 'Austria', 'Finland', 'Switzerland']</t>
+  </si>
+  <si>
+    <t>['Portugal', 'Finland', 'Switzerland', 'Spain']</t>
+  </si>
+  <si>
+    <t>['Portugal', 'Switzerland', 'Spain', 'Ukraine']</t>
+  </si>
+  <si>
+    <t>['Portugal', 'Switzerland', 'Denmark', 'Spain']</t>
+  </si>
+  <si>
+    <t>['Portugal', 'Croatia', 'Switzerland', 'Spain']</t>
+  </si>
+  <si>
+    <t>['Portugal', 'Czech Republic', 'Switzerland', 'Spain']</t>
   </si>
   <si>
     <t>['Portugal', 'Czech Republic', 'Switzerland', 'Ukraine']</t>
@@ -433,19 +373,13 @@
     <t>['Czech Republic', 'Switzerland', 'Germany', 'Ukraine']</t>
   </si>
   <si>
-    <t>['Austria', 'Slovakia', 'Slovenia', 'Scotland']</t>
-  </si>
-  <si>
-    <t>['Austria', 'Slovakia', 'Hungary', 'Slovenia']</t>
-  </si>
-  <si>
-    <t>['Austria', 'Slovakia', 'Italy', 'Hungary']</t>
-  </si>
-  <si>
-    <t>['Netherlands', 'Slovakia', 'Hungary', 'Slovenia']</t>
-  </si>
-  <si>
-    <t>['Netherlands', 'Slovakia', 'Slovenia', 'Hungary']</t>
+    <t>['Austria', 'Slovakia', 'Slovenia', 'Albania']</t>
+  </si>
+  <si>
+    <t>['Austria', 'Slovakia', 'Slovenia', 'Hungary']</t>
+  </si>
+  <si>
+    <t>['Austria', 'Slovakia', 'Slovenia', 'Italy']</t>
   </si>
   <si>
     <t>['Slovakia', 'Netherlands', 'Slovenia', 'Hungary']</t>
@@ -460,25 +394,40 @@
     <t>['Czech Republic', 'Sweden']</t>
   </si>
   <si>
+    <t>['Turkey', 'Sweden']</t>
+  </si>
+  <si>
+    <t>['Albania', 'Sweden']</t>
+  </si>
+  <si>
+    <t>['Sweden', 'Portugal']</t>
+  </si>
+  <si>
     <t>['Portugal', 'Sweden']</t>
   </si>
   <si>
-    <t>['Albania', 'Sweden']</t>
-  </si>
-  <si>
     <t>['Albania', 'Ireland']</t>
   </si>
   <si>
     <t>['Turkey', 'Albania']</t>
   </si>
   <si>
-    <t>['Switzerland', 'Croatia']</t>
+    <t>['Croatia', 'Switzerland']</t>
   </si>
   <si>
     <t>['Spain', 'Croatia']</t>
   </si>
   <si>
-    <t>['Finland', 'Spain']</t>
+    <t>['Ukraine', 'Croatia']</t>
+  </si>
+  <si>
+    <t>['Denmark', 'Croatia']</t>
+  </si>
+  <si>
+    <t>['Russia', 'Croatia']</t>
+  </si>
+  <si>
+    <t>['Finland', 'Croatia']</t>
   </si>
   <si>
     <t>['Ukraine', 'Finland']</t>
@@ -490,25 +439,28 @@
     <t>['Finland', 'Slovakia']</t>
   </si>
   <si>
+    <t>['Czech Republic', 'Scotland']</t>
+  </si>
+  <si>
     <t>['Albania', 'Czech Republic']</t>
   </si>
   <si>
-    <t>['Croatia', 'Czech Republic']</t>
-  </si>
-  <si>
-    <t>['Slovenia', 'Czech Republic']</t>
-  </si>
-  <si>
     <t>['Czech Republic', 'Croatia']</t>
   </si>
   <si>
+    <t>['Hungary', 'Czech Republic']</t>
+  </si>
+  <si>
     <t>['Hungary', 'Croatia']</t>
   </si>
   <si>
+    <t>['Czech Republic', 'Romania']</t>
+  </si>
+  <si>
     <t>[]</t>
   </si>
   <si>
-    <t>['Portugal', 'Northern Ireland']</t>
+    <t>['Northern Ireland', 'Portugal']</t>
   </si>
   <si>
     <t>['Georgia', 'Netherlands']</t>
@@ -954,25 +906,25 @@
         <v>43</v>
       </c>
       <c r="I2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="K2" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="L2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="M2" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="N2" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="O2" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -1007,25 +959,25 @@
         <v>43</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="K3" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="L3" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="M3" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="N3" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="O3" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="P3">
         <v>1</v>
@@ -1057,28 +1009,28 @@
         <v>35</v>
       </c>
       <c r="H4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="K4" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="L4" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="M4" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="N4" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="O4" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -1110,28 +1062,28 @@
         <v>35</v>
       </c>
       <c r="H5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="K5" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="L5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="M5" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="N5" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="O5" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -1163,28 +1115,28 @@
         <v>35</v>
       </c>
       <c r="H6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J6" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="K6" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="L6" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="M6" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="N6" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="O6" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -1216,28 +1168,28 @@
         <v>35</v>
       </c>
       <c r="H7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J7" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="K7" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="L7" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="M7" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="N7" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="O7" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -1269,28 +1221,28 @@
         <v>35</v>
       </c>
       <c r="H8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="J8" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="K8" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="L8" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="M8" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="N8" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="O8" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -1322,28 +1274,28 @@
         <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I9" t="s">
+        <v>56</v>
+      </c>
+      <c r="J9" t="s">
         <v>60</v>
       </c>
-      <c r="J9" t="s">
-        <v>66</v>
-      </c>
       <c r="K9" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="L9" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="M9" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="N9" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="O9" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -1375,28 +1327,28 @@
         <v>35</v>
       </c>
       <c r="H10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J10" t="s">
         <v>60</v>
       </c>
-      <c r="J10" t="s">
-        <v>66</v>
-      </c>
       <c r="K10" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="L10" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="M10" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="N10" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="O10" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -1428,28 +1380,28 @@
         <v>35</v>
       </c>
       <c r="H11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I11" t="s">
+        <v>56</v>
+      </c>
+      <c r="J11" t="s">
         <v>60</v>
       </c>
-      <c r="J11" t="s">
-        <v>67</v>
-      </c>
       <c r="K11" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="L11" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="M11" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="N11" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="O11" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -1481,28 +1433,28 @@
         <v>35</v>
       </c>
       <c r="H12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I12" t="s">
+        <v>56</v>
+      </c>
+      <c r="J12" t="s">
         <v>60</v>
       </c>
-      <c r="J12" t="s">
-        <v>67</v>
-      </c>
       <c r="K12" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="L12" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="M12" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="N12" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="O12" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -1534,34 +1486,34 @@
         <v>35</v>
       </c>
       <c r="H13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I13" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="J13" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="K13" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="L13" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="M13" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="N13" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="O13" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="P13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1587,34 +1539,34 @@
         <v>35</v>
       </c>
       <c r="H14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I14" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="J14" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="K14" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="L14" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="M14" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="N14" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="O14" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1640,31 +1592,31 @@
         <v>35</v>
       </c>
       <c r="H15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I15" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="J15" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="K15" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="L15" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="M15" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="N15" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="O15" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -1693,28 +1645,28 @@
         <v>35</v>
       </c>
       <c r="H16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I16" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="J16" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="K16" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="L16" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="M16" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="N16" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="O16" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1746,34 +1698,34 @@
         <v>35</v>
       </c>
       <c r="H17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I17" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="J17" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="K17" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="L17" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="M17" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="N17" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="O17" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="P17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1799,34 +1751,34 @@
         <v>35</v>
       </c>
       <c r="H18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I18" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="J18" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="K18" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="L18" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="M18" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="N18" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="O18" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1852,34 +1804,34 @@
         <v>35</v>
       </c>
       <c r="H19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I19" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="J19" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="K19" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="L19" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="M19" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="N19" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="O19" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="P19">
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1905,34 +1857,34 @@
         <v>35</v>
       </c>
       <c r="H20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I20" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="J20" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="K20" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="L20" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="M20" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="N20" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="O20" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="P20">
         <v>1</v>
       </c>
       <c r="Q20">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1958,34 +1910,34 @@
         <v>35</v>
       </c>
       <c r="H21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I21" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="J21" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="K21" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="L21" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="M21" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="N21" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="O21" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="P21">
         <v>1</v>
       </c>
       <c r="Q21">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -2011,34 +1963,34 @@
         <v>35</v>
       </c>
       <c r="H22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I22" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="J22" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="K22" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="L22" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="M22" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="N22" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="O22" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="P22">
         <v>1</v>
       </c>
       <c r="Q22">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -2064,34 +2016,34 @@
         <v>35</v>
       </c>
       <c r="H23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I23" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="J23" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="K23" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="L23" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="M23" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="N23" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="O23" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="P23">
         <v>1</v>
       </c>
       <c r="Q23">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -2117,34 +2069,34 @@
         <v>35</v>
       </c>
       <c r="H24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I24" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="J24" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="K24" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="L24" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="M24" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="N24" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="O24" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -2170,34 +2122,34 @@
         <v>35</v>
       </c>
       <c r="H25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I25" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="J25" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="K25" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="L25" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="M25" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="N25" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="O25" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="P25">
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -2223,34 +2175,34 @@
         <v>35</v>
       </c>
       <c r="H26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I26" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="J26" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="K26" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="L26" t="s">
+        <v>93</v>
+      </c>
+      <c r="M26" t="s">
         <v>106</v>
       </c>
-      <c r="M26" t="s">
-        <v>121</v>
-      </c>
       <c r="N26" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="O26" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="P26">
         <v>1</v>
       </c>
       <c r="Q26">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2276,34 +2228,34 @@
         <v>35</v>
       </c>
       <c r="H27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I27" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="J27" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="K27" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="L27" t="s">
+        <v>93</v>
+      </c>
+      <c r="M27" t="s">
         <v>106</v>
       </c>
-      <c r="M27" t="s">
-        <v>121</v>
-      </c>
       <c r="N27" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="O27" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="P27">
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2329,34 +2281,34 @@
         <v>35</v>
       </c>
       <c r="H28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I28" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="J28" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="K28" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="L28" t="s">
+        <v>93</v>
+      </c>
+      <c r="M28" t="s">
         <v>106</v>
       </c>
-      <c r="M28" t="s">
-        <v>121</v>
-      </c>
       <c r="N28" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="O28" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="P28">
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2382,34 +2334,34 @@
         <v>35</v>
       </c>
       <c r="H29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I29" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="J29" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="K29" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="L29" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="M29" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="N29" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="O29" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="P29">
         <v>1</v>
       </c>
       <c r="Q29">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2435,28 +2387,28 @@
         <v>36</v>
       </c>
       <c r="H30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I30" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J30" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="K30" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="L30" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="M30" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="N30" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="O30" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="P30">
         <v>0</v>
@@ -2488,28 +2440,28 @@
         <v>37</v>
       </c>
       <c r="H31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I31" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J31" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="K31" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="L31" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="M31" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="N31" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="O31" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="P31">
         <v>1</v>
@@ -2541,28 +2493,28 @@
         <v>38</v>
       </c>
       <c r="H32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I32" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J32" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="K32" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="L32" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="M32" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="N32" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="O32" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="P32">
         <v>0</v>
@@ -2594,28 +2546,28 @@
         <v>38</v>
       </c>
       <c r="H33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I33" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J33" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="K33" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="L33" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="M33" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="N33" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="O33" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="P33">
         <v>0</v>
@@ -2647,28 +2599,28 @@
         <v>39</v>
       </c>
       <c r="H34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I34" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J34" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="K34" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="L34" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="M34" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="N34" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="O34" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="P34">
         <v>0</v>
@@ -2700,28 +2652,28 @@
         <v>40</v>
       </c>
       <c r="H35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I35" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J35" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="K35" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="L35" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="M35" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="N35" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="O35" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="P35">
         <v>0</v>
@@ -2753,28 +2705,28 @@
         <v>40</v>
       </c>
       <c r="H36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I36" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J36" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="K36" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="L36" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="M36" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="N36" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="O36" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="P36">
         <v>0</v>
@@ -2806,28 +2758,28 @@
         <v>40</v>
       </c>
       <c r="H37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I37" t="s">
+        <v>58</v>
+      </c>
+      <c r="J37" t="s">
         <v>63</v>
       </c>
-      <c r="J37" t="s">
-        <v>70</v>
-      </c>
       <c r="K37" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="L37" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="M37" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="N37" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="O37" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="P37">
         <v>1</v>
@@ -2859,28 +2811,28 @@
         <v>40</v>
       </c>
       <c r="H38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I38" t="s">
+        <v>58</v>
+      </c>
+      <c r="J38" t="s">
         <v>63</v>
       </c>
-      <c r="J38" t="s">
-        <v>70</v>
-      </c>
       <c r="K38" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="L38" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="M38" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="N38" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="O38" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="P38">
         <v>0</v>
@@ -2912,28 +2864,28 @@
         <v>40</v>
       </c>
       <c r="H39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I39" t="s">
+        <v>58</v>
+      </c>
+      <c r="J39" t="s">
         <v>63</v>
       </c>
-      <c r="J39" t="s">
-        <v>70</v>
-      </c>
       <c r="K39" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="L39" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="M39" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="N39" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="O39" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="P39">
         <v>0</v>
@@ -2965,28 +2917,28 @@
         <v>40</v>
       </c>
       <c r="H40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I40" t="s">
+        <v>58</v>
+      </c>
+      <c r="J40" t="s">
         <v>63</v>
       </c>
-      <c r="J40" t="s">
-        <v>70</v>
-      </c>
       <c r="K40" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="L40" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="M40" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="N40" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="O40" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="P40">
         <v>0</v>
@@ -3018,28 +2970,28 @@
         <v>40</v>
       </c>
       <c r="H41" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I41" t="s">
+        <v>58</v>
+      </c>
+      <c r="J41" t="s">
         <v>63</v>
       </c>
-      <c r="J41" t="s">
-        <v>70</v>
-      </c>
       <c r="K41" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="L41" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="M41" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="N41" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="O41" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="P41">
         <v>0</v>
@@ -3071,28 +3023,28 @@
         <v>40</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I42" t="s">
+        <v>58</v>
+      </c>
+      <c r="J42" t="s">
         <v>63</v>
       </c>
-      <c r="J42" t="s">
-        <v>70</v>
-      </c>
       <c r="K42" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="L42" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="M42" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="N42" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="O42" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="P42">
         <v>1</v>
@@ -3124,34 +3076,34 @@
         <v>40</v>
       </c>
       <c r="H43" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I43" t="s">
+        <v>58</v>
+      </c>
+      <c r="J43" t="s">
         <v>63</v>
       </c>
-      <c r="J43" t="s">
-        <v>70</v>
-      </c>
       <c r="K43" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="L43" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="M43" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="N43" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="O43" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="P43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q43">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -3177,34 +3129,34 @@
         <v>40</v>
       </c>
       <c r="H44" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I44" t="s">
+        <v>58</v>
+      </c>
+      <c r="J44" t="s">
         <v>63</v>
       </c>
-      <c r="J44" t="s">
-        <v>70</v>
-      </c>
       <c r="K44" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="L44" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="M44" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="N44" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="O44" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="P44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q44">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -3230,34 +3182,34 @@
         <v>40</v>
       </c>
       <c r="H45" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
+        <v>58</v>
+      </c>
+      <c r="J45" t="s">
         <v>63</v>
       </c>
-      <c r="J45" t="s">
-        <v>70</v>
-      </c>
       <c r="K45" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="L45" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="M45" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="N45" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="O45" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="P45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -3283,31 +3235,31 @@
         <v>40</v>
       </c>
       <c r="H46" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I46" t="s">
+        <v>58</v>
+      </c>
+      <c r="J46" t="s">
         <v>63</v>
       </c>
-      <c r="J46" t="s">
-        <v>70</v>
-      </c>
       <c r="K46" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="L46" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="M46" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="N46" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="O46" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="P46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46">
         <v>5</v>
@@ -3336,28 +3288,28 @@
         <v>40</v>
       </c>
       <c r="H47" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I47" t="s">
+        <v>58</v>
+      </c>
+      <c r="J47" t="s">
         <v>63</v>
       </c>
-      <c r="J47" t="s">
-        <v>70</v>
-      </c>
       <c r="K47" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="L47" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="M47" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="N47" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="O47" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="P47">
         <v>0</v>
@@ -3389,28 +3341,28 @@
         <v>40</v>
       </c>
       <c r="H48" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I48" t="s">
+        <v>58</v>
+      </c>
+      <c r="J48" t="s">
         <v>63</v>
       </c>
-      <c r="J48" t="s">
-        <v>70</v>
-      </c>
       <c r="K48" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="L48" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="M48" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="N48" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="O48" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="P48">
         <v>0</v>
@@ -3442,28 +3394,28 @@
         <v>40</v>
       </c>
       <c r="H49" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I49" t="s">
+        <v>58</v>
+      </c>
+      <c r="J49" t="s">
         <v>63</v>
       </c>
-      <c r="J49" t="s">
-        <v>71</v>
-      </c>
       <c r="K49" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="L49" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="M49" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="N49" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="O49" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="P49">
         <v>0</v>
@@ -3495,28 +3447,28 @@
         <v>40</v>
       </c>
       <c r="H50" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I50" t="s">
+        <v>58</v>
+      </c>
+      <c r="J50" t="s">
         <v>63</v>
       </c>
-      <c r="J50" t="s">
-        <v>71</v>
-      </c>
       <c r="K50" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="L50" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="M50" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="N50" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="O50" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="P50">
         <v>0</v>
@@ -3548,28 +3500,28 @@
         <v>40</v>
       </c>
       <c r="H51" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I51" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="J51" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="K51" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="L51" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="M51" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="N51" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="O51" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="P51">
         <v>1</v>
@@ -3601,28 +3553,28 @@
         <v>40</v>
       </c>
       <c r="H52" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I52" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="J52" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="K52" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="L52" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="M52" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="N52" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="O52" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="P52">
         <v>1</v>
@@ -3654,28 +3606,28 @@
         <v>40</v>
       </c>
       <c r="H53" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I53" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="J53" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="K53" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="L53" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="M53" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="N53" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="O53" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="P53">
         <v>1</v>
@@ -3707,28 +3659,28 @@
         <v>40</v>
       </c>
       <c r="H54" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I54" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="J54" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="K54" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="L54" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="M54" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="N54" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="O54" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="P54">
         <v>1</v>
@@ -3760,34 +3712,34 @@
         <v>40</v>
       </c>
       <c r="H55" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I55" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="J55" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="K55" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="L55" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="M55" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="N55" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="O55" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="P55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:17">
@@ -3813,34 +3765,34 @@
         <v>40</v>
       </c>
       <c r="H56" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I56" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="J56" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="K56" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="L56" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="M56" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="N56" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="O56" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="P56">
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:17">
@@ -3866,34 +3818,34 @@
         <v>40</v>
       </c>
       <c r="H57" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I57" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="J57" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="K57" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="L57" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="M57" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="N57" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="O57" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="P57">
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:17">
@@ -3919,34 +3871,34 @@
         <v>40</v>
       </c>
       <c r="H58" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I58" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="J58" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="K58" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="L58" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="M58" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="N58" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="O58" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="P58">
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:17">
@@ -3972,34 +3924,34 @@
         <v>40</v>
       </c>
       <c r="H59" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I59" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="J59" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="K59" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="L59" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="M59" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="N59" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="O59" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="P59">
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60" spans="1:17">
@@ -4025,34 +3977,34 @@
         <v>40</v>
       </c>
       <c r="H60" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I60" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="J60" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="K60" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="L60" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="M60" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="N60" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="O60" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="P60">
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61" spans="1:17">
@@ -4078,34 +4030,34 @@
         <v>40</v>
       </c>
       <c r="H61" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I61" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="J61" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="K61" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="L61" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="M61" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="N61" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="O61" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="P61">
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62" spans="1:17">
@@ -4131,34 +4083,34 @@
         <v>40</v>
       </c>
       <c r="H62" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I62" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="J62" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="K62" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="L62" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="M62" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="N62" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="O62" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="P62">
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63" spans="1:17">
@@ -4184,34 +4136,34 @@
         <v>40</v>
       </c>
       <c r="H63" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I63" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="J63" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="K63" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="L63" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="M63" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="N63" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="O63" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="P63">
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64" spans="1:17">
@@ -4237,34 +4189,34 @@
         <v>40</v>
       </c>
       <c r="H64" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I64" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="J64" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="K64" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="L64" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="M64" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="N64" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="O64" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="P64">
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65" spans="1:17">
@@ -4290,34 +4242,34 @@
         <v>40</v>
       </c>
       <c r="H65" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I65" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="J65" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="K65" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="L65" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="M65" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="N65" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="O65" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="P65">
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66" spans="1:17">
@@ -4343,34 +4295,34 @@
         <v>40</v>
       </c>
       <c r="H66" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I66" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="J66" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="K66" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="L66" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="M66" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="N66" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="O66" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="P66">
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67" spans="1:17">
@@ -4396,34 +4348,34 @@
         <v>40</v>
       </c>
       <c r="H67" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I67" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="J67" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="K67" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="L67" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="M67" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="N67" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="O67" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="P67">
         <v>1</v>
       </c>
       <c r="Q67">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="68" spans="1:17">
@@ -4449,34 +4401,34 @@
         <v>40</v>
       </c>
       <c r="H68" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I68" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="J68" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="K68" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="L68" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="M68" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="N68" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="O68" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="P68">
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="69" spans="1:17">
@@ -4502,34 +4454,34 @@
         <v>40</v>
       </c>
       <c r="H69" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I69" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="J69" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="K69" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="L69" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="M69" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="N69" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="O69" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="P69">
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="70" spans="1:17">
@@ -4555,34 +4507,34 @@
         <v>40</v>
       </c>
       <c r="H70" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I70" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="J70" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="K70" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="L70" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="M70" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="N70" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="O70" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="P70">
         <v>1</v>
       </c>
       <c r="Q70">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" spans="1:17">
@@ -4608,34 +4560,34 @@
         <v>40</v>
       </c>
       <c r="H71" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I71" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="J71" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="K71" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="L71" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="M71" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="N71" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="O71" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="P71">
         <v>1</v>
       </c>
       <c r="Q71">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="72" spans="1:17">
@@ -4661,34 +4613,34 @@
         <v>40</v>
       </c>
       <c r="H72" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I72" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="J72" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="K72" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="L72" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="M72" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="N72" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="O72" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="P72">
         <v>1</v>
       </c>
       <c r="Q72">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="73" spans="1:17">
@@ -4714,34 +4666,34 @@
         <v>40</v>
       </c>
       <c r="H73" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I73" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="J73" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="K73" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="L73" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="M73" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="N73" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="O73" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="P73">
         <v>1</v>
       </c>
       <c r="Q73">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="74" spans="1:17">
@@ -4767,34 +4719,34 @@
         <v>40</v>
       </c>
       <c r="H74" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I74" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="J74" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="K74" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="L74" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="M74" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="N74" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="O74" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="P74">
         <v>1</v>
       </c>
       <c r="Q74">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" spans="1:17">
@@ -4820,28 +4772,28 @@
         <v>41</v>
       </c>
       <c r="H75" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I75" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="J75" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="K75" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="L75" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="M75" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="N75" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="O75" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="P75">
         <v>0</v>
@@ -4873,28 +4825,28 @@
         <v>41</v>
       </c>
       <c r="H76" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I76" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="J76" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="K76" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="L76" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="M76" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="N76" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="O76" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="P76">
         <v>0</v>
@@ -4926,28 +4878,28 @@
         <v>41</v>
       </c>
       <c r="H77" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I77" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="J77" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="K77" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="L77" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="M77" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="N77" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="O77" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="P77">
         <v>0</v>
@@ -4979,28 +4931,28 @@
         <v>42</v>
       </c>
       <c r="H78" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I78" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="J78" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="K78" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="L78" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="M78" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="N78" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="O78" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="P78">
         <v>1</v>
@@ -5032,28 +4984,28 @@
         <v>42</v>
       </c>
       <c r="H79" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I79" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="J79" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="K79" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="L79" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="M79" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="N79" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="O79" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="P79">
         <v>0</v>
@@ -5085,28 +5037,28 @@
         <v>42</v>
       </c>
       <c r="H80" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I80" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="J80" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="K80" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="L80" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="M80" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="N80" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="O80" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="P80">
         <v>0</v>
@@ -5138,28 +5090,28 @@
         <v>42</v>
       </c>
       <c r="H81" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I81" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="J81" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="K81" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="L81" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="M81" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="N81" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="O81" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="P81">
         <v>1</v>
@@ -5191,28 +5143,28 @@
         <v>42</v>
       </c>
       <c r="H82" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I82" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="J82" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="K82" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="L82" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="M82" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="N82" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="O82" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="P82">
         <v>1</v>
@@ -5244,28 +5196,28 @@
         <v>42</v>
       </c>
       <c r="H83" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I83" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="J83" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="K83" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="L83" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="M83" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="N83" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="O83" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="P83">
         <v>0</v>
@@ -5297,28 +5249,28 @@
         <v>42</v>
       </c>
       <c r="H84" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I84" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="J84" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="K84" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="L84" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="M84" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="N84" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="O84" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="P84">
         <v>1</v>
@@ -5350,28 +5302,28 @@
         <v>42</v>
       </c>
       <c r="H85" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I85" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="J85" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="K85" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="L85" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="M85" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="N85" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="O85" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="P85">
         <v>1</v>
@@ -5403,28 +5355,28 @@
         <v>42</v>
       </c>
       <c r="H86" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I86" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="J86" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="K86" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="L86" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="M86" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="N86" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="O86" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="P86">
         <v>0</v>
@@ -5456,28 +5408,28 @@
         <v>42</v>
       </c>
       <c r="H87" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I87" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="J87" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="K87" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="L87" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="M87" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="N87" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="O87" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="P87">
         <v>1</v>
@@ -5509,28 +5461,28 @@
         <v>42</v>
       </c>
       <c r="H88" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I88" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="J88" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K88" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="L88" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="M88" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="N88" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="O88" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="P88">
         <v>1</v>
@@ -5562,28 +5514,28 @@
         <v>42</v>
       </c>
       <c r="H89" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I89" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="J89" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K89" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="L89" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="M89" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="N89" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="O89" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="P89">
         <v>0</v>
@@ -5615,28 +5567,28 @@
         <v>42</v>
       </c>
       <c r="H90" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I90" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="J90" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="K90" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="L90" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="M90" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="N90" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="O90" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="P90">
         <v>1</v>
@@ -5668,28 +5620,28 @@
         <v>42</v>
       </c>
       <c r="H91" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I91" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="J91" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="K91" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="L91" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="M91" t="s">
+        <v>122</v>
+      </c>
+      <c r="N91" t="s">
         <v>143</v>
       </c>
-      <c r="N91" t="s">
-        <v>159</v>
-      </c>
       <c r="O91" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="P91">
         <v>0</v>
@@ -5721,28 +5673,28 @@
         <v>42</v>
       </c>
       <c r="H92" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I92" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="J92" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="K92" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="L92" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="M92" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="N92" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="O92" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="P92">
         <v>0</v>
@@ -5774,28 +5726,28 @@
         <v>42</v>
       </c>
       <c r="H93" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I93" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="J93" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="K93" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="L93" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="M93" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="N93" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="O93" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="P93">
         <v>1</v>
@@ -5827,28 +5779,28 @@
         <v>42</v>
       </c>
       <c r="H94" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I94" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="J94" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="K94" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="L94" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="M94" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="N94" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="O94" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="P94">
         <v>1</v>
@@ -5880,28 +5832,28 @@
         <v>42</v>
       </c>
       <c r="H95" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I95" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="J95" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="K95" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="L95" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="M95" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="N95" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="O95" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="P95">
         <v>0</v>
@@ -5933,28 +5885,28 @@
         <v>42</v>
       </c>
       <c r="H96" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I96" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="J96" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="K96" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="L96" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="M96" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="N96" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="O96" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="P96">
         <v>1</v>
@@ -5986,28 +5938,28 @@
         <v>42</v>
       </c>
       <c r="H97" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I97" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="J97" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="K97" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="L97" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="M97" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="N97" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="O97" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="P97">
         <v>0</v>
@@ -6039,28 +5991,28 @@
         <v>42</v>
       </c>
       <c r="H98" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I98" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="J98" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="K98" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="L98" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="M98" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="N98" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="O98" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="P98">
         <v>0</v>
@@ -6092,28 +6044,28 @@
         <v>42</v>
       </c>
       <c r="H99" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I99" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="J99" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="K99" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="L99" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="M99" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="N99" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="O99" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="P99">
         <v>0</v>
@@ -6145,28 +6097,28 @@
         <v>42</v>
       </c>
       <c r="H100" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I100" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="J100" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="K100" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="L100" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="M100" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="N100" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="O100" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="P100">
         <v>0</v>
